--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -486,17 +486,13 @@
         <v>373.3333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>373</v>
-      </c>
-      <c r="K3" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -525,22 +521,14 @@
         <v>373</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>373</v>
-      </c>
-      <c r="K4" t="n">
-        <v>373</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -568,22 +556,14 @@
         <v>373</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>376</v>
-      </c>
-      <c r="K5" t="n">
-        <v>373</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -611,22 +591,14 @@
         <v>373.3333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>374</v>
-      </c>
-      <c r="K6" t="n">
-        <v>373</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -654,22 +626,14 @@
         <v>373.3333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>373</v>
-      </c>
-      <c r="K7" t="n">
-        <v>373</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,22 +661,14 @@
         <v>373.3333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>373</v>
-      </c>
-      <c r="K8" t="n">
-        <v>373</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -740,22 +696,14 @@
         <v>373</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>373</v>
-      </c>
-      <c r="K9" t="n">
-        <v>373</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>373</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>373</v>
-      </c>
-      <c r="K10" t="n">
-        <v>373</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,22 +766,14 @@
         <v>372.6666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>379</v>
-      </c>
-      <c r="K11" t="n">
-        <v>373</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,22 +801,14 @@
         <v>372.6666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>373</v>
-      </c>
-      <c r="K12" t="n">
-        <v>373</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -912,22 +836,14 @@
         <v>374.3333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>378</v>
-      </c>
-      <c r="K13" t="n">
-        <v>373</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,22 +871,14 @@
         <v>374.3333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>372</v>
-      </c>
-      <c r="K14" t="n">
-        <v>373</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,22 +906,14 @@
         <v>374</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>372</v>
-      </c>
-      <c r="K15" t="n">
-        <v>373</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,22 +941,14 @@
         <v>374</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>378</v>
-      </c>
-      <c r="K16" t="n">
-        <v>373</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1084,22 +976,14 @@
         <v>375</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>378</v>
-      </c>
-      <c r="K17" t="n">
-        <v>373</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1127,22 +1011,14 @@
         <v>375.6666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>375</v>
-      </c>
-      <c r="K18" t="n">
-        <v>373</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,22 +1046,14 @@
         <v>374</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>373</v>
-      </c>
-      <c r="K19" t="n">
-        <v>373</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1213,22 +1081,14 @@
         <v>373.3333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>373</v>
-      </c>
-      <c r="K20" t="n">
-        <v>373</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1256,22 +1116,14 @@
         <v>375</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>379</v>
-      </c>
-      <c r="K21" t="n">
-        <v>373</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1299,22 +1151,14 @@
         <v>374.6666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>375</v>
-      </c>
-      <c r="K22" t="n">
-        <v>373</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1342,22 +1186,14 @@
         <v>374.3333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>372</v>
-      </c>
-      <c r="K23" t="n">
-        <v>373</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1385,22 +1221,14 @@
         <v>372</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>372</v>
-      </c>
-      <c r="K24" t="n">
-        <v>373</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1256,14 @@
         <v>372</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>372</v>
-      </c>
-      <c r="K25" t="n">
-        <v>373</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1471,22 +1291,14 @@
         <v>372</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>372</v>
-      </c>
-      <c r="K26" t="n">
-        <v>373</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,22 +1326,14 @@
         <v>372</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>372</v>
-      </c>
-      <c r="K27" t="n">
-        <v>373</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1557,22 +1361,14 @@
         <v>372</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>372</v>
-      </c>
-      <c r="K28" t="n">
-        <v>373</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1600,22 +1396,14 @@
         <v>372</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>372</v>
-      </c>
-      <c r="K29" t="n">
-        <v>373</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1643,22 +1431,14 @@
         <v>372.3333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>379</v>
-      </c>
-      <c r="K30" t="n">
-        <v>373</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1686,22 +1466,14 @@
         <v>374.6666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>379</v>
-      </c>
-      <c r="K31" t="n">
-        <v>373</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1729,22 +1501,14 @@
         <v>375.3333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>374</v>
-      </c>
-      <c r="K32" t="n">
-        <v>373</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1772,22 +1536,14 @@
         <v>376</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>375</v>
-      </c>
-      <c r="K33" t="n">
-        <v>373</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1815,22 +1571,14 @@
         <v>374</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>373</v>
-      </c>
-      <c r="K34" t="n">
-        <v>373</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1858,22 +1606,14 @@
         <v>375.3333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>375</v>
-      </c>
-      <c r="K35" t="n">
-        <v>373</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1901,22 +1641,14 @@
         <v>376.3333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>373</v>
-      </c>
-      <c r="K36" t="n">
-        <v>373</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1944,22 +1676,14 @@
         <v>376</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>377</v>
-      </c>
-      <c r="K37" t="n">
-        <v>373</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1987,22 +1711,14 @@
         <v>374.3333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>373</v>
-      </c>
-      <c r="K38" t="n">
-        <v>373</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2030,22 +1746,14 @@
         <v>372.3333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>372</v>
-      </c>
-      <c r="K39" t="n">
-        <v>373</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2073,22 +1781,14 @@
         <v>374.3333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>378</v>
-      </c>
-      <c r="K40" t="n">
-        <v>373</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +1816,14 @@
         <v>374.6666666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>374</v>
-      </c>
-      <c r="K41" t="n">
-        <v>373</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2159,22 +1851,14 @@
         <v>375.3333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>374</v>
-      </c>
-      <c r="K42" t="n">
-        <v>373</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +1886,14 @@
         <v>375</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>377</v>
-      </c>
-      <c r="K43" t="n">
-        <v>373</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2245,22 +1921,14 @@
         <v>383</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>377</v>
-      </c>
-      <c r="K44" t="n">
-        <v>373</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +1956,14 @@
         <v>387.6666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>398</v>
-      </c>
-      <c r="K45" t="n">
-        <v>373</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2337,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>373</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2375,17 +2029,11 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>373</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2419,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>373</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2460,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>373</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2501,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>373</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2542,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>373</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2583,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>373</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>373</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2665,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>373</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2706,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>373</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>373</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2788,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>373</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>373</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>373</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>373</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>373</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>373</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3034,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>373</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3075,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>373</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3116,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>373</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3157,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>373</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3198,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>373</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>373</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>373</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3321,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>373</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3362,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>373</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3403,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>373</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>373</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3485,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>373</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3526,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>373</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3567,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>373</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3608,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>373</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3649,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>373</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3690,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>373</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3731,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>373</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3772,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>373</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>373</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>373</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3895,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>373</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3936,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>373</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3977,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>373</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4018,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>373</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4059,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>373</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4100,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>373</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4141,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>373</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4182,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>373</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>373</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4264,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>373</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4305,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>373</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4346,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>373</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4387,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>373</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4428,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>373</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4469,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>373</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4510,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>373</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4551,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>373</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4592,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>373</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>373</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4668,18 +3986,18 @@
         <v>380.3333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>373</v>
-      </c>
+      <c r="J103" t="n">
+        <v>381</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4715,9 +4033,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>373</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4750,15 +4066,15 @@
         <v>381.3333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>373</v>
-      </c>
+      <c r="J105" t="n">
+        <v>382</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,9 +4113,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>373</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,9 +4152,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>373</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,9 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>373</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,9 +4230,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>373</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,9 +4269,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>373</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5002,9 +4308,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>373</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,9 +4347,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>373</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5084,9 +4386,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>373</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,9 +4425,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>373</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,9 +4464,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>373</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,9 +4503,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>373</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,9 +4542,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>373</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,9 +4581,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>373</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,9 +4620,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>373</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,9 +4659,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>373</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,9 +4698,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>373</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,9 +4737,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>373</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,9 +4776,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>373</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,9 +4815,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>373</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,9 +4854,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>373</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,9 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>373</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,9 +4932,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>373</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5699,9 +4971,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>373</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5740,9 +5010,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>373</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5781,9 +5049,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>373</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5822,9 +5088,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>373</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,9 +5127,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>373</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5904,9 +5166,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>373</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5945,9 +5205,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>373</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,9 +5244,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>373</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6027,9 +5283,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>373</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6068,9 +5322,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>373</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6109,9 +5361,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>373</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,9 +5400,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>373</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,9 +5439,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>373</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6232,9 +5478,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>373</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6273,9 +5517,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>373</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6314,9 +5556,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>373</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6355,9 +5595,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>373</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,9 +5634,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>373</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,9 +5673,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>373</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,9 +5712,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>373</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6519,9 +5751,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>373</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,9 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>373</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6601,9 +5829,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>373</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6642,9 +5868,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>373</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6683,9 +5907,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>373</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6724,9 +5946,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>373</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6765,9 +5985,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>373</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6806,9 +6024,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>373</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,9 +6063,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>373</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6888,9 +6102,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>373</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6929,9 +6141,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>373</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,9 +6180,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>373</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,9 +6219,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>373</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7052,9 +6258,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>373</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7093,9 +6297,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>373</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7134,9 +6336,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>373</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7175,9 +6375,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>373</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,9 +6414,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>373</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7257,9 +6453,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>373</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7298,9 +6492,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>373</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7339,9 +6531,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>373</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7380,9 +6570,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>373</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7421,9 +6609,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>373</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7462,9 +6648,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>373</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7503,9 +6687,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>373</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7544,9 +6726,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>373</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7585,9 +6765,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>373</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,9 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>373</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7667,9 +6843,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>373</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7708,9 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>373</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7749,9 +6921,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>373</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,9 +6960,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>373</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7831,9 +6999,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>373</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7872,9 +7038,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>373</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F2" t="n">
-        <v>1100.0941</v>
+        <v>2120.8579</v>
       </c>
       <c r="G2" t="n">
-        <v>375.3333333333333</v>
+        <v>372.0166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,16 +480,16 @@
         <v>373</v>
       </c>
       <c r="F3" t="n">
-        <v>727.9417</v>
+        <v>1100.0941</v>
       </c>
       <c r="G3" t="n">
-        <v>373.3333333333333</v>
+        <v>372.2833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -515,16 +515,16 @@
         <v>373</v>
       </c>
       <c r="F4" t="n">
-        <v>2640</v>
+        <v>727.9417</v>
       </c>
       <c r="G4" t="n">
-        <v>373</v>
+        <v>372.45</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C5" t="n">
         <v>373</v>
       </c>
       <c r="D5" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E5" t="n">
         <v>373</v>
       </c>
       <c r="F5" t="n">
-        <v>3452.4293</v>
+        <v>2640</v>
       </c>
       <c r="G5" t="n">
-        <v>373</v>
+        <v>372.6166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C6" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E6" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F6" t="n">
-        <v>81.6408</v>
+        <v>3452.4293</v>
       </c>
       <c r="G6" t="n">
-        <v>373.3333333333333</v>
+        <v>372.75</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C7" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D7" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E7" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>81.6408</v>
       </c>
       <c r="G7" t="n">
-        <v>373.3333333333333</v>
+        <v>372.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>373</v>
       </c>
       <c r="F8" t="n">
-        <v>578.1593</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>373.3333333333333</v>
+        <v>373.0166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>373</v>
       </c>
       <c r="F9" t="n">
-        <v>582</v>
+        <v>578.1593</v>
       </c>
       <c r="G9" t="n">
-        <v>373</v>
+        <v>373.0666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>373</v>
       </c>
       <c r="F10" t="n">
-        <v>280</v>
+        <v>582</v>
       </c>
       <c r="G10" t="n">
-        <v>373</v>
+        <v>373.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D11" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F11" t="n">
-        <v>983.942</v>
+        <v>280</v>
       </c>
       <c r="G11" t="n">
-        <v>372.6666666666667</v>
+        <v>373.0333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C12" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E12" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F12" t="n">
-        <v>307.8295</v>
+        <v>983.942</v>
       </c>
       <c r="G12" t="n">
-        <v>372.6666666666667</v>
+        <v>372.95</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C13" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D13" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E13" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>307.8295</v>
       </c>
       <c r="G13" t="n">
-        <v>374.3333333333333</v>
+        <v>372.95</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C14" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D14" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E14" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F14" t="n">
-        <v>3705.9996</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>374.3333333333333</v>
+        <v>373.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>372</v>
       </c>
       <c r="F15" t="n">
-        <v>4798.865</v>
+        <v>3705.9996</v>
       </c>
       <c r="G15" t="n">
-        <v>374</v>
+        <v>373.1666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C16" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D16" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E16" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>4798.865</v>
       </c>
       <c r="G16" t="n">
-        <v>374</v>
+        <v>373.25</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>378</v>
       </c>
       <c r="C17" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D17" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E17" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F17" t="n">
-        <v>3660.5751</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>375</v>
+        <v>373.4333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>378</v>
+      </c>
+      <c r="C18" t="n">
         <v>375</v>
       </c>
-      <c r="C18" t="n">
-        <v>374</v>
-      </c>
       <c r="D18" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E18" t="n">
         <v>374</v>
       </c>
       <c r="F18" t="n">
-        <v>1180.584</v>
+        <v>3660.5751</v>
       </c>
       <c r="G18" t="n">
-        <v>375.6666666666667</v>
+        <v>373.5666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C19" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D19" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E19" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F19" t="n">
-        <v>191</v>
+        <v>1180.584</v>
       </c>
       <c r="G19" t="n">
-        <v>374</v>
+        <v>373.6833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>373</v>
       </c>
       <c r="F20" t="n">
-        <v>118.6051</v>
+        <v>191</v>
       </c>
       <c r="G20" t="n">
-        <v>373.3333333333333</v>
+        <v>373.6166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C21" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D21" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E21" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F21" t="n">
-        <v>1.5145</v>
+        <v>118.6051</v>
       </c>
       <c r="G21" t="n">
-        <v>375</v>
+        <v>373.5666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C22" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D22" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E22" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F22" t="n">
-        <v>298.3972</v>
+        <v>1.5145</v>
       </c>
       <c r="G22" t="n">
-        <v>374.6666666666667</v>
+        <v>373.7666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C23" t="n">
         <v>372</v>
       </c>
       <c r="D23" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E23" t="n">
         <v>372</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>298.3972</v>
       </c>
       <c r="G23" t="n">
-        <v>374.3333333333333</v>
+        <v>373.85</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>372</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>372</v>
+        <v>373.95</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>372</v>
       </c>
       <c r="F25" t="n">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>372</v>
+        <v>374.0666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>372</v>
       </c>
       <c r="F26" t="n">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="G26" t="n">
-        <v>372</v>
+        <v>374.1833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>372</v>
       </c>
       <c r="F27" t="n">
-        <v>920</v>
+        <v>171</v>
       </c>
       <c r="G27" t="n">
-        <v>372</v>
+        <v>374.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>372</v>
       </c>
       <c r="F28" t="n">
-        <v>314.0925</v>
+        <v>920</v>
       </c>
       <c r="G28" t="n">
-        <v>372</v>
+        <v>374.35</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>372</v>
       </c>
       <c r="F29" t="n">
-        <v>1052.9998</v>
+        <v>314.0925</v>
       </c>
       <c r="G29" t="n">
-        <v>372</v>
+        <v>374.3833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C30" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D30" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E30" t="n">
         <v>372</v>
       </c>
       <c r="F30" t="n">
-        <v>750.1574000000001</v>
+        <v>1052.9998</v>
       </c>
       <c r="G30" t="n">
-        <v>372.3333333333333</v>
+        <v>374.4166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>379</v>
       </c>
       <c r="C31" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D31" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E31" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F31" t="n">
-        <v>911.0776</v>
+        <v>750.1574000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>374.6666666666667</v>
+        <v>374.4166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C32" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D32" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E32" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F32" t="n">
-        <v>200.7011</v>
+        <v>911.0776</v>
       </c>
       <c r="G32" t="n">
-        <v>375.3333333333333</v>
+        <v>374.4833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D33" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E33" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F33" t="n">
-        <v>2719</v>
+        <v>200.7011</v>
       </c>
       <c r="G33" t="n">
-        <v>376</v>
+        <v>374.4666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C34" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D34" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E34" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F34" t="n">
-        <v>132.9041</v>
+        <v>2719</v>
       </c>
       <c r="G34" t="n">
-        <v>374</v>
+        <v>374.45</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C35" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D35" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E35" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F35" t="n">
-        <v>1328.5158</v>
+        <v>132.9041</v>
       </c>
       <c r="G35" t="n">
-        <v>375.3333333333333</v>
+        <v>374.4166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C36" t="n">
         <v>378</v>
@@ -1632,13 +1632,13 @@
         <v>378</v>
       </c>
       <c r="E36" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F36" t="n">
-        <v>172.182</v>
+        <v>1328.5158</v>
       </c>
       <c r="G36" t="n">
-        <v>376.3333333333333</v>
+        <v>374.5166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C37" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E37" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F37" t="n">
-        <v>10677.2235</v>
+        <v>172.182</v>
       </c>
       <c r="G37" t="n">
-        <v>376</v>
+        <v>374.5833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C38" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D38" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E38" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7747</v>
+        <v>10677.2235</v>
       </c>
       <c r="G38" t="n">
-        <v>374.3333333333333</v>
+        <v>374.55</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C39" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D39" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E39" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F39" t="n">
-        <v>1040</v>
+        <v>233.7747</v>
       </c>
       <c r="G39" t="n">
-        <v>372.3333333333333</v>
+        <v>374.5333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C40" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D40" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E40" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F40" t="n">
-        <v>61</v>
+        <v>1040</v>
       </c>
       <c r="G40" t="n">
-        <v>374.3333333333333</v>
+        <v>374.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C41" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D41" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E41" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>61</v>
       </c>
       <c r="G41" t="n">
-        <v>374.6666666666667</v>
+        <v>374.55</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>374</v>
       </c>
       <c r="F42" t="n">
-        <v>1016.8467</v>
+        <v>500</v>
       </c>
       <c r="G42" t="n">
-        <v>375.3333333333333</v>
+        <v>374.5166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C43" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D43" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E43" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>1016.8467</v>
       </c>
       <c r="G43" t="n">
-        <v>375</v>
+        <v>374.5833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>377</v>
       </c>
       <c r="C44" t="n">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="D44" t="n">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="E44" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F44" t="n">
-        <v>7976.0655</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>383</v>
+        <v>374.6333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>377</v>
+      </c>
+      <c r="C45" t="n">
         <v>398</v>
-      </c>
-      <c r="C45" t="n">
-        <v>388</v>
       </c>
       <c r="D45" t="n">
         <v>398</v>
       </c>
       <c r="E45" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F45" t="n">
-        <v>2966.8696</v>
+        <v>7976.0655</v>
       </c>
       <c r="G45" t="n">
-        <v>387.6666666666667</v>
+        <v>375.0666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C46" t="n">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D46" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E46" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F46" t="n">
-        <v>234</v>
+        <v>2966.8696</v>
       </c>
       <c r="G46" t="n">
-        <v>393.3333333333333</v>
+        <v>375.3166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C47" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D47" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E47" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F47" t="n">
-        <v>790.754</v>
+        <v>234</v>
       </c>
       <c r="G47" t="n">
-        <v>390</v>
+        <v>375.7333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C48" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D48" t="n">
         <v>388</v>
       </c>
       <c r="E48" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F48" t="n">
-        <v>15972.9191</v>
+        <v>790.754</v>
       </c>
       <c r="G48" t="n">
-        <v>387.3333333333333</v>
+        <v>375.9833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>380</v>
       </c>
       <c r="D49" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E49" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F49" t="n">
-        <v>797.908</v>
+        <v>15972.9191</v>
       </c>
       <c r="G49" t="n">
-        <v>382.6666666666667</v>
+        <v>376.0666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C50" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D50" t="n">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E50" t="n">
         <v>380</v>
       </c>
       <c r="F50" t="n">
-        <v>11355.9618</v>
+        <v>797.908</v>
       </c>
       <c r="G50" t="n">
-        <v>380.6666666666667</v>
+        <v>376.1333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>381</v>
+      </c>
+      <c r="C51" t="n">
         <v>382</v>
-      </c>
-      <c r="C51" t="n">
-        <v>381</v>
       </c>
       <c r="D51" t="n">
         <v>398</v>
@@ -2160,10 +2160,10 @@
         <v>380</v>
       </c>
       <c r="F51" t="n">
-        <v>4234.2261</v>
+        <v>11355.9618</v>
       </c>
       <c r="G51" t="n">
-        <v>381</v>
+        <v>376.2166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" t="n">
         <v>381</v>
       </c>
       <c r="D52" t="n">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E52" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F52" t="n">
-        <v>9160.8969</v>
+        <v>4234.2261</v>
       </c>
       <c r="G52" t="n">
-        <v>381.3333333333333</v>
+        <v>376.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C53" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D53" t="n">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E53" t="n">
         <v>381</v>
       </c>
       <c r="F53" t="n">
-        <v>706.5925</v>
+        <v>9160.8969</v>
       </c>
       <c r="G53" t="n">
-        <v>381.6666666666667</v>
+        <v>376.2833333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C54" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D54" t="n">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E54" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F54" t="n">
-        <v>382.3905</v>
+        <v>706.5925</v>
       </c>
       <c r="G54" t="n">
-        <v>382</v>
+        <v>376.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C55" t="n">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D55" t="n">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E55" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F55" t="n">
-        <v>1111</v>
+        <v>382.3905</v>
       </c>
       <c r="G55" t="n">
-        <v>386</v>
+        <v>376.4333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>383</v>
       </c>
       <c r="C56" t="n">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D56" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E56" t="n">
         <v>383</v>
       </c>
       <c r="F56" t="n">
-        <v>1327.0495</v>
+        <v>1111</v>
       </c>
       <c r="G56" t="n">
-        <v>386.3333333333333</v>
+        <v>376.65</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C57" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D57" t="n">
         <v>395</v>
@@ -2370,10 +2370,10 @@
         <v>383</v>
       </c>
       <c r="F57" t="n">
-        <v>21592.6257</v>
+        <v>1327.0495</v>
       </c>
       <c r="G57" t="n">
-        <v>386.6666666666667</v>
+        <v>376.75</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>386</v>
       </c>
       <c r="C58" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D58" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E58" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F58" t="n">
-        <v>673</v>
+        <v>21592.6257</v>
       </c>
       <c r="G58" t="n">
-        <v>384</v>
+        <v>376.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>386</v>
+      </c>
+      <c r="C59" t="n">
+        <v>385</v>
+      </c>
+      <c r="D59" t="n">
         <v>393</v>
       </c>
-      <c r="C59" t="n">
-        <v>388</v>
-      </c>
-      <c r="D59" t="n">
-        <v>394</v>
-      </c>
       <c r="E59" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F59" t="n">
-        <v>4659.6794</v>
+        <v>673</v>
       </c>
       <c r="G59" t="n">
-        <v>385.3333333333333</v>
+        <v>376.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2469,16 +2469,16 @@
         <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E60" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F60" t="n">
-        <v>5353.4963</v>
+        <v>4659.6794</v>
       </c>
       <c r="G60" t="n">
-        <v>387</v>
+        <v>377.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C61" t="n">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D61" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E61" t="n">
         <v>387</v>
       </c>
       <c r="F61" t="n">
-        <v>8642.260899999999</v>
+        <v>5353.4963</v>
       </c>
       <c r="G61" t="n">
-        <v>389.6666666666667</v>
+        <v>377.25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>394</v>
+      </c>
+      <c r="C62" t="n">
         <v>393</v>
       </c>
-      <c r="C62" t="n">
-        <v>389</v>
-      </c>
       <c r="D62" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E62" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F62" t="n">
-        <v>14863.4863</v>
+        <v>8642.260899999999</v>
       </c>
       <c r="G62" t="n">
-        <v>390</v>
+        <v>377.5666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>393</v>
+      </c>
+      <c r="C63" t="n">
         <v>389</v>
       </c>
-      <c r="C63" t="n">
-        <v>395</v>
-      </c>
       <c r="D63" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E63" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F63" t="n">
-        <v>343.0696</v>
+        <v>14863.4863</v>
       </c>
       <c r="G63" t="n">
-        <v>392.3333333333333</v>
+        <v>377.8333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" t="n">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D64" t="n">
         <v>395</v>
       </c>
       <c r="E64" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F64" t="n">
-        <v>9570.3791</v>
+        <v>343.0696</v>
       </c>
       <c r="G64" t="n">
-        <v>390.6666666666667</v>
+        <v>378.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C65" t="n">
         <v>388</v>
       </c>
       <c r="D65" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E65" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F65" t="n">
-        <v>142.1689</v>
+        <v>9570.3791</v>
       </c>
       <c r="G65" t="n">
-        <v>390.3333333333333</v>
+        <v>378.45</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>387</v>
+      </c>
+      <c r="C66" t="n">
+        <v>388</v>
+      </c>
+      <c r="D66" t="n">
         <v>393</v>
       </c>
-      <c r="C66" t="n">
-        <v>395</v>
-      </c>
-      <c r="D66" t="n">
-        <v>397</v>
-      </c>
       <c r="E66" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F66" t="n">
-        <v>10820.1783</v>
+        <v>142.1689</v>
       </c>
       <c r="G66" t="n">
-        <v>390.3333333333333</v>
+        <v>378.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C67" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D67" t="n">
         <v>397</v>
       </c>
       <c r="E67" t="n">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F67" t="n">
-        <v>4918.8154</v>
+        <v>10820.1783</v>
       </c>
       <c r="G67" t="n">
-        <v>393.3333333333333</v>
+        <v>379.05</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C68" t="n">
         <v>397</v>
       </c>
       <c r="D68" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E68" t="n">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F68" t="n">
-        <v>15212.7135</v>
+        <v>4918.8154</v>
       </c>
       <c r="G68" t="n">
-        <v>396.3333333333333</v>
+        <v>379.45</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>397</v>
       </c>
       <c r="C69" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D69" t="n">
         <v>399</v>
       </c>
       <c r="E69" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F69" t="n">
-        <v>3935.0812</v>
+        <v>15212.7135</v>
       </c>
       <c r="G69" t="n">
-        <v>395.6666666666667</v>
+        <v>379.85</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C70" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D70" t="n">
         <v>399</v>
       </c>
       <c r="E70" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F70" t="n">
-        <v>3545.4876</v>
+        <v>3935.0812</v>
       </c>
       <c r="G70" t="n">
-        <v>393</v>
+        <v>380.1833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>394</v>
+      </c>
+      <c r="C71" t="n">
         <v>389</v>
       </c>
-      <c r="C71" t="n">
-        <v>381</v>
-      </c>
       <c r="D71" t="n">
+        <v>399</v>
+      </c>
+      <c r="E71" t="n">
         <v>389</v>
       </c>
-      <c r="E71" t="n">
-        <v>381</v>
-      </c>
       <c r="F71" t="n">
-        <v>10086.125</v>
+        <v>3545.4876</v>
       </c>
       <c r="G71" t="n">
-        <v>387.6666666666667</v>
+        <v>380.45</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C72" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D72" t="n">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E72" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F72" t="n">
-        <v>1272.4073</v>
+        <v>10086.125</v>
       </c>
       <c r="G72" t="n">
-        <v>384.3333333333333</v>
+        <v>380.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C73" t="n">
         <v>383</v>
       </c>
       <c r="D73" t="n">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E73" t="n">
         <v>383</v>
       </c>
       <c r="F73" t="n">
-        <v>2031.3441</v>
+        <v>1272.4073</v>
       </c>
       <c r="G73" t="n">
-        <v>382.3333333333333</v>
+        <v>380.7666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C74" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D74" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E74" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F74" t="n">
-        <v>18.602</v>
+        <v>2031.3441</v>
       </c>
       <c r="G74" t="n">
-        <v>383.6666666666667</v>
+        <v>380.85</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>385</v>
       </c>
       <c r="C75" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D75" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E75" t="n">
         <v>385</v>
       </c>
       <c r="F75" t="n">
-        <v>959.3563</v>
+        <v>18.602</v>
       </c>
       <c r="G75" t="n">
-        <v>386</v>
+        <v>381.0666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>385</v>
       </c>
       <c r="C76" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D76" t="n">
+        <v>390</v>
+      </c>
+      <c r="E76" t="n">
         <v>385</v>
       </c>
-      <c r="E76" t="n">
-        <v>383</v>
-      </c>
       <c r="F76" t="n">
-        <v>150</v>
+        <v>959.3563</v>
       </c>
       <c r="G76" t="n">
-        <v>386</v>
+        <v>381.3666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C77" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D77" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E77" t="n">
         <v>383</v>
       </c>
       <c r="F77" t="n">
-        <v>26910.7493</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
-        <v>385.6666666666667</v>
+        <v>381.45</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C78" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D78" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E78" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F78" t="n">
-        <v>1044</v>
+        <v>26910.7493</v>
       </c>
       <c r="G78" t="n">
-        <v>385.6666666666667</v>
+        <v>381.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>390</v>
+      </c>
+      <c r="C79" t="n">
+        <v>390</v>
+      </c>
+      <c r="D79" t="n">
+        <v>390</v>
+      </c>
+      <c r="E79" t="n">
         <v>384</v>
       </c>
-      <c r="C79" t="n">
-        <v>383</v>
-      </c>
-      <c r="D79" t="n">
-        <v>384</v>
-      </c>
-      <c r="E79" t="n">
-        <v>383</v>
-      </c>
       <c r="F79" t="n">
-        <v>4336.6201</v>
+        <v>1044</v>
       </c>
       <c r="G79" t="n">
-        <v>385.6666666666667</v>
+        <v>381.8666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C80" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D80" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E80" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F80" t="n">
-        <v>3959.1286</v>
+        <v>4336.6201</v>
       </c>
       <c r="G80" t="n">
-        <v>384.6666666666667</v>
+        <v>382.0333333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C81" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D81" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E81" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F81" t="n">
-        <v>405.7614</v>
+        <v>3959.1286</v>
       </c>
       <c r="G81" t="n">
-        <v>382.3333333333333</v>
+        <v>382.1666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C82" t="n">
         <v>383</v>
       </c>
       <c r="D82" t="n">
+        <v>384</v>
+      </c>
+      <c r="E82" t="n">
         <v>383</v>
       </c>
-      <c r="E82" t="n">
-        <v>380</v>
-      </c>
       <c r="F82" t="n">
-        <v>2127.6605</v>
+        <v>405.7614</v>
       </c>
       <c r="G82" t="n">
-        <v>382.3333333333333</v>
+        <v>382.2333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C83" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D83" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E83" t="n">
         <v>380</v>
       </c>
       <c r="F83" t="n">
-        <v>5048.4667</v>
+        <v>2127.6605</v>
       </c>
       <c r="G83" t="n">
-        <v>383.6666666666667</v>
+        <v>382.4166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C84" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D84" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E84" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F84" t="n">
-        <v>9199.0895</v>
+        <v>5048.4667</v>
       </c>
       <c r="G84" t="n">
-        <v>383.3333333333333</v>
+        <v>382.6333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>382</v>
       </c>
       <c r="C85" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D85" t="n">
+        <v>384</v>
+      </c>
+      <c r="E85" t="n">
         <v>382</v>
       </c>
-      <c r="E85" t="n">
-        <v>380</v>
-      </c>
       <c r="F85" t="n">
-        <v>8000</v>
+        <v>9199.0895</v>
       </c>
       <c r="G85" t="n">
-        <v>382.3333333333333</v>
+        <v>382.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>382</v>
       </c>
       <c r="C86" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D86" t="n">
         <v>382</v>
       </c>
       <c r="E86" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G86" t="n">
-        <v>381.3333333333333</v>
+        <v>382.9333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C87" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D87" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E87" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F87" t="n">
-        <v>1972.7251</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>379.3333333333333</v>
+        <v>383.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C88" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D88" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E88" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F88" t="n">
-        <v>156.096</v>
+        <v>1972.7251</v>
       </c>
       <c r="G88" t="n">
-        <v>378.6666666666667</v>
+        <v>383.1666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,31 +3478,35 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C89" t="n">
         <v>378</v>
       </c>
       <c r="D89" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E89" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F89" t="n">
-        <v>4356.0911</v>
+        <v>156.096</v>
       </c>
       <c r="G89" t="n">
-        <v>377.3333333333333</v>
+        <v>383.2666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>376</v>
+      </c>
+      <c r="K89" t="n">
+        <v>376</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3513,22 +3517,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C90" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D90" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E90" t="n">
         <v>377</v>
       </c>
       <c r="F90" t="n">
-        <v>226</v>
+        <v>4356.0911</v>
       </c>
       <c r="G90" t="n">
-        <v>377.6666666666667</v>
+        <v>383.3666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3541,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>376</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3570,10 @@
         <v>377</v>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="G91" t="n">
-        <v>377.3333333333333</v>
+        <v>383.4333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3582,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>376</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3598,7 +3614,7 @@
         <v>50</v>
       </c>
       <c r="G92" t="n">
-        <v>377</v>
+        <v>383.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,28 +3637,32 @@
         <v>377</v>
       </c>
       <c r="C93" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D93" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E93" t="n">
         <v>377</v>
       </c>
       <c r="F93" t="n">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="G93" t="n">
-        <v>377.3333333333333</v>
+        <v>383.45</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>377</v>
+      </c>
+      <c r="K93" t="n">
+        <v>377</v>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
@@ -3653,7 +3673,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C94" t="n">
         <v>378</v>
@@ -3662,23 +3682,31 @@
         <v>378</v>
       </c>
       <c r="E94" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F94" t="n">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G94" t="n">
-        <v>377.6666666666667</v>
+        <v>383.5</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>377</v>
+      </c>
+      <c r="K94" t="n">
+        <v>377</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,20 +3728,28 @@
         <v>378</v>
       </c>
       <c r="F95" t="n">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="G95" t="n">
+        <v>383.5833333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>378</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>377</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,20 +3771,28 @@
         <v>378</v>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="G96" t="n">
+        <v>383.5833333333333</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>378</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>377</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,20 +3814,28 @@
         <v>378</v>
       </c>
       <c r="F97" t="n">
-        <v>2005</v>
+        <v>200</v>
       </c>
       <c r="G97" t="n">
+        <v>383.5833333333333</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>378</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>377</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +3857,10 @@
         <v>378</v>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>2005</v>
       </c>
       <c r="G98" t="n">
-        <v>378</v>
+        <v>383.6833333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +3869,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>377</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +3898,10 @@
         <v>378</v>
       </c>
       <c r="F99" t="n">
-        <v>4731.7092</v>
+        <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>378</v>
+        <v>383.7666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +3910,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>377</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +3939,10 @@
         <v>378</v>
       </c>
       <c r="F100" t="n">
-        <v>3325</v>
+        <v>4731.7092</v>
       </c>
       <c r="G100" t="n">
-        <v>378</v>
+        <v>383.8666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +3951,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>377</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +3971,19 @@
         <v>378</v>
       </c>
       <c r="C101" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D101" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E101" t="n">
         <v>378</v>
       </c>
       <c r="F101" t="n">
-        <v>3533.6521</v>
+        <v>3325</v>
       </c>
       <c r="G101" t="n">
-        <v>379</v>
+        <v>383.8666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>377</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,7 +4009,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C102" t="n">
         <v>381</v>
@@ -3942,13 +4018,13 @@
         <v>381</v>
       </c>
       <c r="E102" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F102" t="n">
-        <v>2926.2968</v>
+        <v>3533.6521</v>
       </c>
       <c r="G102" t="n">
-        <v>380</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4033,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>377</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3971,33 +4053,33 @@
         <v>381</v>
       </c>
       <c r="C103" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D103" t="n">
         <v>381</v>
       </c>
       <c r="E103" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F103" t="n">
-        <v>924.8514</v>
+        <v>2926.2968</v>
       </c>
       <c r="G103" t="n">
-        <v>380.3333333333333</v>
+        <v>384.1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>381</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>377</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4009,22 +4091,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C104" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D104" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E104" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F104" t="n">
-        <v>98.3267</v>
+        <v>924.8514</v>
       </c>
       <c r="G104" t="n">
-        <v>380.6666666666667</v>
+        <v>384.1333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4033,7 +4115,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>377</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4048,33 +4132,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C105" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D105" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E105" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F105" t="n">
-        <v>402.7581</v>
+        <v>98.3267</v>
       </c>
       <c r="G105" t="n">
-        <v>381.3333333333333</v>
+        <v>383.8666666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>382</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>377</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,13 +4182,13 @@
         <v>383</v>
       </c>
       <c r="E106" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F106" t="n">
-        <v>4125.0152</v>
+        <v>402.7581</v>
       </c>
       <c r="G106" t="n">
-        <v>382.6666666666667</v>
+        <v>383.7833333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4113,7 +4197,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>377</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4128,22 +4214,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C107" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D107" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E107" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F107" t="n">
-        <v>245.0244</v>
+        <v>4125.0152</v>
       </c>
       <c r="G107" t="n">
-        <v>383.6666666666667</v>
+        <v>383.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4152,7 +4238,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>377</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4179,10 +4267,10 @@
         <v>385</v>
       </c>
       <c r="F108" t="n">
-        <v>874.8713</v>
+        <v>245.0244</v>
       </c>
       <c r="G108" t="n">
-        <v>384.3333333333333</v>
+        <v>383.55</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4191,7 +4279,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>377</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4218,10 +4308,10 @@
         <v>385</v>
       </c>
       <c r="F109" t="n">
-        <v>1474.8622</v>
+        <v>874.8713</v>
       </c>
       <c r="G109" t="n">
-        <v>385</v>
+        <v>383.6333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4230,7 +4320,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>377</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4257,10 +4349,10 @@
         <v>385</v>
       </c>
       <c r="F110" t="n">
-        <v>3048.0685</v>
+        <v>1474.8622</v>
       </c>
       <c r="G110" t="n">
-        <v>385</v>
+        <v>383.7166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4269,7 +4361,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>377</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,10 +4390,10 @@
         <v>385</v>
       </c>
       <c r="F111" t="n">
-        <v>5042.8853</v>
+        <v>3048.0685</v>
       </c>
       <c r="G111" t="n">
-        <v>385</v>
+        <v>383.7666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4308,7 +4402,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>377</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,22 +4419,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>5042.8853</v>
       </c>
       <c r="G112" t="n">
-        <v>385.6666666666667</v>
+        <v>383.8333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4347,7 +4443,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>377</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,22 +4460,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C113" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D113" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E113" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>386</v>
+        <v>383.9333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4386,7 +4484,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>377</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,19 +4504,19 @@
         <v>386</v>
       </c>
       <c r="C114" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D114" t="n">
         <v>386</v>
       </c>
       <c r="E114" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F114" t="n">
-        <v>8029.3274</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>386</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4425,7 +4525,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>377</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,22 +4542,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C115" t="n">
         <v>385</v>
       </c>
       <c r="D115" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E115" t="n">
         <v>385</v>
       </c>
       <c r="F115" t="n">
-        <v>1012.6599</v>
+        <v>8029.3274</v>
       </c>
       <c r="G115" t="n">
-        <v>385.3333333333333</v>
+        <v>384.0333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4464,7 +4566,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>377</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,22 +4583,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C116" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D116" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E116" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F116" t="n">
-        <v>2333.0981</v>
+        <v>1012.6599</v>
       </c>
       <c r="G116" t="n">
-        <v>384.6666666666667</v>
+        <v>383.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4503,7 +4607,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>377</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4530,10 +4636,10 @@
         <v>384</v>
       </c>
       <c r="F117" t="n">
-        <v>139.9506</v>
+        <v>2333.0981</v>
       </c>
       <c r="G117" t="n">
-        <v>384.3333333333333</v>
+        <v>383.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4542,7 +4648,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>377</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,10 +4677,10 @@
         <v>384</v>
       </c>
       <c r="F118" t="n">
-        <v>1789.5597</v>
+        <v>139.9506</v>
       </c>
       <c r="G118" t="n">
-        <v>384</v>
+        <v>383.9166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4581,7 +4689,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>377</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,19 +4709,19 @@
         <v>384</v>
       </c>
       <c r="C119" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D119" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E119" t="n">
         <v>384</v>
       </c>
       <c r="F119" t="n">
-        <v>48.4963</v>
+        <v>1789.5597</v>
       </c>
       <c r="G119" t="n">
-        <v>385</v>
+        <v>383.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4620,7 +4730,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>377</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4635,7 +4747,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C120" t="n">
         <v>387</v>
@@ -4644,13 +4756,13 @@
         <v>387</v>
       </c>
       <c r="E120" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F120" t="n">
-        <v>832.9969</v>
+        <v>48.4963</v>
       </c>
       <c r="G120" t="n">
-        <v>386</v>
+        <v>383.8833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4659,7 +4771,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>377</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,10 +4800,10 @@
         <v>387</v>
       </c>
       <c r="F121" t="n">
-        <v>150</v>
+        <v>832.9969</v>
       </c>
       <c r="G121" t="n">
-        <v>387</v>
+        <v>383.8666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4698,7 +4812,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>377</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4713,22 +4829,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C122" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D122" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E122" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F122" t="n">
-        <v>159.9805</v>
+        <v>150</v>
       </c>
       <c r="G122" t="n">
-        <v>386</v>
+        <v>383.7666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4737,7 +4853,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>377</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,22 +4870,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C123" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D123" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E123" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F123" t="n">
-        <v>8875.7096</v>
+        <v>159.9805</v>
       </c>
       <c r="G123" t="n">
-        <v>384.6666666666667</v>
+        <v>383.6833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4776,7 +4894,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>377</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4791,22 +4911,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C124" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D124" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E124" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F124" t="n">
-        <v>192.2183</v>
+        <v>8875.7096</v>
       </c>
       <c r="G124" t="n">
-        <v>382.6666666666667</v>
+        <v>383.4833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4815,7 +4935,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>377</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,19 +4955,19 @@
         <v>382</v>
       </c>
       <c r="C125" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D125" t="n">
         <v>382</v>
       </c>
       <c r="E125" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F125" t="n">
-        <v>1392.2361</v>
+        <v>192.2183</v>
       </c>
       <c r="G125" t="n">
-        <v>382</v>
+        <v>383.3666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4854,7 +4976,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>377</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,19 +4996,19 @@
         <v>382</v>
       </c>
       <c r="C126" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D126" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E126" t="n">
         <v>382</v>
       </c>
       <c r="F126" t="n">
-        <v>1045</v>
+        <v>1392.2361</v>
       </c>
       <c r="G126" t="n">
-        <v>383</v>
+        <v>383.2666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4893,7 +5017,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>377</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,22 +5034,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C127" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D127" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E127" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F127" t="n">
-        <v>88.6109</v>
+        <v>1045</v>
       </c>
       <c r="G127" t="n">
-        <v>383.6666666666667</v>
+        <v>383.1166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4932,7 +5058,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>377</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,19 +5078,19 @@
         <v>383</v>
       </c>
       <c r="C128" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D128" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E128" t="n">
         <v>383</v>
       </c>
       <c r="F128" t="n">
-        <v>26.1096</v>
+        <v>88.6109</v>
       </c>
       <c r="G128" t="n">
-        <v>384.6666666666667</v>
+        <v>382.8833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4971,7 +5099,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>377</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,22 +5116,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C129" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D129" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E129" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F129" t="n">
-        <v>1445.3787</v>
+        <v>26.1096</v>
       </c>
       <c r="G129" t="n">
-        <v>383</v>
+        <v>382.6833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5010,7 +5140,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>377</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,7 +5157,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C130" t="n">
         <v>381</v>
@@ -5034,13 +5166,13 @@
         <v>381</v>
       </c>
       <c r="E130" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F130" t="n">
-        <v>17650.5877</v>
+        <v>1445.3787</v>
       </c>
       <c r="G130" t="n">
-        <v>382.3333333333333</v>
+        <v>382.4833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5049,7 +5181,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>377</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,13 +5207,13 @@
         <v>381</v>
       </c>
       <c r="E131" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F131" t="n">
-        <v>249.891</v>
+        <v>17650.5877</v>
       </c>
       <c r="G131" t="n">
-        <v>381</v>
+        <v>382.35</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5088,7 +5222,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>377</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5103,22 +5239,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C132" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D132" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E132" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F132" t="n">
-        <v>994.0432</v>
+        <v>249.891</v>
       </c>
       <c r="G132" t="n">
-        <v>379.6666666666667</v>
+        <v>382.35</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5127,7 +5263,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>377</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5145,19 +5283,19 @@
         <v>377</v>
       </c>
       <c r="C133" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D133" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E133" t="n">
         <v>377</v>
       </c>
       <c r="F133" t="n">
-        <v>1886.9873</v>
+        <v>994.0432</v>
       </c>
       <c r="G133" t="n">
-        <v>380.3333333333333</v>
+        <v>382.25</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5166,7 +5304,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>377</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5181,22 +5321,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C134" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D134" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E134" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F134" t="n">
-        <v>50</v>
+        <v>1886.9873</v>
       </c>
       <c r="G134" t="n">
-        <v>380.6666666666667</v>
+        <v>382.25</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5205,7 +5345,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>377</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,19 +5365,19 @@
         <v>382</v>
       </c>
       <c r="C135" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D135" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E135" t="n">
         <v>382</v>
       </c>
       <c r="F135" t="n">
-        <v>1241.4879</v>
+        <v>50</v>
       </c>
       <c r="G135" t="n">
-        <v>382.6666666666667</v>
+        <v>382.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5244,7 +5386,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>377</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5259,22 +5403,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>382</v>
+      </c>
+      <c r="C136" t="n">
         <v>383</v>
       </c>
-      <c r="C136" t="n">
-        <v>386</v>
-      </c>
       <c r="D136" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E136" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F136" t="n">
-        <v>820</v>
+        <v>1241.4879</v>
       </c>
       <c r="G136" t="n">
-        <v>383.6666666666667</v>
+        <v>382.0833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5283,7 +5427,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>377</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,7 +5444,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C137" t="n">
         <v>386</v>
@@ -5307,13 +5453,13 @@
         <v>386</v>
       </c>
       <c r="E137" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F137" t="n">
-        <v>926</v>
+        <v>820</v>
       </c>
       <c r="G137" t="n">
-        <v>385</v>
+        <v>382.1333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5322,7 +5468,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>377</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5349,10 +5497,10 @@
         <v>386</v>
       </c>
       <c r="F138" t="n">
-        <v>154</v>
+        <v>926</v>
       </c>
       <c r="G138" t="n">
-        <v>386</v>
+        <v>382.1666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5361,7 +5509,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>377</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,10 +5538,10 @@
         <v>386</v>
       </c>
       <c r="F139" t="n">
-        <v>1528</v>
+        <v>154</v>
       </c>
       <c r="G139" t="n">
-        <v>386</v>
+        <v>382.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5400,7 +5550,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>377</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5427,10 +5579,10 @@
         <v>386</v>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>1528</v>
       </c>
       <c r="G140" t="n">
-        <v>386</v>
+        <v>382.15</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5439,7 +5591,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>377</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,10 +5620,10 @@
         <v>386</v>
       </c>
       <c r="F141" t="n">
-        <v>25.9067</v>
+        <v>200</v>
       </c>
       <c r="G141" t="n">
-        <v>386</v>
+        <v>382.2333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,7 +5632,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>377</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,10 +5661,10 @@
         <v>386</v>
       </c>
       <c r="F142" t="n">
-        <v>1601</v>
+        <v>25.9067</v>
       </c>
       <c r="G142" t="n">
-        <v>386</v>
+        <v>382.2833333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5517,7 +5673,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>377</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5544,10 +5702,10 @@
         <v>386</v>
       </c>
       <c r="F143" t="n">
-        <v>187</v>
+        <v>1601</v>
       </c>
       <c r="G143" t="n">
-        <v>386</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5556,7 +5714,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>377</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,10 +5743,10 @@
         <v>386</v>
       </c>
       <c r="F144" t="n">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="G144" t="n">
-        <v>386</v>
+        <v>382.35</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5595,7 +5755,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>377</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5622,10 +5784,10 @@
         <v>386</v>
       </c>
       <c r="F145" t="n">
-        <v>630</v>
+        <v>345</v>
       </c>
       <c r="G145" t="n">
-        <v>386</v>
+        <v>382.4166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5634,7 +5796,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>377</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5661,10 +5825,10 @@
         <v>386</v>
       </c>
       <c r="F146" t="n">
-        <v>522</v>
+        <v>630</v>
       </c>
       <c r="G146" t="n">
-        <v>386</v>
+        <v>382.5166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5673,7 +5837,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>377</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,22 +5854,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C147" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D147" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E147" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F147" t="n">
-        <v>86</v>
+        <v>522</v>
       </c>
       <c r="G147" t="n">
-        <v>386.3333333333333</v>
+        <v>382.5833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5712,7 +5878,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>377</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,10 +5907,10 @@
         <v>387</v>
       </c>
       <c r="F148" t="n">
-        <v>91.053</v>
+        <v>86</v>
       </c>
       <c r="G148" t="n">
-        <v>386.6666666666667</v>
+        <v>382.7666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5751,7 +5919,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>377</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,10 +5948,10 @@
         <v>387</v>
       </c>
       <c r="F149" t="n">
-        <v>3264.1353</v>
+        <v>91.053</v>
       </c>
       <c r="G149" t="n">
-        <v>387</v>
+        <v>382.9166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5790,7 +5960,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>377</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5817,10 +5989,10 @@
         <v>387</v>
       </c>
       <c r="F150" t="n">
-        <v>12.1</v>
+        <v>3264.1353</v>
       </c>
       <c r="G150" t="n">
-        <v>387</v>
+        <v>383.0666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5829,7 +6001,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>377</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5856,10 +6030,10 @@
         <v>387</v>
       </c>
       <c r="F151" t="n">
-        <v>182.1</v>
+        <v>12.1</v>
       </c>
       <c r="G151" t="n">
-        <v>387</v>
+        <v>383.2333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5868,7 +6042,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>377</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5895,10 +6071,10 @@
         <v>387</v>
       </c>
       <c r="F152" t="n">
-        <v>38.9</v>
+        <v>182.1</v>
       </c>
       <c r="G152" t="n">
-        <v>387</v>
+        <v>383.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5907,7 +6083,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>377</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5934,10 +6112,10 @@
         <v>387</v>
       </c>
       <c r="F153" t="n">
-        <v>47.9</v>
+        <v>38.9</v>
       </c>
       <c r="G153" t="n">
-        <v>387</v>
+        <v>383.5666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5946,7 +6124,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>377</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,19 +6144,19 @@
         <v>387</v>
       </c>
       <c r="C154" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D154" t="n">
         <v>387</v>
       </c>
       <c r="E154" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F154" t="n">
-        <v>3908.2327</v>
+        <v>47.9</v>
       </c>
       <c r="G154" t="n">
-        <v>385.6666666666667</v>
+        <v>383.7166666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5985,7 +6165,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>377</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,22 +6182,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C155" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D155" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E155" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F155" t="n">
-        <v>5483.7728</v>
+        <v>3908.2327</v>
       </c>
       <c r="G155" t="n">
-        <v>383.6666666666667</v>
+        <v>383.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6024,7 +6206,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>377</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,22 +6223,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C156" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D156" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E156" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F156" t="n">
-        <v>609.3244999999999</v>
+        <v>5483.7728</v>
       </c>
       <c r="G156" t="n">
-        <v>382</v>
+        <v>383.85</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6063,7 +6247,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>377</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,22 +6264,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C157" t="n">
         <v>382</v>
       </c>
       <c r="D157" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E157" t="n">
         <v>382</v>
       </c>
       <c r="F157" t="n">
-        <v>6315.6376</v>
+        <v>609.3244999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>381.6666666666667</v>
+        <v>383.9166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6102,7 +6288,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>377</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6129,10 +6317,10 @@
         <v>382</v>
       </c>
       <c r="F158" t="n">
-        <v>103.4097</v>
+        <v>6315.6376</v>
       </c>
       <c r="G158" t="n">
-        <v>382</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6141,7 +6329,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>377</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6156,22 +6346,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C159" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D159" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E159" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F159" t="n">
-        <v>4712.8552</v>
+        <v>103.4097</v>
       </c>
       <c r="G159" t="n">
-        <v>380.3333333333333</v>
+        <v>384.05</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6180,7 +6370,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>377</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6195,22 +6387,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C160" t="n">
         <v>377</v>
       </c>
       <c r="D160" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E160" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F160" t="n">
-        <v>14326.6553</v>
+        <v>4712.8552</v>
       </c>
       <c r="G160" t="n">
-        <v>378.6666666666667</v>
+        <v>384.0333333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6219,7 +6411,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>377</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6237,19 +6431,19 @@
         <v>377</v>
       </c>
       <c r="C161" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D161" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E161" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F161" t="n">
-        <v>31</v>
+        <v>14326.6553</v>
       </c>
       <c r="G161" t="n">
-        <v>377.6666666666667</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6258,7 +6452,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>377</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6273,22 +6469,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C162" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D162" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E162" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F162" t="n">
-        <v>2283.6</v>
+        <v>31</v>
       </c>
       <c r="G162" t="n">
-        <v>379</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6297,7 +6493,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>377</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6324,10 +6522,10 @@
         <v>381</v>
       </c>
       <c r="F163" t="n">
-        <v>1344.9934</v>
+        <v>2283.6</v>
       </c>
       <c r="G163" t="n">
-        <v>380.3333333333333</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6336,7 +6534,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>377</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,22 +6551,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C164" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D164" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E164" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F164" t="n">
-        <v>1611.0418</v>
+        <v>1344.9934</v>
       </c>
       <c r="G164" t="n">
-        <v>381.3333333333333</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6375,7 +6575,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>377</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,22 +6592,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C165" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D165" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E165" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F165" t="n">
-        <v>1208.0288</v>
+        <v>1611.0418</v>
       </c>
       <c r="G165" t="n">
-        <v>380</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6414,7 +6616,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>377</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6441,10 +6645,10 @@
         <v>377</v>
       </c>
       <c r="F166" t="n">
-        <v>279</v>
+        <v>1208.0288</v>
       </c>
       <c r="G166" t="n">
-        <v>378.6666666666667</v>
+        <v>383.9166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6453,7 +6657,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>377</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6480,10 +6686,10 @@
         <v>377</v>
       </c>
       <c r="F167" t="n">
-        <v>1012.9712</v>
+        <v>279</v>
       </c>
       <c r="G167" t="n">
-        <v>377</v>
+        <v>383.8166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6492,7 +6698,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>377</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,22 +6715,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C168" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D168" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E168" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F168" t="n">
-        <v>4111.3228</v>
+        <v>1012.9712</v>
       </c>
       <c r="G168" t="n">
-        <v>376</v>
+        <v>383.6833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6531,7 +6739,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>377</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,22 +6756,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C169" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D169" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E169" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F169" t="n">
-        <v>385.6123</v>
+        <v>4111.3228</v>
       </c>
       <c r="G169" t="n">
-        <v>374.6666666666667</v>
+        <v>383.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6570,7 +6780,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>377</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,19 +6800,19 @@
         <v>373</v>
       </c>
       <c r="C170" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D170" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E170" t="n">
         <v>373</v>
       </c>
       <c r="F170" t="n">
-        <v>251</v>
+        <v>385.6123</v>
       </c>
       <c r="G170" t="n">
-        <v>373.6666666666667</v>
+        <v>383.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6609,7 +6821,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>377</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6624,22 +6838,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C171" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D171" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E171" t="n">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="G171" t="n">
-        <v>376</v>
+        <v>383.1166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6648,7 +6862,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>377</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6663,22 +6879,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C172" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D172" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E172" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F172" t="n">
-        <v>26.2467</v>
+        <v>50</v>
       </c>
       <c r="G172" t="n">
-        <v>377.3333333333333</v>
+        <v>383.05</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6687,7 +6903,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>377</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6714,10 +6932,10 @@
         <v>377</v>
       </c>
       <c r="F173" t="n">
-        <v>790.4751</v>
+        <v>26.2467</v>
       </c>
       <c r="G173" t="n">
-        <v>378.3333333333333</v>
+        <v>382.8833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6726,7 +6944,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>377</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6741,22 +6961,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C174" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D174" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E174" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F174" t="n">
-        <v>17175.6139</v>
+        <v>790.4751</v>
       </c>
       <c r="G174" t="n">
-        <v>375.3333333333333</v>
+        <v>382.7333333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6765,7 +6985,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>377</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6792,10 +7014,10 @@
         <v>372</v>
       </c>
       <c r="F175" t="n">
-        <v>2541.1399</v>
+        <v>17175.6139</v>
       </c>
       <c r="G175" t="n">
-        <v>373.6666666666667</v>
+        <v>382.5166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6804,7 +7026,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>377</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,10 +7055,10 @@
         <v>372</v>
       </c>
       <c r="F176" t="n">
-        <v>1100</v>
+        <v>2541.1399</v>
       </c>
       <c r="G176" t="n">
-        <v>372</v>
+        <v>382.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6843,7 +7067,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>377</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6870,10 +7096,10 @@
         <v>372</v>
       </c>
       <c r="F177" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G177" t="n">
-        <v>372</v>
+        <v>382.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6882,7 +7108,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>377</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6909,10 +7137,10 @@
         <v>372</v>
       </c>
       <c r="F178" t="n">
-        <v>1383.6738</v>
+        <v>600</v>
       </c>
       <c r="G178" t="n">
-        <v>372</v>
+        <v>381.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6921,7 +7149,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>377</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,10 +7178,10 @@
         <v>372</v>
       </c>
       <c r="F179" t="n">
-        <v>578</v>
+        <v>1383.6738</v>
       </c>
       <c r="G179" t="n">
-        <v>372</v>
+        <v>381.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6960,7 +7190,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>377</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6987,10 +7219,10 @@
         <v>372</v>
       </c>
       <c r="F180" t="n">
-        <v>830</v>
+        <v>578</v>
       </c>
       <c r="G180" t="n">
-        <v>372</v>
+        <v>381.45</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6999,7 +7231,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>377</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,37 +7248,80 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>372</v>
+      </c>
+      <c r="C181" t="n">
+        <v>372</v>
+      </c>
+      <c r="D181" t="n">
+        <v>372</v>
+      </c>
+      <c r="E181" t="n">
+        <v>372</v>
+      </c>
+      <c r="F181" t="n">
+        <v>830</v>
+      </c>
+      <c r="G181" t="n">
+        <v>381.2</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>377</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
         <v>371</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C182" t="n">
         <v>371</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D182" t="n">
         <v>371</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E182" t="n">
         <v>371</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F182" t="n">
         <v>506.33</v>
       </c>
-      <c r="G181" t="n">
-        <v>371.6666666666667</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="G182" t="n">
+        <v>380.9333333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>377</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C2" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D2" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E2" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F2" t="n">
-        <v>241.7542</v>
+        <v>3705.9996</v>
       </c>
       <c r="G2" t="n">
-        <v>-5797.669439869996</v>
+        <v>374.3333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C3" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D3" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E3" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F3" t="n">
-        <v>422.5145</v>
+        <v>4798.865</v>
       </c>
       <c r="G3" t="n">
-        <v>-5375.154939869995</v>
+        <v>374</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D4" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E4" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F4" t="n">
-        <v>440.6379</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-5815.792839869995</v>
+        <v>374</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C5" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D5" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E5" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F5" t="n">
-        <v>827.0209</v>
+        <v>3660.5751</v>
       </c>
       <c r="G5" t="n">
-        <v>-6642.813739869995</v>
+        <v>375</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" t="n">
         <v>374</v>
       </c>
       <c r="D6" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" t="n">
         <v>374</v>
       </c>
       <c r="F6" t="n">
-        <v>592.9634</v>
+        <v>1180.584</v>
       </c>
       <c r="G6" t="n">
-        <v>-6049.850339869995</v>
+        <v>375.6666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>373</v>
+      </c>
+      <c r="C7" t="n">
+        <v>373</v>
+      </c>
+      <c r="D7" t="n">
+        <v>373</v>
+      </c>
+      <c r="E7" t="n">
+        <v>373</v>
+      </c>
+      <c r="F7" t="n">
+        <v>191</v>
+      </c>
+      <c r="G7" t="n">
         <v>374</v>
-      </c>
-      <c r="C7" t="n">
-        <v>374</v>
-      </c>
-      <c r="D7" t="n">
-        <v>374</v>
-      </c>
-      <c r="E7" t="n">
-        <v>374</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1939</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-6049.850339869995</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F8" t="n">
-        <v>367.541</v>
+        <v>118.6051</v>
       </c>
       <c r="G8" t="n">
-        <v>-6049.850339869995</v>
+        <v>373.3333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C9" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D9" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E9" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F9" t="n">
-        <v>1091.4956</v>
+        <v>1.5145</v>
       </c>
       <c r="G9" t="n">
-        <v>-6049.850339869995</v>
+        <v>375</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -716,19 +729,19 @@
         <v>375</v>
       </c>
       <c r="C10" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D10" t="n">
         <v>375</v>
       </c>
       <c r="E10" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F10" t="n">
-        <v>789.3416999999999</v>
+        <v>298.3972</v>
       </c>
       <c r="G10" t="n">
-        <v>-5260.508639869995</v>
+        <v>374.6666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C11" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D11" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E11" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-5259.508639869995</v>
+        <v>374.3333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C12" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D12" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E12" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F12" t="n">
-        <v>221.7104</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>-5481.219039869995</v>
+        <v>372</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C13" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E13" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="G13" t="n">
-        <v>-5480.219039869995</v>
+        <v>372</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,13 +863,14 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -862,13 +879,13 @@
         <v>372</v>
       </c>
       <c r="E14" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F14" t="n">
-        <v>1757.8373</v>
+        <v>171</v>
       </c>
       <c r="G14" t="n">
-        <v>-7238.056339869995</v>
+        <v>372</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -891,19 +909,19 @@
         <v>372</v>
       </c>
       <c r="C15" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D15" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E15" t="n">
         <v>372</v>
       </c>
       <c r="F15" t="n">
-        <v>181.7947</v>
+        <v>920</v>
       </c>
       <c r="G15" t="n">
-        <v>-7056.261639869995</v>
+        <v>372</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C16" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D16" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E16" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F16" t="n">
-        <v>86.1343</v>
+        <v>314.0925</v>
       </c>
       <c r="G16" t="n">
-        <v>-7142.395939869994</v>
+        <v>372</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C17" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D17" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E17" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F17" t="n">
-        <v>385</v>
+        <v>1052.9998</v>
       </c>
       <c r="G17" t="n">
-        <v>-6757.395939869994</v>
+        <v>372</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C18" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D18" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E18" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>750.1574000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-6657.395939869994</v>
+        <v>372.3333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C19" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D19" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E19" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F19" t="n">
-        <v>766.6368</v>
+        <v>911.0776</v>
       </c>
       <c r="G19" t="n">
-        <v>-5890.759139869994</v>
+        <v>374.6666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C20" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D20" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E20" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F20" t="n">
-        <v>3540.9441</v>
+        <v>200.7011</v>
       </c>
       <c r="G20" t="n">
-        <v>-2349.815039869994</v>
+        <v>375.3333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C21" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D21" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E21" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F21" t="n">
-        <v>6999</v>
+        <v>2719</v>
       </c>
       <c r="G21" t="n">
-        <v>4649.184960130005</v>
+        <v>376</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C22" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D22" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E22" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F22" t="n">
-        <v>4201.9173</v>
+        <v>132.9041</v>
       </c>
       <c r="G22" t="n">
-        <v>447.2676601300054</v>
+        <v>374</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D23" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E23" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F23" t="n">
-        <v>121</v>
+        <v>1328.5158</v>
       </c>
       <c r="G23" t="n">
-        <v>447.2676601300054</v>
+        <v>375.3333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C24" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D24" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E24" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F24" t="n">
-        <v>135.3665</v>
+        <v>172.182</v>
       </c>
       <c r="G24" t="n">
-        <v>582.6341601300054</v>
+        <v>376.3333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C25" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D25" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E25" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>10677.2235</v>
       </c>
       <c r="G25" t="n">
-        <v>582.6341601300054</v>
+        <v>376</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C26" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D26" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E26" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>233.7747</v>
       </c>
       <c r="G26" t="n">
-        <v>549.6341601300054</v>
+        <v>374.3333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C27" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D27" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E27" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F27" t="n">
-        <v>78.30629999999999</v>
+        <v>1040</v>
       </c>
       <c r="G27" t="n">
-        <v>627.9404601300054</v>
+        <v>372.3333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C28" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D28" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E28" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G28" t="n">
-        <v>602.9404601300054</v>
+        <v>374.3333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C29" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D29" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E29" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>552.9404601300054</v>
+        <v>374.6666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C30" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D30" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E30" t="n">
         <v>374</v>
       </c>
       <c r="F30" t="n">
-        <v>5208.0087</v>
+        <v>1016.8467</v>
       </c>
       <c r="G30" t="n">
-        <v>5760.949160130006</v>
+        <v>375.3333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C31" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D31" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E31" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F31" t="n">
-        <v>2120.8579</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>3640.091260130006</v>
+        <v>375</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C32" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="D32" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="E32" t="n">
         <v>373</v>
       </c>
       <c r="F32" t="n">
-        <v>1100.0941</v>
+        <v>7976.0655</v>
       </c>
       <c r="G32" t="n">
-        <v>2539.997160130006</v>
+        <v>383</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C33" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D33" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="E33" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F33" t="n">
-        <v>727.9417</v>
+        <v>2966.8696</v>
       </c>
       <c r="G33" t="n">
-        <v>2539.997160130006</v>
+        <v>387.6666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C34" t="n">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D34" t="n">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E34" t="n">
         <v>373</v>
       </c>
       <c r="F34" t="n">
-        <v>2640</v>
+        <v>234</v>
       </c>
       <c r="G34" t="n">
-        <v>2539.997160130006</v>
+        <v>393.3333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C35" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D35" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E35" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F35" t="n">
-        <v>3452.4293</v>
+        <v>790.754</v>
       </c>
       <c r="G35" t="n">
-        <v>2539.997160130006</v>
+        <v>390</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C36" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D36" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E36" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F36" t="n">
-        <v>81.6408</v>
+        <v>15972.9191</v>
       </c>
       <c r="G36" t="n">
-        <v>2621.637960130006</v>
+        <v>387.3333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C37" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D37" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E37" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>797.908</v>
       </c>
       <c r="G37" t="n">
-        <v>2620.637960130006</v>
+        <v>382.6666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C38" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D38" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="E38" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F38" t="n">
-        <v>578.1593</v>
+        <v>11355.9618</v>
       </c>
       <c r="G38" t="n">
-        <v>2620.637960130006</v>
+        <v>380.6666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C39" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D39" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="E39" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F39" t="n">
-        <v>582</v>
+        <v>4234.2261</v>
       </c>
       <c r="G39" t="n">
-        <v>2620.637960130006</v>
+        <v>381</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C40" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D40" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E40" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F40" t="n">
-        <v>280</v>
+        <v>9160.8969</v>
       </c>
       <c r="G40" t="n">
-        <v>2620.637960130006</v>
+        <v>381.3333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C41" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D41" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E41" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F41" t="n">
-        <v>983.942</v>
+        <v>706.5925</v>
       </c>
       <c r="G41" t="n">
-        <v>1636.695960130006</v>
+        <v>381.6666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C42" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D42" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E42" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F42" t="n">
-        <v>307.8295</v>
+        <v>382.3905</v>
       </c>
       <c r="G42" t="n">
-        <v>1944.525460130006</v>
+        <v>382</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C43" t="n">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D43" t="n">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E43" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1111</v>
       </c>
       <c r="G43" t="n">
-        <v>1946.525460130006</v>
+        <v>386</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C44" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D44" t="n">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="E44" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F44" t="n">
-        <v>3705.9996</v>
+        <v>1327.0495</v>
       </c>
       <c r="G44" t="n">
-        <v>-1759.474139869994</v>
+        <v>386.3333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C45" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D45" t="n">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="E45" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F45" t="n">
-        <v>4798.865</v>
+        <v>21592.6257</v>
       </c>
       <c r="G45" t="n">
-        <v>-1759.474139869994</v>
+        <v>386.6666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C46" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D46" t="n">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E46" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>673</v>
       </c>
       <c r="G46" t="n">
-        <v>-1758.474139869994</v>
+        <v>384</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C47" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D47" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E47" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F47" t="n">
-        <v>3660.5751</v>
+        <v>4659.6794</v>
       </c>
       <c r="G47" t="n">
-        <v>-5419.049239869994</v>
+        <v>385.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C48" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D48" t="n">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E48" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F48" t="n">
-        <v>1180.584</v>
+        <v>5353.4963</v>
       </c>
       <c r="G48" t="n">
-        <v>-6599.633239869994</v>
+        <v>387</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="C49" t="n">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D49" t="n">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E49" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F49" t="n">
-        <v>191</v>
+        <v>8642.260899999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-6790.633239869994</v>
+        <v>389.6666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C50" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D50" t="n">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="E50" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F50" t="n">
-        <v>118.6051</v>
+        <v>14863.4863</v>
       </c>
       <c r="G50" t="n">
-        <v>-6790.633239869994</v>
+        <v>390</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C51" t="n">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D51" t="n">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="E51" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5145</v>
+        <v>343.0696</v>
       </c>
       <c r="G51" t="n">
-        <v>-6789.118739869994</v>
+        <v>392.3333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C52" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D52" t="n">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E52" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F52" t="n">
-        <v>298.3972</v>
+        <v>9570.3791</v>
       </c>
       <c r="G52" t="n">
-        <v>-7087.515939869994</v>
+        <v>390.6666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C53" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D53" t="n">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="E53" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>142.1689</v>
       </c>
       <c r="G53" t="n">
-        <v>-7087.515939869994</v>
+        <v>390.3333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="C54" t="n">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="D54" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="E54" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>10820.1783</v>
       </c>
       <c r="G54" t="n">
-        <v>-7087.515939869994</v>
+        <v>390.3333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="C55" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="D55" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="E55" t="n">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="F55" t="n">
-        <v>284</v>
+        <v>4918.8154</v>
       </c>
       <c r="G55" t="n">
-        <v>-7087.515939869994</v>
+        <v>393.3333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C56" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="D56" t="n">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E56" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="F56" t="n">
-        <v>171</v>
+        <v>15212.7135</v>
       </c>
       <c r="G56" t="n">
-        <v>-7087.515939869994</v>
+        <v>396.3333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C57" t="n">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="D57" t="n">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E57" t="n">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="F57" t="n">
-        <v>920</v>
+        <v>3935.0812</v>
       </c>
       <c r="G57" t="n">
-        <v>-7087.515939869994</v>
+        <v>395.6666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C58" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="D58" t="n">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E58" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F58" t="n">
-        <v>314.0925</v>
+        <v>3545.4876</v>
       </c>
       <c r="G58" t="n">
-        <v>-7087.515939869994</v>
+        <v>393</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C59" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="D59" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="E59" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F59" t="n">
-        <v>1052.9998</v>
+        <v>10086.125</v>
       </c>
       <c r="G59" t="n">
-        <v>-7087.515939869994</v>
+        <v>387.6666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C60" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D60" t="n">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="E60" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F60" t="n">
-        <v>750.1574000000001</v>
+        <v>1272.4073</v>
       </c>
       <c r="G60" t="n">
-        <v>-6337.358539869994</v>
+        <v>384.3333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C61" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E61" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F61" t="n">
-        <v>911.0776</v>
+        <v>2031.3441</v>
       </c>
       <c r="G61" t="n">
-        <v>-5426.280939869995</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C62" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D62" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E62" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F62" t="n">
-        <v>200.7011</v>
+        <v>18.602</v>
       </c>
       <c r="G62" t="n">
-        <v>-5626.982039869995</v>
+        <v>383.6666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C63" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D63" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E63" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F63" t="n">
-        <v>2719</v>
+        <v>959.3563</v>
       </c>
       <c r="G63" t="n">
-        <v>-2907.982039869995</v>
+        <v>386</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C64" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D64" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E64" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F64" t="n">
-        <v>132.9041</v>
+        <v>150</v>
       </c>
       <c r="G64" t="n">
-        <v>-3040.886139869995</v>
+        <v>386</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C65" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D65" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E65" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F65" t="n">
-        <v>1328.5158</v>
+        <v>26910.7493</v>
       </c>
       <c r="G65" t="n">
-        <v>-1712.370339869995</v>
+        <v>385.6666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,34 +2735,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C66" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D66" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E66" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F66" t="n">
-        <v>172.182</v>
+        <v>1044</v>
       </c>
       <c r="G66" t="n">
-        <v>-1712.370339869995</v>
+        <v>385.6666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C67" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D67" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E67" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F67" t="n">
-        <v>10677.2235</v>
+        <v>4336.6201</v>
       </c>
       <c r="G67" t="n">
-        <v>-12389.59383986999</v>
+        <v>385.6666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C68" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D68" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E68" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F68" t="n">
-        <v>233.7747</v>
+        <v>3959.1286</v>
       </c>
       <c r="G68" t="n">
-        <v>-12155.81913986999</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C69" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D69" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E69" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F69" t="n">
-        <v>1040</v>
+        <v>405.7614</v>
       </c>
       <c r="G69" t="n">
-        <v>-13195.81913986999</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C70" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D70" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E70" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F70" t="n">
-        <v>61</v>
+        <v>2127.6605</v>
       </c>
       <c r="G70" t="n">
-        <v>-13134.81913986999</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C71" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D71" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E71" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>5048.4667</v>
       </c>
       <c r="G71" t="n">
-        <v>-13634.81913986999</v>
+        <v>383.6666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C72" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D72" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E72" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F72" t="n">
-        <v>1016.8467</v>
+        <v>9199.0895</v>
       </c>
       <c r="G72" t="n">
-        <v>-13634.81913986999</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C73" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D73" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E73" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G73" t="n">
-        <v>-13633.81913986999</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C74" t="n">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D74" t="n">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E74" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F74" t="n">
-        <v>7976.0655</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>-5657.753639869995</v>
+        <v>381.3333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,34 +3059,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C75" t="n">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D75" t="n">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E75" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F75" t="n">
-        <v>2966.8696</v>
+        <v>1972.7251</v>
       </c>
       <c r="G75" t="n">
-        <v>-8624.623239869994</v>
+        <v>379.3333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,34 +3095,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C76" t="n">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D76" t="n">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E76" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F76" t="n">
-        <v>234</v>
+        <v>156.096</v>
       </c>
       <c r="G76" t="n">
-        <v>-8390.623239869994</v>
+        <v>378.6666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>380</v>
+      </c>
+      <c r="C77" t="n">
+        <v>378</v>
+      </c>
+      <c r="D77" t="n">
         <v>382</v>
       </c>
-      <c r="C77" t="n">
-        <v>388</v>
-      </c>
-      <c r="D77" t="n">
-        <v>388</v>
-      </c>
       <c r="E77" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F77" t="n">
-        <v>790.754</v>
+        <v>4356.0911</v>
       </c>
       <c r="G77" t="n">
-        <v>-9181.377239869995</v>
+        <v>377.3333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C78" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D78" t="n">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E78" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F78" t="n">
-        <v>15972.9191</v>
+        <v>226</v>
       </c>
       <c r="G78" t="n">
-        <v>-25154.29633986999</v>
+        <v>377.6666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C79" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D79" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E79" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F79" t="n">
-        <v>797.908</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>-25154.29633986999</v>
+        <v>377.3333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C80" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D80" t="n">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="E80" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F80" t="n">
-        <v>11355.9618</v>
+        <v>50</v>
       </c>
       <c r="G80" t="n">
-        <v>-13798.33453986999</v>
+        <v>377</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C81" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D81" t="n">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="E81" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F81" t="n">
-        <v>4234.2261</v>
+        <v>311</v>
       </c>
       <c r="G81" t="n">
-        <v>-18032.56063987</v>
+        <v>377.3333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C82" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D82" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E82" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F82" t="n">
-        <v>9160.8969</v>
+        <v>330</v>
       </c>
       <c r="G82" t="n">
-        <v>-18032.56063987</v>
+        <v>377.6666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C83" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D83" t="n">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E83" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F83" t="n">
-        <v>706.5925</v>
+        <v>97</v>
       </c>
       <c r="G83" t="n">
-        <v>-17325.96813987</v>
+        <v>378</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C84" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D84" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E84" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F84" t="n">
-        <v>382.3905</v>
+        <v>200</v>
       </c>
       <c r="G84" t="n">
-        <v>-17708.35863987</v>
+        <v>378</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C85" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D85" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E85" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F85" t="n">
-        <v>1111</v>
+        <v>2005</v>
       </c>
       <c r="G85" t="n">
-        <v>-16597.35863987</v>
+        <v>378</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C86" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D86" t="n">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E86" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F86" t="n">
-        <v>1327.0495</v>
+        <v>400</v>
       </c>
       <c r="G86" t="n">
-        <v>-17924.40813987</v>
+        <v>378</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C87" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D87" t="n">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E87" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F87" t="n">
-        <v>21592.6257</v>
+        <v>4731.7092</v>
       </c>
       <c r="G87" t="n">
-        <v>-39517.03383987</v>
+        <v>378</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,34 +3527,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C88" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D88" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E88" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F88" t="n">
-        <v>673</v>
+        <v>3325</v>
       </c>
       <c r="G88" t="n">
-        <v>-38844.03383987</v>
+        <v>378</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C89" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D89" t="n">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E89" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F89" t="n">
-        <v>4659.6794</v>
+        <v>3533.6521</v>
       </c>
       <c r="G89" t="n">
-        <v>-34184.35443987</v>
+        <v>379</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C90" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D90" t="n">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E90" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F90" t="n">
-        <v>5353.4963</v>
+        <v>2926.2968</v>
       </c>
       <c r="G90" t="n">
-        <v>-34184.35443987</v>
+        <v>380</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C91" t="n">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D91" t="n">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E91" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F91" t="n">
-        <v>8642.260899999999</v>
+        <v>924.8514</v>
       </c>
       <c r="G91" t="n">
-        <v>-25542.09353986999</v>
+        <v>380.3333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C92" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D92" t="n">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E92" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F92" t="n">
-        <v>14863.4863</v>
+        <v>98.3267</v>
       </c>
       <c r="G92" t="n">
-        <v>-40405.57983987</v>
+        <v>380.6666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C93" t="n">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D93" t="n">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E93" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F93" t="n">
-        <v>343.0696</v>
+        <v>402.7581</v>
       </c>
       <c r="G93" t="n">
-        <v>-40062.51023987</v>
+        <v>381.3333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C94" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D94" t="n">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E94" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F94" t="n">
-        <v>9570.3791</v>
+        <v>4125.0152</v>
       </c>
       <c r="G94" t="n">
-        <v>-49632.88933986999</v>
+        <v>382.6666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C95" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D95" t="n">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E95" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F95" t="n">
-        <v>142.1689</v>
+        <v>245.0244</v>
       </c>
       <c r="G95" t="n">
-        <v>-49632.88933986999</v>
+        <v>383.6666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C96" t="n">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D96" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E96" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F96" t="n">
-        <v>10820.1783</v>
+        <v>874.8713</v>
       </c>
       <c r="G96" t="n">
-        <v>-38812.71103987</v>
+        <v>384.3333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,34 +3851,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C97" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D97" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E97" t="n">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F97" t="n">
-        <v>4918.8154</v>
+        <v>1474.8622</v>
       </c>
       <c r="G97" t="n">
-        <v>-33893.89563987</v>
+        <v>385</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3787,34 +3887,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C98" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D98" t="n">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E98" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F98" t="n">
-        <v>15212.7135</v>
+        <v>3048.0685</v>
       </c>
       <c r="G98" t="n">
-        <v>-33893.89563987</v>
+        <v>385</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,34 +3923,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C99" t="n">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D99" t="n">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E99" t="n">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F99" t="n">
-        <v>3935.0812</v>
+        <v>5042.8853</v>
       </c>
       <c r="G99" t="n">
-        <v>-37828.97683987</v>
+        <v>385</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3857,34 +3959,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C100" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D100" t="n">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E100" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F100" t="n">
-        <v>3545.4876</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-41374.46443987</v>
+        <v>385.6666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3892,34 +3995,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C101" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D101" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E101" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F101" t="n">
-        <v>10086.125</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-51460.58943987</v>
+        <v>386</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C102" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D102" t="n">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E102" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F102" t="n">
-        <v>1272.4073</v>
+        <v>8029.3274</v>
       </c>
       <c r="G102" t="n">
-        <v>-50188.18213987</v>
+        <v>386</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C103" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D103" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E103" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F103" t="n">
-        <v>2031.3441</v>
+        <v>1012.6599</v>
       </c>
       <c r="G103" t="n">
-        <v>-50188.18213987</v>
+        <v>385.3333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C104" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D104" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E104" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F104" t="n">
-        <v>18.602</v>
+        <v>2333.0981</v>
       </c>
       <c r="G104" t="n">
-        <v>-50169.58013987</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C105" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D105" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E105" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F105" t="n">
-        <v>959.3563</v>
+        <v>139.9506</v>
       </c>
       <c r="G105" t="n">
-        <v>-49210.22383987</v>
+        <v>384.3333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C106" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D106" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E106" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F106" t="n">
-        <v>150</v>
+        <v>1789.5597</v>
       </c>
       <c r="G106" t="n">
-        <v>-49360.22383987</v>
+        <v>384</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C107" t="n">
+        <v>387</v>
+      </c>
+      <c r="D107" t="n">
+        <v>387</v>
+      </c>
+      <c r="E107" t="n">
         <v>384</v>
       </c>
-      <c r="D107" t="n">
-        <v>389</v>
-      </c>
-      <c r="E107" t="n">
-        <v>383</v>
-      </c>
       <c r="F107" t="n">
-        <v>26910.7493</v>
+        <v>48.4963</v>
       </c>
       <c r="G107" t="n">
-        <v>-22449.47453987</v>
+        <v>385</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C108" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D108" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E108" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F108" t="n">
-        <v>1044</v>
+        <v>832.9969</v>
       </c>
       <c r="G108" t="n">
-        <v>-21405.47453987</v>
+        <v>386</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C109" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D109" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E109" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F109" t="n">
-        <v>4336.6201</v>
+        <v>150</v>
       </c>
       <c r="G109" t="n">
-        <v>-25742.09463987</v>
+        <v>387</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C110" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D110" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E110" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F110" t="n">
-        <v>3959.1286</v>
+        <v>159.9805</v>
       </c>
       <c r="G110" t="n">
-        <v>-29701.22323987</v>
+        <v>386</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C111" t="n">
         <v>383</v>
       </c>
       <c r="D111" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E111" t="n">
         <v>383</v>
       </c>
       <c r="F111" t="n">
-        <v>405.7614</v>
+        <v>8875.7096</v>
       </c>
       <c r="G111" t="n">
-        <v>-29295.46183987</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>382</v>
+      </c>
+      <c r="C112" t="n">
         <v>381</v>
       </c>
-      <c r="C112" t="n">
-        <v>383</v>
-      </c>
       <c r="D112" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E112" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F112" t="n">
-        <v>2127.6605</v>
+        <v>192.2183</v>
       </c>
       <c r="G112" t="n">
-        <v>-29295.46183987</v>
+        <v>382.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C113" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D113" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E113" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F113" t="n">
-        <v>5048.4667</v>
+        <v>1392.2361</v>
       </c>
       <c r="G113" t="n">
-        <v>-24246.99513987</v>
+        <v>382</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4356,19 +4473,19 @@
         <v>382</v>
       </c>
       <c r="C114" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D114" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E114" t="n">
         <v>382</v>
       </c>
       <c r="F114" t="n">
-        <v>9199.0895</v>
+        <v>1045</v>
       </c>
       <c r="G114" t="n">
-        <v>-33446.08463987</v>
+        <v>383</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C115" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D115" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E115" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F115" t="n">
-        <v>8000</v>
+        <v>88.6109</v>
       </c>
       <c r="G115" t="n">
-        <v>-41446.08463987</v>
+        <v>383.6666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C116" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D116" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E116" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>26.1096</v>
       </c>
       <c r="G116" t="n">
-        <v>-41445.08463987</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C117" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D117" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E117" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F117" t="n">
-        <v>1972.7251</v>
+        <v>1445.3787</v>
       </c>
       <c r="G117" t="n">
-        <v>-43417.80973987</v>
+        <v>383</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C118" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D118" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E118" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F118" t="n">
-        <v>156.096</v>
+        <v>17650.5877</v>
       </c>
       <c r="G118" t="n">
-        <v>-43261.71373987001</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4531,19 +4653,19 @@
         <v>380</v>
       </c>
       <c r="C119" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D119" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E119" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F119" t="n">
-        <v>4356.0911</v>
+        <v>249.891</v>
       </c>
       <c r="G119" t="n">
-        <v>-43261.71373987001</v>
+        <v>381</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,6 +4679,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4575,10 +4698,10 @@
         <v>377</v>
       </c>
       <c r="F120" t="n">
-        <v>226</v>
+        <v>994.0432</v>
       </c>
       <c r="G120" t="n">
-        <v>-43487.71373987001</v>
+        <v>379.6666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,6 +4715,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4601,19 +4725,19 @@
         <v>377</v>
       </c>
       <c r="C121" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D121" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E121" t="n">
         <v>377</v>
       </c>
       <c r="F121" t="n">
-        <v>50</v>
+        <v>1886.9873</v>
       </c>
       <c r="G121" t="n">
-        <v>-43487.71373987001</v>
+        <v>380.3333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C122" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D122" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E122" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F122" t="n">
         <v>50</v>
       </c>
       <c r="G122" t="n">
-        <v>-43487.71373987001</v>
+        <v>380.6666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C123" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D123" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E123" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F123" t="n">
-        <v>311</v>
+        <v>1241.4879</v>
       </c>
       <c r="G123" t="n">
-        <v>-43176.71373987001</v>
+        <v>382.6666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C124" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D124" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E124" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F124" t="n">
-        <v>330</v>
+        <v>820</v>
       </c>
       <c r="G124" t="n">
-        <v>-43176.71373987001</v>
+        <v>383.6666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C125" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D125" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E125" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F125" t="n">
-        <v>97</v>
+        <v>926</v>
       </c>
       <c r="G125" t="n">
-        <v>-43176.71373987001</v>
+        <v>385</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C126" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D126" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E126" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F126" t="n">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="G126" t="n">
-        <v>-43176.71373987001</v>
+        <v>386</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C127" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D127" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E127" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F127" t="n">
-        <v>2005</v>
+        <v>1528</v>
       </c>
       <c r="G127" t="n">
-        <v>-43176.71373987001</v>
+        <v>386</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C128" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D128" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E128" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F128" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G128" t="n">
-        <v>-43176.71373987001</v>
+        <v>386</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C129" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D129" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E129" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F129" t="n">
-        <v>4731.7092</v>
+        <v>25.9067</v>
       </c>
       <c r="G129" t="n">
-        <v>-43176.71373987001</v>
+        <v>386</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C130" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D130" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E130" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F130" t="n">
-        <v>3325</v>
+        <v>1601</v>
       </c>
       <c r="G130" t="n">
-        <v>-43176.71373987001</v>
+        <v>386</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C131" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D131" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E131" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F131" t="n">
-        <v>3533.6521</v>
+        <v>187</v>
       </c>
       <c r="G131" t="n">
-        <v>-39643.06163987001</v>
+        <v>386</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C132" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D132" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E132" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F132" t="n">
-        <v>2926.2968</v>
+        <v>345</v>
       </c>
       <c r="G132" t="n">
-        <v>-39643.06163987001</v>
+        <v>386</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C133" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D133" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E133" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F133" t="n">
-        <v>924.8514</v>
+        <v>630</v>
       </c>
       <c r="G133" t="n">
-        <v>-40567.91303987001</v>
+        <v>386</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C134" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D134" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E134" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F134" t="n">
-        <v>98.3267</v>
+        <v>522</v>
       </c>
       <c r="G134" t="n">
-        <v>-40469.58633987001</v>
+        <v>386</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C135" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D135" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E135" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F135" t="n">
-        <v>402.7581</v>
+        <v>86</v>
       </c>
       <c r="G135" t="n">
-        <v>-40066.82823987001</v>
+        <v>386.3333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C136" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D136" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E136" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F136" t="n">
-        <v>4125.0152</v>
+        <v>91.053</v>
       </c>
       <c r="G136" t="n">
-        <v>-40066.82823987001</v>
+        <v>386.6666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C137" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D137" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E137" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F137" t="n">
-        <v>245.0244</v>
+        <v>3264.1353</v>
       </c>
       <c r="G137" t="n">
-        <v>-39821.80383987001</v>
+        <v>387</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C138" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D138" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E138" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F138" t="n">
-        <v>874.8713</v>
+        <v>12.1</v>
       </c>
       <c r="G138" t="n">
-        <v>-39821.80383987001</v>
+        <v>387</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C139" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D139" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E139" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F139" t="n">
-        <v>1474.8622</v>
+        <v>182.1</v>
       </c>
       <c r="G139" t="n">
-        <v>-39821.80383987001</v>
+        <v>387</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C140" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D140" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E140" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F140" t="n">
-        <v>3048.0685</v>
+        <v>38.9</v>
       </c>
       <c r="G140" t="n">
-        <v>-39821.80383987001</v>
+        <v>387</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C141" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D141" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E141" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F141" t="n">
-        <v>5042.8853</v>
+        <v>47.9</v>
       </c>
       <c r="G141" t="n">
-        <v>-39821.80383987001</v>
+        <v>387</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,6 +5471,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5336,19 +5481,19 @@
         <v>387</v>
       </c>
       <c r="C142" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D142" t="n">
         <v>387</v>
       </c>
       <c r="E142" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>3908.2327</v>
       </c>
       <c r="G142" t="n">
-        <v>-39820.80383987001</v>
+        <v>385.6666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C143" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D143" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E143" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>5483.7728</v>
       </c>
       <c r="G143" t="n">
-        <v>-39830.80383987001</v>
+        <v>383.6666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C144" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D144" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E144" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F144" t="n">
-        <v>8029.3274</v>
+        <v>609.3244999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>-47860.13123987001</v>
+        <v>382</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C145" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D145" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E145" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F145" t="n">
-        <v>1012.6599</v>
+        <v>6315.6376</v>
       </c>
       <c r="G145" t="n">
-        <v>-47860.13123987001</v>
+        <v>381.6666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C146" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D146" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E146" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F146" t="n">
-        <v>2333.0981</v>
+        <v>103.4097</v>
       </c>
       <c r="G146" t="n">
-        <v>-50193.22933987001</v>
+        <v>382</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C147" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D147" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E147" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F147" t="n">
-        <v>139.9506</v>
+        <v>4712.8552</v>
       </c>
       <c r="G147" t="n">
-        <v>-50193.22933987001</v>
+        <v>380.3333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C148" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D148" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E148" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F148" t="n">
-        <v>1789.5597</v>
+        <v>14326.6553</v>
       </c>
       <c r="G148" t="n">
-        <v>-50193.22933987001</v>
+        <v>378.6666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C149" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D149" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E149" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F149" t="n">
-        <v>48.4963</v>
+        <v>31</v>
       </c>
       <c r="G149" t="n">
-        <v>-50144.73303987001</v>
+        <v>377.6666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C150" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D150" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E150" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F150" t="n">
-        <v>832.9969</v>
+        <v>2283.6</v>
       </c>
       <c r="G150" t="n">
-        <v>-50144.73303987001</v>
+        <v>379</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C151" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D151" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E151" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F151" t="n">
-        <v>150</v>
+        <v>1344.9934</v>
       </c>
       <c r="G151" t="n">
-        <v>-50144.73303987001</v>
+        <v>380.3333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C152" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D152" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E152" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F152" t="n">
-        <v>159.9805</v>
+        <v>1611.0418</v>
       </c>
       <c r="G152" t="n">
-        <v>-50304.71353987001</v>
+        <v>381.3333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C153" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D153" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E153" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F153" t="n">
-        <v>8875.7096</v>
+        <v>1208.0288</v>
       </c>
       <c r="G153" t="n">
-        <v>-59180.42313987001</v>
+        <v>380</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C154" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D154" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E154" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F154" t="n">
-        <v>192.2183</v>
+        <v>279</v>
       </c>
       <c r="G154" t="n">
-        <v>-59372.64143987001</v>
+        <v>378.6666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C155" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D155" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E155" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F155" t="n">
-        <v>1392.2361</v>
+        <v>1012.9712</v>
       </c>
       <c r="G155" t="n">
-        <v>-57980.40533987001</v>
+        <v>377</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C156" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D156" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E156" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F156" t="n">
-        <v>1045</v>
+        <v>4111.3228</v>
       </c>
       <c r="G156" t="n">
-        <v>-56935.40533987001</v>
+        <v>376</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C157" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D157" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E157" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F157" t="n">
-        <v>88.6109</v>
+        <v>385.6123</v>
       </c>
       <c r="G157" t="n">
-        <v>-57024.01623987001</v>
+        <v>374.6666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5887,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C158" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D158" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E158" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F158" t="n">
-        <v>26.1096</v>
+        <v>251</v>
       </c>
       <c r="G158" t="n">
-        <v>-56997.90663987001</v>
+        <v>373.6666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,6 +6083,7 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5940,10 +6102,10 @@
         <v>381</v>
       </c>
       <c r="F159" t="n">
-        <v>1445.3787</v>
+        <v>50</v>
       </c>
       <c r="G159" t="n">
-        <v>-58443.28533987001</v>
+        <v>376</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5957,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C160" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D160" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E160" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F160" t="n">
-        <v>17650.5877</v>
+        <v>26.2467</v>
       </c>
       <c r="G160" t="n">
-        <v>-58443.28533987001</v>
+        <v>377.3333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5992,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C161" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D161" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E161" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F161" t="n">
-        <v>249.891</v>
+        <v>790.4751</v>
       </c>
       <c r="G161" t="n">
-        <v>-58443.28533987001</v>
+        <v>378.3333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6027,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C162" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D162" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E162" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F162" t="n">
-        <v>994.0432</v>
+        <v>17175.6139</v>
       </c>
       <c r="G162" t="n">
-        <v>-59437.32853987001</v>
+        <v>375.3333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6062,238 +6227,285 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C163" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D163" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E163" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F163" t="n">
-        <v>1886.9873</v>
+        <v>2541.1399</v>
       </c>
       <c r="G163" t="n">
-        <v>-57550.34123987001</v>
+        <v>373.6666666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>372</v>
+      </c>
+      <c r="K163" t="n">
+        <v>372</v>
+      </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C164" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D164" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E164" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F164" t="n">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="G164" t="n">
-        <v>-57600.34123987001</v>
+        <v>372</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>372</v>
+      </c>
+      <c r="K164" t="n">
+        <v>372</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C165" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D165" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E165" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F165" t="n">
-        <v>1241.4879</v>
+        <v>600</v>
       </c>
       <c r="G165" t="n">
-        <v>-56358.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>372</v>
+      </c>
+      <c r="K165" t="n">
+        <v>372</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C166" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D166" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E166" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F166" t="n">
-        <v>820</v>
+        <v>1383.6738</v>
       </c>
       <c r="G166" t="n">
-        <v>-55538.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>372</v>
+      </c>
+      <c r="K166" t="n">
+        <v>372</v>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C167" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D167" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E167" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F167" t="n">
-        <v>926</v>
+        <v>578</v>
       </c>
       <c r="G167" t="n">
-        <v>-55538.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>372</v>
+      </c>
+      <c r="K167" t="n">
+        <v>372</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C168" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D168" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E168" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F168" t="n">
-        <v>154</v>
+        <v>830</v>
       </c>
       <c r="G168" t="n">
-        <v>-55538.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>372</v>
+      </c>
+      <c r="K168" t="n">
+        <v>372</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C169" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D169" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E169" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F169" t="n">
-        <v>1528</v>
+        <v>506.33</v>
       </c>
       <c r="G169" t="n">
-        <v>-55538.85333987001</v>
+        <v>371.6666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6307,1912 +6519,439 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C170" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D170" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E170" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>1768.3548</v>
       </c>
       <c r="G170" t="n">
-        <v>-55538.85333987001</v>
+        <v>371.6666666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>371</v>
+      </c>
+      <c r="K170" t="n">
+        <v>371</v>
+      </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C171" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D171" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E171" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F171" t="n">
-        <v>25.9067</v>
+        <v>915.9815</v>
       </c>
       <c r="G171" t="n">
-        <v>-55538.85333987001</v>
+        <v>371.6666666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>372</v>
+      </c>
+      <c r="K171" t="n">
+        <v>371</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C172" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D172" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E172" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F172" t="n">
-        <v>1601</v>
+        <v>141.293</v>
       </c>
       <c r="G172" t="n">
-        <v>-55538.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>372</v>
+      </c>
+      <c r="K172" t="n">
+        <v>371</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C173" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D173" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E173" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F173" t="n">
-        <v>187</v>
+        <v>141.293</v>
       </c>
       <c r="G173" t="n">
-        <v>-55538.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>372</v>
+      </c>
+      <c r="K173" t="n">
+        <v>372</v>
+      </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C174" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D174" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E174" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F174" t="n">
-        <v>345</v>
+        <v>1185.9371</v>
       </c>
       <c r="G174" t="n">
-        <v>-55538.85333987001</v>
+        <v>371.6666666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>372</v>
+      </c>
+      <c r="K174" t="n">
+        <v>372</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C175" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D175" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E175" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F175" t="n">
-        <v>630</v>
+        <v>2946.0271</v>
       </c>
       <c r="G175" t="n">
-        <v>-55538.85333987001</v>
+        <v>371.6666666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>371</v>
+      </c>
+      <c r="K175" t="n">
+        <v>372</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C176" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D176" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E176" t="n">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F176" t="n">
-        <v>522</v>
+        <v>2152.5099</v>
       </c>
       <c r="G176" t="n">
-        <v>-55538.85333987001</v>
+        <v>371.6666666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>372</v>
+      </c>
+      <c r="K176" t="n">
+        <v>372</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C177" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D177" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E177" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F177" t="n">
-        <v>86</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="G177" t="n">
-        <v>-55452.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>372</v>
+      </c>
+      <c r="K177" t="n">
+        <v>372</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C178" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D178" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E178" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F178" t="n">
-        <v>91.053</v>
+        <v>303</v>
       </c>
       <c r="G178" t="n">
-        <v>-55452.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>372</v>
+      </c>
+      <c r="K178" t="n">
+        <v>372</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C179" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D179" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E179" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F179" t="n">
-        <v>3264.1353</v>
+        <v>871.4166</v>
       </c>
       <c r="G179" t="n">
-        <v>-55452.85333987001</v>
+        <v>372</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>387</v>
-      </c>
-      <c r="C180" t="n">
-        <v>387</v>
-      </c>
-      <c r="D180" t="n">
-        <v>387</v>
-      </c>
-      <c r="E180" t="n">
-        <v>387</v>
-      </c>
-      <c r="F180" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>387</v>
-      </c>
-      <c r="C181" t="n">
-        <v>387</v>
-      </c>
-      <c r="D181" t="n">
-        <v>387</v>
-      </c>
-      <c r="E181" t="n">
-        <v>387</v>
-      </c>
-      <c r="F181" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>387</v>
-      </c>
-      <c r="C182" t="n">
-        <v>387</v>
-      </c>
-      <c r="D182" t="n">
-        <v>387</v>
-      </c>
-      <c r="E182" t="n">
-        <v>387</v>
-      </c>
-      <c r="F182" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>387</v>
-      </c>
-      <c r="C183" t="n">
-        <v>387</v>
-      </c>
-      <c r="D183" t="n">
-        <v>387</v>
-      </c>
-      <c r="E183" t="n">
-        <v>387</v>
-      </c>
-      <c r="F183" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>387</v>
-      </c>
-      <c r="C184" t="n">
-        <v>383</v>
-      </c>
-      <c r="D184" t="n">
-        <v>387</v>
-      </c>
-      <c r="E184" t="n">
-        <v>383</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3908.2327</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-59361.08603987001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>381</v>
-      </c>
-      <c r="C185" t="n">
-        <v>381</v>
-      </c>
-      <c r="D185" t="n">
-        <v>384</v>
-      </c>
-      <c r="E185" t="n">
-        <v>381</v>
-      </c>
-      <c r="F185" t="n">
-        <v>5483.7728</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-64844.85883987001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>383</v>
-      </c>
-      <c r="C186" t="n">
-        <v>382</v>
-      </c>
-      <c r="D186" t="n">
-        <v>383</v>
-      </c>
-      <c r="E186" t="n">
-        <v>382</v>
-      </c>
-      <c r="F186" t="n">
-        <v>609.3244999999999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-64235.53433987001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>382</v>
-      </c>
-      <c r="C187" t="n">
-        <v>382</v>
-      </c>
-      <c r="D187" t="n">
-        <v>382</v>
-      </c>
-      <c r="E187" t="n">
-        <v>382</v>
-      </c>
-      <c r="F187" t="n">
-        <v>6315.6376</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-64235.53433987001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>382</v>
-      </c>
-      <c r="C188" t="n">
-        <v>382</v>
-      </c>
-      <c r="D188" t="n">
-        <v>382</v>
-      </c>
-      <c r="E188" t="n">
-        <v>382</v>
-      </c>
-      <c r="F188" t="n">
-        <v>103.4097</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-64235.53433987001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>381</v>
-      </c>
-      <c r="C189" t="n">
-        <v>377</v>
-      </c>
-      <c r="D189" t="n">
-        <v>381</v>
-      </c>
-      <c r="E189" t="n">
-        <v>377</v>
-      </c>
-      <c r="F189" t="n">
-        <v>4712.8552</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-68948.38953987001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>377</v>
-      </c>
-      <c r="C190" t="n">
-        <v>377</v>
-      </c>
-      <c r="D190" t="n">
-        <v>377</v>
-      </c>
-      <c r="E190" t="n">
-        <v>375</v>
-      </c>
-      <c r="F190" t="n">
-        <v>14326.6553</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-68948.38953987001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>377</v>
-      </c>
-      <c r="C191" t="n">
-        <v>379</v>
-      </c>
-      <c r="D191" t="n">
-        <v>379</v>
-      </c>
-      <c r="E191" t="n">
-        <v>377</v>
-      </c>
-      <c r="F191" t="n">
-        <v>31</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-68917.38953987001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>381</v>
-      </c>
-      <c r="C192" t="n">
-        <v>381</v>
-      </c>
-      <c r="D192" t="n">
-        <v>381</v>
-      </c>
-      <c r="E192" t="n">
-        <v>381</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2283.6</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-66633.78953987001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>381</v>
-      </c>
-      <c r="C193" t="n">
-        <v>381</v>
-      </c>
-      <c r="D193" t="n">
-        <v>381</v>
-      </c>
-      <c r="E193" t="n">
-        <v>381</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1344.9934</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-66633.78953987001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>382</v>
-      </c>
-      <c r="C194" t="n">
-        <v>382</v>
-      </c>
-      <c r="D194" t="n">
-        <v>382</v>
-      </c>
-      <c r="E194" t="n">
-        <v>382</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1611.0418</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-65022.74773987001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>377</v>
-      </c>
-      <c r="C195" t="n">
-        <v>377</v>
-      </c>
-      <c r="D195" t="n">
-        <v>377</v>
-      </c>
-      <c r="E195" t="n">
-        <v>377</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1208.0288</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-66230.77653987001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>377</v>
-      </c>
-      <c r="C196" t="n">
-        <v>377</v>
-      </c>
-      <c r="D196" t="n">
-        <v>377</v>
-      </c>
-      <c r="E196" t="n">
-        <v>377</v>
-      </c>
-      <c r="F196" t="n">
-        <v>279</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-66230.77653987001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>377</v>
-      </c>
-      <c r="C197" t="n">
-        <v>377</v>
-      </c>
-      <c r="D197" t="n">
-        <v>377</v>
-      </c>
-      <c r="E197" t="n">
-        <v>377</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1012.9712</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-66230.77653987001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>374</v>
-      </c>
-      <c r="C198" t="n">
-        <v>374</v>
-      </c>
-      <c r="D198" t="n">
-        <v>374</v>
-      </c>
-      <c r="E198" t="n">
-        <v>374</v>
-      </c>
-      <c r="F198" t="n">
-        <v>4111.3228</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-70342.09933987001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>373</v>
-      </c>
-      <c r="C199" t="n">
-        <v>373</v>
-      </c>
-      <c r="D199" t="n">
-        <v>373</v>
-      </c>
-      <c r="E199" t="n">
-        <v>373</v>
-      </c>
-      <c r="F199" t="n">
-        <v>385.6123</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-70727.71163987</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>373</v>
-      </c>
-      <c r="C200" t="n">
-        <v>374</v>
-      </c>
-      <c r="D200" t="n">
-        <v>374</v>
-      </c>
-      <c r="E200" t="n">
-        <v>373</v>
-      </c>
-      <c r="F200" t="n">
-        <v>251</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-70476.71163987</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>381</v>
-      </c>
-      <c r="C201" t="n">
-        <v>381</v>
-      </c>
-      <c r="D201" t="n">
-        <v>381</v>
-      </c>
-      <c r="E201" t="n">
-        <v>381</v>
-      </c>
-      <c r="F201" t="n">
-        <v>50</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-70426.71163987</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>377</v>
-      </c>
-      <c r="C202" t="n">
-        <v>377</v>
-      </c>
-      <c r="D202" t="n">
-        <v>377</v>
-      </c>
-      <c r="E202" t="n">
-        <v>377</v>
-      </c>
-      <c r="F202" t="n">
-        <v>26.2467</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-70452.95833987001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>377</v>
-      </c>
-      <c r="C203" t="n">
-        <v>377</v>
-      </c>
-      <c r="D203" t="n">
-        <v>377</v>
-      </c>
-      <c r="E203" t="n">
-        <v>377</v>
-      </c>
-      <c r="F203" t="n">
-        <v>790.4751</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-70452.95833987001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>372</v>
-      </c>
-      <c r="C204" t="n">
-        <v>372</v>
-      </c>
-      <c r="D204" t="n">
-        <v>372</v>
-      </c>
-      <c r="E204" t="n">
-        <v>372</v>
-      </c>
-      <c r="F204" t="n">
-        <v>17175.6139</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>372</v>
-      </c>
-      <c r="C205" t="n">
-        <v>372</v>
-      </c>
-      <c r="D205" t="n">
-        <v>372</v>
-      </c>
-      <c r="E205" t="n">
-        <v>372</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2541.1399</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>372</v>
-      </c>
-      <c r="C206" t="n">
-        <v>372</v>
-      </c>
-      <c r="D206" t="n">
-        <v>372</v>
-      </c>
-      <c r="E206" t="n">
-        <v>372</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>372</v>
-      </c>
-      <c r="C207" t="n">
-        <v>372</v>
-      </c>
-      <c r="D207" t="n">
-        <v>372</v>
-      </c>
-      <c r="E207" t="n">
-        <v>372</v>
-      </c>
-      <c r="F207" t="n">
-        <v>600</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>372</v>
-      </c>
-      <c r="C208" t="n">
-        <v>372</v>
-      </c>
-      <c r="D208" t="n">
-        <v>372</v>
-      </c>
-      <c r="E208" t="n">
-        <v>372</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1383.6738</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>372</v>
-      </c>
-      <c r="C209" t="n">
-        <v>372</v>
-      </c>
-      <c r="D209" t="n">
-        <v>372</v>
-      </c>
-      <c r="E209" t="n">
-        <v>372</v>
-      </c>
-      <c r="F209" t="n">
-        <v>578</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>372</v>
-      </c>
-      <c r="K209" t="n">
-        <v>372</v>
-      </c>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>372</v>
-      </c>
-      <c r="C210" t="n">
-        <v>372</v>
-      </c>
-      <c r="D210" t="n">
-        <v>372</v>
-      </c>
-      <c r="E210" t="n">
-        <v>372</v>
-      </c>
-      <c r="F210" t="n">
-        <v>830</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>372</v>
-      </c>
-      <c r="K210" t="n">
-        <v>372</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>371</v>
-      </c>
-      <c r="C211" t="n">
-        <v>371</v>
-      </c>
-      <c r="D211" t="n">
-        <v>371</v>
-      </c>
-      <c r="E211" t="n">
-        <v>371</v>
-      </c>
-      <c r="F211" t="n">
-        <v>506.33</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-88134.90223987</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>372</v>
-      </c>
-      <c r="K211" t="n">
-        <v>372</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>372</v>
-      </c>
-      <c r="C212" t="n">
-        <v>372</v>
-      </c>
-      <c r="D212" t="n">
-        <v>372</v>
-      </c>
-      <c r="E212" t="n">
-        <v>372</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1768.3548</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>372</v>
-      </c>
-      <c r="C213" t="n">
-        <v>372</v>
-      </c>
-      <c r="D213" t="n">
-        <v>372</v>
-      </c>
-      <c r="E213" t="n">
-        <v>372</v>
-      </c>
-      <c r="F213" t="n">
-        <v>915.9815</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>372</v>
-      </c>
-      <c r="K213" t="n">
-        <v>372</v>
-      </c>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>372</v>
-      </c>
-      <c r="C214" t="n">
-        <v>372</v>
-      </c>
-      <c r="D214" t="n">
-        <v>372</v>
-      </c>
-      <c r="E214" t="n">
-        <v>372</v>
-      </c>
-      <c r="F214" t="n">
-        <v>141.293</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>372</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>372</v>
-      </c>
-      <c r="C215" t="n">
-        <v>372</v>
-      </c>
-      <c r="D215" t="n">
-        <v>372</v>
-      </c>
-      <c r="E215" t="n">
-        <v>372</v>
-      </c>
-      <c r="F215" t="n">
-        <v>141.293</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>372</v>
-      </c>
-      <c r="K215" t="n">
-        <v>372</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>372</v>
-      </c>
-      <c r="C216" t="n">
-        <v>371</v>
-      </c>
-      <c r="D216" t="n">
-        <v>372</v>
-      </c>
-      <c r="E216" t="n">
-        <v>371</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1185.9371</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-87552.48453987</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>372</v>
-      </c>
-      <c r="K216" t="n">
-        <v>372</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>372</v>
-      </c>
-      <c r="C217" t="n">
-        <v>372</v>
-      </c>
-      <c r="D217" t="n">
-        <v>372</v>
-      </c>
-      <c r="E217" t="n">
-        <v>372</v>
-      </c>
-      <c r="F217" t="n">
-        <v>2946.0271</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>371</v>
-      </c>
-      <c r="K217" t="n">
-        <v>372</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="J179" t="n">
+        <v>372</v>
+      </c>
+      <c r="K179" t="n">
+        <v>372</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>372</v>
-      </c>
-      <c r="C218" t="n">
-        <v>372</v>
-      </c>
-      <c r="D218" t="n">
-        <v>372</v>
-      </c>
-      <c r="E218" t="n">
-        <v>372</v>
-      </c>
-      <c r="F218" t="n">
-        <v>2152.5099</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>372</v>
-      </c>
-      <c r="K218" t="n">
-        <v>372</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>372</v>
-      </c>
-      <c r="C219" t="n">
-        <v>372</v>
-      </c>
-      <c r="D219" t="n">
-        <v>372</v>
-      </c>
-      <c r="E219" t="n">
-        <v>372</v>
-      </c>
-      <c r="F219" t="n">
-        <v>93.56999999999999</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>372</v>
-      </c>
-      <c r="K219" t="n">
-        <v>372</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>372</v>
-      </c>
-      <c r="C220" t="n">
-        <v>372</v>
-      </c>
-      <c r="D220" t="n">
-        <v>372</v>
-      </c>
-      <c r="E220" t="n">
-        <v>372</v>
-      </c>
-      <c r="F220" t="n">
-        <v>303</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>372</v>
-      </c>
-      <c r="K220" t="n">
-        <v>372</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>372</v>
-      </c>
-      <c r="C221" t="n">
-        <v>372</v>
-      </c>
-      <c r="D221" t="n">
-        <v>372</v>
-      </c>
-      <c r="E221" t="n">
-        <v>372</v>
-      </c>
-      <c r="F221" t="n">
-        <v>871.4166</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>372</v>
-      </c>
-      <c r="K221" t="n">
-        <v>372</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:N250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C2" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D2" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E2" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F2" t="n">
-        <v>3705.9996</v>
+        <v>58.4579</v>
       </c>
       <c r="G2" t="n">
-        <v>374.3333333333333</v>
+        <v>-17789.29344383999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C3" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D3" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E3" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F3" t="n">
-        <v>4798.865</v>
+        <v>200.4822</v>
       </c>
       <c r="G3" t="n">
-        <v>374</v>
+        <v>-17789.29344383999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>363</v>
+      </c>
+      <c r="K3" t="n">
+        <v>363</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C4" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D4" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E4" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>5087.3671</v>
       </c>
       <c r="G4" t="n">
-        <v>374</v>
+        <v>-12701.92634383999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>363</v>
+      </c>
+      <c r="K4" t="n">
+        <v>363</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C5" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D5" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E5" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F5" t="n">
-        <v>3660.5751</v>
+        <v>4913.1564</v>
       </c>
       <c r="G5" t="n">
-        <v>375</v>
+        <v>-12701.92634383999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>363</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C6" t="n">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D6" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E6" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F6" t="n">
-        <v>1180.584</v>
+        <v>1605</v>
       </c>
       <c r="G6" t="n">
-        <v>375.6666666666667</v>
+        <v>-11096.92634383999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>365</v>
+      </c>
+      <c r="K6" t="n">
+        <v>363</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C7" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D7" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E7" t="n">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F7" t="n">
-        <v>191</v>
+        <v>4625.9193</v>
       </c>
       <c r="G7" t="n">
-        <v>374</v>
+        <v>-6471.007043839994</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>366</v>
+      </c>
+      <c r="K7" t="n">
+        <v>363</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C8" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D8" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E8" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F8" t="n">
-        <v>118.6051</v>
+        <v>506.3096</v>
       </c>
       <c r="G8" t="n">
-        <v>373.3333333333333</v>
+        <v>-5964.697443839995</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +714,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>363</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C9" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D9" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E9" t="n">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5145</v>
+        <v>2292.9055</v>
       </c>
       <c r="G9" t="n">
-        <v>375</v>
+        <v>-3671.791943839995</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +756,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>363</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C10" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D10" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E10" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F10" t="n">
-        <v>298.3972</v>
+        <v>3.3458</v>
       </c>
       <c r="G10" t="n">
-        <v>374.6666666666667</v>
+        <v>-3671.791943839995</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +798,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>363</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>1.5218</v>
       </c>
       <c r="G11" t="n">
-        <v>374.3333333333333</v>
+        <v>-3673.313743839995</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +840,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>363</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C12" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D12" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E12" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>434.2</v>
       </c>
       <c r="G12" t="n">
-        <v>372</v>
+        <v>-4107.513743839995</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +882,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>363</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +900,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C13" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D13" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E13" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F13" t="n">
-        <v>284</v>
+        <v>462.8858</v>
       </c>
       <c r="G13" t="n">
-        <v>372</v>
+        <v>-4570.399543839995</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>363</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C14" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D14" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E14" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F14" t="n">
-        <v>171</v>
+        <v>561.0949000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>372</v>
+        <v>-5131.494443839995</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +966,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>363</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C15" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D15" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E15" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F15" t="n">
-        <v>920</v>
+        <v>254</v>
       </c>
       <c r="G15" t="n">
-        <v>372</v>
+        <v>-5131.494443839995</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>363</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1026,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C16" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D16" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E16" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F16" t="n">
-        <v>314.0925</v>
+        <v>2171</v>
       </c>
       <c r="G16" t="n">
-        <v>372</v>
+        <v>-5131.494443839995</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1050,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>363</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1068,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C17" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D17" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E17" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F17" t="n">
-        <v>1052.9998</v>
+        <v>260.6452</v>
       </c>
       <c r="G17" t="n">
-        <v>372</v>
+        <v>-5131.494443839995</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>363</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1110,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C18" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D18" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E18" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F18" t="n">
-        <v>750.1574000000001</v>
+        <v>550.23050397</v>
       </c>
       <c r="G18" t="n">
-        <v>372.3333333333333</v>
+        <v>-4581.263939869996</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1134,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>363</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1152,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C19" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D19" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E19" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F19" t="n">
-        <v>911.0776</v>
+        <v>83.352</v>
       </c>
       <c r="G19" t="n">
-        <v>374.6666666666667</v>
+        <v>-4664.615939869996</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1176,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>363</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1194,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C20" t="n">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D20" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E20" t="n">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F20" t="n">
-        <v>200.7011</v>
+        <v>591.601</v>
       </c>
       <c r="G20" t="n">
-        <v>375.3333333333333</v>
+        <v>-5256.216939869995</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1218,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>363</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1236,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C21" t="n">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D21" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E21" t="n">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F21" t="n">
-        <v>2719</v>
+        <v>1518.9015</v>
       </c>
       <c r="G21" t="n">
-        <v>376</v>
+        <v>-5256.216939869995</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1260,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>363</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C22" t="n">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D22" t="n">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E22" t="n">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F22" t="n">
-        <v>132.9041</v>
+        <v>385.246</v>
       </c>
       <c r="G22" t="n">
-        <v>374</v>
+        <v>-5641.462939869995</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1302,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>363</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1320,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C23" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D23" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E23" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F23" t="n">
-        <v>1328.5158</v>
+        <v>525.9998000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>375.3333333333333</v>
+        <v>-6167.462739869996</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1344,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>363</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1362,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C24" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D24" t="n">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E24" t="n">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F24" t="n">
-        <v>172.182</v>
+        <v>2305</v>
       </c>
       <c r="G24" t="n">
-        <v>376.3333333333333</v>
+        <v>-6167.462739869996</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>363</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1404,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C25" t="n">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D25" t="n">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E25" t="n">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F25" t="n">
-        <v>10677.2235</v>
+        <v>317.3796</v>
       </c>
       <c r="G25" t="n">
-        <v>376</v>
+        <v>-6167.462739869996</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>363</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1446,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C26" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D26" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E26" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7747</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>374.3333333333333</v>
+        <v>-6166.462739869996</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>363</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1488,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C27" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D27" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E27" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F27" t="n">
-        <v>1040</v>
+        <v>18.0018</v>
       </c>
       <c r="G27" t="n">
-        <v>372.3333333333333</v>
+        <v>-6148.460939869996</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1512,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>363</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1530,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C28" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D28" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E28" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F28" t="n">
-        <v>61</v>
+        <v>454.9861</v>
       </c>
       <c r="G28" t="n">
-        <v>374.3333333333333</v>
+        <v>-6148.460939869996</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1554,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>363</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1572,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C29" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D29" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E29" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>259.7915</v>
       </c>
       <c r="G29" t="n">
-        <v>374.6666666666667</v>
+        <v>-5888.669439869996</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1596,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>363</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1449,19 +1617,19 @@
         <v>374</v>
       </c>
       <c r="C30" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D30" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E30" t="n">
         <v>374</v>
       </c>
       <c r="F30" t="n">
-        <v>1016.8467</v>
+        <v>91</v>
       </c>
       <c r="G30" t="n">
-        <v>375.3333333333333</v>
+        <v>-5797.669439869996</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>363</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1656,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C31" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E31" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>241.7542</v>
       </c>
       <c r="G31" t="n">
-        <v>375</v>
+        <v>-5797.669439869996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1680,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>363</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1698,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C32" t="n">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="D32" t="n">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="E32" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F32" t="n">
-        <v>7976.0655</v>
+        <v>422.5145</v>
       </c>
       <c r="G32" t="n">
-        <v>383</v>
+        <v>-5375.154939869995</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1722,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>363</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1740,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="C33" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D33" t="n">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E33" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F33" t="n">
-        <v>2966.8696</v>
+        <v>440.6379</v>
       </c>
       <c r="G33" t="n">
-        <v>387.6666666666667</v>
+        <v>-5815.792839869995</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1764,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>363</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1782,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C34" t="n">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D34" t="n">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="E34" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F34" t="n">
-        <v>234</v>
+        <v>827.0209</v>
       </c>
       <c r="G34" t="n">
-        <v>393.3333333333333</v>
+        <v>-6642.813739869995</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1806,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>363</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1824,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C35" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D35" t="n">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E35" t="n">
         <v>374</v>
       </c>
       <c r="F35" t="n">
-        <v>790.754</v>
+        <v>592.9634</v>
       </c>
       <c r="G35" t="n">
-        <v>390</v>
+        <v>-6049.850339869995</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1848,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>363</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1866,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C36" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D36" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E36" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F36" t="n">
-        <v>15972.9191</v>
+        <v>1939</v>
       </c>
       <c r="G36" t="n">
-        <v>387.3333333333333</v>
+        <v>-6049.850339869995</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1890,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>363</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1908,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C37" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D37" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E37" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F37" t="n">
-        <v>797.908</v>
+        <v>367.541</v>
       </c>
       <c r="G37" t="n">
-        <v>382.6666666666667</v>
+        <v>-6049.850339869995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1932,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>363</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1950,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C38" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D38" t="n">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E38" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F38" t="n">
-        <v>11355.9618</v>
+        <v>1091.4956</v>
       </c>
       <c r="G38" t="n">
-        <v>380.6666666666667</v>
+        <v>-6049.850339869995</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1974,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>363</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1992,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C39" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D39" t="n">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E39" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F39" t="n">
-        <v>4234.2261</v>
+        <v>789.3416999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>381</v>
+        <v>-5260.508639869995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>363</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +2034,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C40" t="n">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D40" t="n">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E40" t="n">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F40" t="n">
-        <v>9160.8969</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>381.3333333333333</v>
+        <v>-5259.508639869995</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>363</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +2076,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C41" t="n">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D41" t="n">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E41" t="n">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F41" t="n">
-        <v>706.5925</v>
+        <v>221.7104</v>
       </c>
       <c r="G41" t="n">
-        <v>381.6666666666667</v>
+        <v>-5481.219039869995</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>363</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2118,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C42" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D42" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E42" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F42" t="n">
-        <v>382.3905</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>382</v>
+        <v>-5480.219039869995</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>363</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2160,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C43" t="n">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D43" t="n">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E43" t="n">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="F43" t="n">
-        <v>1111</v>
+        <v>1757.8373</v>
       </c>
       <c r="G43" t="n">
-        <v>386</v>
+        <v>-7238.056339869995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2184,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>363</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2202,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C44" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D44" t="n">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="E44" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F44" t="n">
-        <v>1327.0495</v>
+        <v>181.7947</v>
       </c>
       <c r="G44" t="n">
-        <v>386.3333333333333</v>
+        <v>-7056.261639869995</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>363</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2244,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C45" t="n">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D45" t="n">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="E45" t="n">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F45" t="n">
-        <v>21592.6257</v>
+        <v>86.1343</v>
       </c>
       <c r="G45" t="n">
-        <v>386.6666666666667</v>
+        <v>-7142.395939869994</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>363</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2286,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C46" t="n">
+        <v>373</v>
+      </c>
+      <c r="D46" t="n">
+        <v>373</v>
+      </c>
+      <c r="E46" t="n">
+        <v>373</v>
+      </c>
+      <c r="F46" t="n">
         <v>385</v>
       </c>
-      <c r="D46" t="n">
-        <v>393</v>
-      </c>
-      <c r="E46" t="n">
-        <v>384</v>
-      </c>
-      <c r="F46" t="n">
-        <v>673</v>
-      </c>
       <c r="G46" t="n">
-        <v>384</v>
+        <v>-6757.395939869994</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>363</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2328,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C47" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D47" t="n">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E47" t="n">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F47" t="n">
-        <v>4659.6794</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>385.3333333333333</v>
+        <v>-6657.395939869994</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2352,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>363</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2370,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C48" t="n">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D48" t="n">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E48" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F48" t="n">
-        <v>5353.4963</v>
+        <v>766.6368</v>
       </c>
       <c r="G48" t="n">
-        <v>387</v>
+        <v>-5890.759139869994</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>363</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2412,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C49" t="n">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D49" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="E49" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F49" t="n">
-        <v>8642.260899999999</v>
+        <v>3540.9441</v>
       </c>
       <c r="G49" t="n">
-        <v>389.6666666666667</v>
+        <v>-2349.815039869994</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>363</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2454,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C50" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D50" t="n">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E50" t="n">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F50" t="n">
-        <v>14863.4863</v>
+        <v>6999</v>
       </c>
       <c r="G50" t="n">
-        <v>390</v>
+        <v>4649.184960130005</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,10 +2478,16 @@
         <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>363</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>1.047341597796143</v>
       </c>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2202,22 +2496,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C51" t="n">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D51" t="n">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E51" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F51" t="n">
-        <v>343.0696</v>
+        <v>4201.9173</v>
       </c>
       <c r="G51" t="n">
-        <v>392.3333333333333</v>
+        <v>447.2676601300054</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2532,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C52" t="n">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D52" t="n">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E52" t="n">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F52" t="n">
-        <v>9570.3791</v>
+        <v>121</v>
       </c>
       <c r="G52" t="n">
-        <v>390.6666666666667</v>
+        <v>447.2676601300054</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2568,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C53" t="n">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D53" t="n">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E53" t="n">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F53" t="n">
-        <v>142.1689</v>
+        <v>135.3665</v>
       </c>
       <c r="G53" t="n">
-        <v>390.3333333333333</v>
+        <v>582.6341601300054</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2604,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C54" t="n">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D54" t="n">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E54" t="n">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F54" t="n">
-        <v>10820.1783</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>390.3333333333333</v>
+        <v>582.6341601300054</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2640,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C55" t="n">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D55" t="n">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="E55" t="n">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F55" t="n">
-        <v>4918.8154</v>
+        <v>33</v>
       </c>
       <c r="G55" t="n">
-        <v>393.3333333333333</v>
+        <v>549.6341601300054</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,28 +2676,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C56" t="n">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="D56" t="n">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E56" t="n">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="F56" t="n">
-        <v>15212.7135</v>
+        <v>78.30629999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>396.3333333333333</v>
+        <v>627.9404601300054</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2712,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C57" t="n">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D57" t="n">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E57" t="n">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F57" t="n">
-        <v>3935.0812</v>
+        <v>25</v>
       </c>
       <c r="G57" t="n">
-        <v>395.6666666666667</v>
+        <v>602.9404601300054</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2748,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C58" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D58" t="n">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="E58" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F58" t="n">
-        <v>3545.4876</v>
+        <v>50</v>
       </c>
       <c r="G58" t="n">
-        <v>393</v>
+        <v>552.9404601300054</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2784,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C59" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D59" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E59" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F59" t="n">
-        <v>10086.125</v>
+        <v>5208.0087</v>
       </c>
       <c r="G59" t="n">
-        <v>387.6666666666667</v>
+        <v>5760.949160130006</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,28 +2820,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C60" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D60" t="n">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E60" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F60" t="n">
-        <v>1272.4073</v>
+        <v>2120.8579</v>
       </c>
       <c r="G60" t="n">
-        <v>384.3333333333333</v>
+        <v>3640.091260130006</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,22 +2856,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C61" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D61" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E61" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F61" t="n">
-        <v>2031.3441</v>
+        <v>1100.0941</v>
       </c>
       <c r="G61" t="n">
-        <v>382.3333333333333</v>
+        <v>2539.997160130006</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2892,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C62" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D62" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E62" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F62" t="n">
-        <v>18.602</v>
+        <v>727.9417</v>
       </c>
       <c r="G62" t="n">
-        <v>383.6666666666667</v>
+        <v>2539.997160130006</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2928,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C63" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D63" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E63" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F63" t="n">
-        <v>959.3563</v>
+        <v>2640</v>
       </c>
       <c r="G63" t="n">
-        <v>386</v>
+        <v>2539.997160130006</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2964,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C64" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D64" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E64" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F64" t="n">
-        <v>150</v>
+        <v>3452.4293</v>
       </c>
       <c r="G64" t="n">
-        <v>386</v>
+        <v>2539.997160130006</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +3000,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C65" t="n">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D65" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E65" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F65" t="n">
-        <v>26910.7493</v>
+        <v>81.6408</v>
       </c>
       <c r="G65" t="n">
-        <v>385.6666666666667</v>
+        <v>2621.637960130006</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,28 +3036,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C66" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D66" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E66" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F66" t="n">
-        <v>1044</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>385.6666666666667</v>
+        <v>2620.637960130006</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +3072,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C67" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D67" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E67" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F67" t="n">
-        <v>4336.6201</v>
+        <v>578.1593</v>
       </c>
       <c r="G67" t="n">
-        <v>385.6666666666667</v>
+        <v>2620.637960130006</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,22 +3108,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C68" t="n">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D68" t="n">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E68" t="n">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F68" t="n">
-        <v>3959.1286</v>
+        <v>582</v>
       </c>
       <c r="G68" t="n">
-        <v>384.6666666666667</v>
+        <v>2620.637960130006</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,28 +3144,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C69" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D69" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E69" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F69" t="n">
-        <v>405.7614</v>
+        <v>280</v>
       </c>
       <c r="G69" t="n">
-        <v>382.3333333333333</v>
+        <v>2620.637960130006</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,22 +3180,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C70" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D70" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E70" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F70" t="n">
-        <v>2127.6605</v>
+        <v>983.942</v>
       </c>
       <c r="G70" t="n">
-        <v>382.3333333333333</v>
+        <v>1636.695960130006</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,28 +3216,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C71" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D71" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E71" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F71" t="n">
-        <v>5048.4667</v>
+        <v>307.8295</v>
       </c>
       <c r="G71" t="n">
-        <v>383.6666666666667</v>
+        <v>1944.525460130006</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,22 +3252,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C72" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D72" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E72" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F72" t="n">
-        <v>9199.0895</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>383.3333333333333</v>
+        <v>1946.525460130006</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,28 +3288,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C73" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D73" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E73" t="n">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F73" t="n">
-        <v>8000</v>
+        <v>3705.9996</v>
       </c>
       <c r="G73" t="n">
-        <v>382.3333333333333</v>
+        <v>-1759.474139869994</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3324,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C74" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D74" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E74" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>4798.865</v>
       </c>
       <c r="G74" t="n">
-        <v>381.3333333333333</v>
+        <v>-1759.474139869994</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,22 +3360,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C75" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D75" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E75" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F75" t="n">
-        <v>1972.7251</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>379.3333333333333</v>
+        <v>-1758.474139869994</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3105,25 +3399,25 @@
         <v>378</v>
       </c>
       <c r="C76" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D76" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E76" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F76" t="n">
-        <v>156.096</v>
+        <v>3660.5751</v>
       </c>
       <c r="G76" t="n">
-        <v>378.6666666666667</v>
+        <v>-5419.049239869994</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3432,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C77" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D77" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E77" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F77" t="n">
-        <v>4356.0911</v>
+        <v>1180.584</v>
       </c>
       <c r="G77" t="n">
-        <v>377.3333333333333</v>
+        <v>-6599.633239869994</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,22 +3468,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C78" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D78" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E78" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F78" t="n">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="G78" t="n">
-        <v>377.6666666666667</v>
+        <v>-6790.633239869994</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3504,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C79" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D79" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E79" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>118.6051</v>
       </c>
       <c r="G79" t="n">
-        <v>377.3333333333333</v>
+        <v>-6790.633239869994</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3540,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C80" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D80" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E80" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>1.5145</v>
       </c>
       <c r="G80" t="n">
-        <v>377</v>
+        <v>-6789.118739869994</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3576,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C81" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D81" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E81" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F81" t="n">
-        <v>311</v>
+        <v>298.3972</v>
       </c>
       <c r="G81" t="n">
-        <v>377.3333333333333</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3612,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C82" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D82" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E82" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F82" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>377.6666666666667</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3648,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C83" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D83" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E83" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F83" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>378</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3684,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C84" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D84" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E84" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="G84" t="n">
-        <v>378</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3720,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C85" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D85" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E85" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F85" t="n">
-        <v>2005</v>
+        <v>171</v>
       </c>
       <c r="G85" t="n">
-        <v>378</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3756,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C86" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D86" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E86" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F86" t="n">
-        <v>400</v>
+        <v>920</v>
       </c>
       <c r="G86" t="n">
-        <v>378</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3792,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C87" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D87" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E87" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F87" t="n">
-        <v>4731.7092</v>
+        <v>314.0925</v>
       </c>
       <c r="G87" t="n">
-        <v>378</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3828,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C88" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D88" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E88" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F88" t="n">
-        <v>3325</v>
+        <v>1052.9998</v>
       </c>
       <c r="G88" t="n">
-        <v>378</v>
+        <v>-7087.515939869994</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3864,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C89" t="n">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D89" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E89" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F89" t="n">
-        <v>3533.6521</v>
+        <v>750.1574000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>379</v>
+        <v>-6337.358539869994</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3900,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C90" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D90" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E90" t="n">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F90" t="n">
-        <v>2926.2968</v>
+        <v>911.0776</v>
       </c>
       <c r="G90" t="n">
-        <v>380</v>
+        <v>-5426.280939869995</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3936,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C91" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D91" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E91" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F91" t="n">
-        <v>924.8514</v>
+        <v>200.7011</v>
       </c>
       <c r="G91" t="n">
-        <v>380.3333333333333</v>
+        <v>-5626.982039869995</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3972,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C92" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D92" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E92" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F92" t="n">
-        <v>98.3267</v>
+        <v>2719</v>
       </c>
       <c r="G92" t="n">
-        <v>380.6666666666667</v>
+        <v>-2907.982039869995</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +4008,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C93" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D93" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E93" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F93" t="n">
-        <v>402.7581</v>
+        <v>132.9041</v>
       </c>
       <c r="G93" t="n">
-        <v>381.3333333333333</v>
+        <v>-3040.886139869995</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +4044,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C94" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D94" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E94" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F94" t="n">
-        <v>4125.0152</v>
+        <v>1328.5158</v>
       </c>
       <c r="G94" t="n">
-        <v>382.6666666666667</v>
+        <v>-1712.370339869995</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +4080,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C95" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D95" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E95" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F95" t="n">
-        <v>245.0244</v>
+        <v>172.182</v>
       </c>
       <c r="G95" t="n">
-        <v>383.6666666666667</v>
+        <v>-1712.370339869995</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +4116,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C96" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D96" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E96" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F96" t="n">
-        <v>874.8713</v>
+        <v>10677.2235</v>
       </c>
       <c r="G96" t="n">
-        <v>384.3333333333333</v>
+        <v>-12389.59383986999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +4152,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C97" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D97" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E97" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F97" t="n">
-        <v>1474.8622</v>
+        <v>233.7747</v>
       </c>
       <c r="G97" t="n">
-        <v>385</v>
+        <v>-12155.81913986999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +4188,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C98" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D98" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E98" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F98" t="n">
-        <v>3048.0685</v>
+        <v>1040</v>
       </c>
       <c r="G98" t="n">
-        <v>385</v>
+        <v>-13195.81913986999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +4224,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C99" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D99" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E99" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F99" t="n">
-        <v>5042.8853</v>
+        <v>61</v>
       </c>
       <c r="G99" t="n">
-        <v>385</v>
+        <v>-13134.81913986999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4260,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C100" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D100" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E100" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G100" t="n">
-        <v>385.6666666666667</v>
+        <v>-13634.81913986999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4296,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C101" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D101" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E101" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>1016.8467</v>
       </c>
       <c r="G101" t="n">
-        <v>386</v>
+        <v>-13634.81913986999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4332,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C102" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D102" t="n">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E102" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F102" t="n">
-        <v>8029.3274</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>386</v>
+        <v>-13633.81913986999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4368,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C103" t="n">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D103" t="n">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="E103" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F103" t="n">
-        <v>1012.6599</v>
+        <v>7976.0655</v>
       </c>
       <c r="G103" t="n">
-        <v>385.3333333333333</v>
+        <v>-5657.753639869995</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,28 +4404,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C104" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D104" t="n">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E104" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F104" t="n">
-        <v>2333.0981</v>
+        <v>2966.8696</v>
       </c>
       <c r="G104" t="n">
-        <v>384.6666666666667</v>
+        <v>-8624.623239869994</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4440,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C105" t="n">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D105" t="n">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E105" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F105" t="n">
-        <v>139.9506</v>
+        <v>234</v>
       </c>
       <c r="G105" t="n">
-        <v>384.3333333333333</v>
+        <v>-8390.623239869994</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4476,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C106" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D106" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E106" t="n">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F106" t="n">
-        <v>1789.5597</v>
+        <v>790.754</v>
       </c>
       <c r="G106" t="n">
-        <v>384</v>
+        <v>-9181.377239869995</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,22 +4512,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C107" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D107" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E107" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F107" t="n">
-        <v>48.4963</v>
+        <v>15972.9191</v>
       </c>
       <c r="G107" t="n">
-        <v>385</v>
+        <v>-25154.29633986999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4548,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C108" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D108" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E108" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F108" t="n">
-        <v>832.9969</v>
+        <v>797.908</v>
       </c>
       <c r="G108" t="n">
-        <v>386</v>
+        <v>-25154.29633986999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4584,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C109" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D109" t="n">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E109" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F109" t="n">
-        <v>150</v>
+        <v>11355.9618</v>
       </c>
       <c r="G109" t="n">
-        <v>387</v>
+        <v>-13798.33453986999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4620,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C110" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D110" t="n">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E110" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F110" t="n">
-        <v>159.9805</v>
+        <v>4234.2261</v>
       </c>
       <c r="G110" t="n">
-        <v>386</v>
+        <v>-18032.56063987</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,28 +4656,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C111" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D111" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E111" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F111" t="n">
-        <v>8875.7096</v>
+        <v>9160.8969</v>
       </c>
       <c r="G111" t="n">
-        <v>384.6666666666667</v>
+        <v>-18032.56063987</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4398,28 +4692,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C112" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D112" t="n">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E112" t="n">
         <v>381</v>
       </c>
       <c r="F112" t="n">
-        <v>192.2183</v>
+        <v>706.5925</v>
       </c>
       <c r="G112" t="n">
-        <v>382.6666666666667</v>
+        <v>-17325.96813987</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4446,16 +4740,16 @@
         <v>382</v>
       </c>
       <c r="F113" t="n">
-        <v>1392.2361</v>
+        <v>382.3905</v>
       </c>
       <c r="G113" t="n">
-        <v>382</v>
+        <v>-17708.35863987</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4470,22 +4764,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C114" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D114" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E114" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F114" t="n">
-        <v>1045</v>
+        <v>1111</v>
       </c>
       <c r="G114" t="n">
-        <v>383</v>
+        <v>-16597.35863987</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4509,25 +4803,25 @@
         <v>383</v>
       </c>
       <c r="C115" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D115" t="n">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E115" t="n">
         <v>383</v>
       </c>
       <c r="F115" t="n">
-        <v>88.6109</v>
+        <v>1327.0495</v>
       </c>
       <c r="G115" t="n">
-        <v>383.6666666666667</v>
+        <v>-17924.40813987</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4542,28 +4836,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>386</v>
+      </c>
+      <c r="C116" t="n">
         <v>383</v>
       </c>
-      <c r="C116" t="n">
-        <v>385</v>
-      </c>
       <c r="D116" t="n">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E116" t="n">
         <v>383</v>
       </c>
       <c r="F116" t="n">
-        <v>26.1096</v>
+        <v>21592.6257</v>
       </c>
       <c r="G116" t="n">
-        <v>384.6666666666667</v>
+        <v>-39517.03383987</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,28 +4872,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C117" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D117" t="n">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="E117" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F117" t="n">
-        <v>1445.3787</v>
+        <v>673</v>
       </c>
       <c r="G117" t="n">
-        <v>383</v>
+        <v>-38844.03383987</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4614,22 +4908,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C118" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D118" t="n">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E118" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F118" t="n">
-        <v>17650.5877</v>
+        <v>4659.6794</v>
       </c>
       <c r="G118" t="n">
-        <v>382.3333333333333</v>
+        <v>-34184.35443987</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4944,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C119" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D119" t="n">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E119" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F119" t="n">
-        <v>249.891</v>
+        <v>5353.4963</v>
       </c>
       <c r="G119" t="n">
-        <v>381</v>
+        <v>-34184.35443987</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4980,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C120" t="n">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D120" t="n">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="E120" t="n">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F120" t="n">
-        <v>994.0432</v>
+        <v>8642.260899999999</v>
       </c>
       <c r="G120" t="n">
-        <v>379.6666666666667</v>
+        <v>-25542.09353986999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,28 +5016,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C121" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D121" t="n">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E121" t="n">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F121" t="n">
-        <v>1886.9873</v>
+        <v>14863.4863</v>
       </c>
       <c r="G121" t="n">
-        <v>380.3333333333333</v>
+        <v>-40405.57983987</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4758,28 +5052,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C122" t="n">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D122" t="n">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E122" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F122" t="n">
-        <v>50</v>
+        <v>343.0696</v>
       </c>
       <c r="G122" t="n">
-        <v>380.6666666666667</v>
+        <v>-40062.51023987</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4794,22 +5088,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C123" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D123" t="n">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E123" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F123" t="n">
-        <v>1241.4879</v>
+        <v>9570.3791</v>
       </c>
       <c r="G123" t="n">
-        <v>382.6666666666667</v>
+        <v>-49632.88933986999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,28 +5124,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C124" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D124" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E124" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F124" t="n">
-        <v>820</v>
+        <v>142.1689</v>
       </c>
       <c r="G124" t="n">
-        <v>383.6666666666667</v>
+        <v>-49632.88933986999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4866,22 +5160,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C125" t="n">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D125" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E125" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F125" t="n">
-        <v>926</v>
+        <v>10820.1783</v>
       </c>
       <c r="G125" t="n">
-        <v>385</v>
+        <v>-38812.71103987</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,28 +5196,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C126" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D126" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E126" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F126" t="n">
-        <v>154</v>
+        <v>4918.8154</v>
       </c>
       <c r="G126" t="n">
-        <v>386</v>
+        <v>-33893.89563987</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4938,28 +5232,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C127" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D127" t="n">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E127" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F127" t="n">
-        <v>1528</v>
+        <v>15212.7135</v>
       </c>
       <c r="G127" t="n">
-        <v>386</v>
+        <v>-33893.89563987</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4974,28 +5268,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C128" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D128" t="n">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E128" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>3935.0812</v>
       </c>
       <c r="G128" t="n">
-        <v>386</v>
+        <v>-37828.97683987</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5010,28 +5304,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C129" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D129" t="n">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E129" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F129" t="n">
-        <v>25.9067</v>
+        <v>3545.4876</v>
       </c>
       <c r="G129" t="n">
-        <v>386</v>
+        <v>-41374.46443987</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5046,28 +5340,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C130" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D130" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E130" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F130" t="n">
-        <v>1601</v>
+        <v>10086.125</v>
       </c>
       <c r="G130" t="n">
-        <v>386</v>
+        <v>-51460.58943987</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5082,22 +5376,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C131" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D131" t="n">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E131" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F131" t="n">
-        <v>187</v>
+        <v>1272.4073</v>
       </c>
       <c r="G131" t="n">
-        <v>386</v>
+        <v>-50188.18213987</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,28 +5412,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C132" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D132" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E132" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F132" t="n">
-        <v>345</v>
+        <v>2031.3441</v>
       </c>
       <c r="G132" t="n">
-        <v>386</v>
+        <v>-50188.18213987</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5154,22 +5448,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C133" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D133" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E133" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F133" t="n">
-        <v>630</v>
+        <v>18.602</v>
       </c>
       <c r="G133" t="n">
-        <v>386</v>
+        <v>-50169.58013987</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5484,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C134" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D134" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E134" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F134" t="n">
-        <v>522</v>
+        <v>959.3563</v>
       </c>
       <c r="G134" t="n">
-        <v>386</v>
+        <v>-49210.22383987</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5520,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C135" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D135" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E135" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F135" t="n">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="G135" t="n">
-        <v>386.3333333333333</v>
+        <v>-49360.22383987</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5556,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C136" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D136" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E136" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F136" t="n">
-        <v>91.053</v>
+        <v>26910.7493</v>
       </c>
       <c r="G136" t="n">
-        <v>386.6666666666667</v>
+        <v>-22449.47453987</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5592,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C137" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D137" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E137" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F137" t="n">
-        <v>3264.1353</v>
+        <v>1044</v>
       </c>
       <c r="G137" t="n">
-        <v>387</v>
+        <v>-21405.47453987</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5628,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C138" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D138" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E138" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F138" t="n">
-        <v>12.1</v>
+        <v>4336.6201</v>
       </c>
       <c r="G138" t="n">
-        <v>387</v>
+        <v>-25742.09463987</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5373,19 +5667,19 @@
         <v>387</v>
       </c>
       <c r="C139" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D139" t="n">
         <v>387</v>
       </c>
       <c r="E139" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F139" t="n">
-        <v>182.1</v>
+        <v>3959.1286</v>
       </c>
       <c r="G139" t="n">
-        <v>387</v>
+        <v>-29701.22323987</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5700,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C140" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D140" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E140" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F140" t="n">
-        <v>38.9</v>
+        <v>405.7614</v>
       </c>
       <c r="G140" t="n">
-        <v>387</v>
+        <v>-29295.46183987</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5736,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C141" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D141" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E141" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F141" t="n">
-        <v>47.9</v>
+        <v>2127.6605</v>
       </c>
       <c r="G141" t="n">
-        <v>387</v>
+        <v>-29295.46183987</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5772,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C142" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D142" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E142" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F142" t="n">
-        <v>3908.2327</v>
+        <v>5048.4667</v>
       </c>
       <c r="G142" t="n">
-        <v>385.6666666666667</v>
+        <v>-24246.99513987</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5808,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C143" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D143" t="n">
         <v>384</v>
       </c>
       <c r="E143" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F143" t="n">
-        <v>5483.7728</v>
+        <v>9199.0895</v>
       </c>
       <c r="G143" t="n">
-        <v>383.6666666666667</v>
+        <v>-33446.08463987</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5844,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C144" t="n">
+        <v>380</v>
+      </c>
+      <c r="D144" t="n">
         <v>382</v>
       </c>
-      <c r="D144" t="n">
-        <v>383</v>
-      </c>
       <c r="E144" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F144" t="n">
-        <v>609.3244999999999</v>
+        <v>8000</v>
       </c>
       <c r="G144" t="n">
-        <v>382</v>
+        <v>-41446.08463987</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5598,10 +5892,10 @@
         <v>382</v>
       </c>
       <c r="F145" t="n">
-        <v>6315.6376</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>381.6666666666667</v>
+        <v>-41445.08463987</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +5916,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C146" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D146" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E146" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F146" t="n">
-        <v>103.4097</v>
+        <v>1972.7251</v>
       </c>
       <c r="G146" t="n">
-        <v>382</v>
+        <v>-43417.80973987</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +5952,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C147" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D147" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E147" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F147" t="n">
-        <v>4712.8552</v>
+        <v>156.096</v>
       </c>
       <c r="G147" t="n">
-        <v>380.3333333333333</v>
+        <v>-43261.71373987001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +5988,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>380</v>
+      </c>
+      <c r="C148" t="n">
+        <v>378</v>
+      </c>
+      <c r="D148" t="n">
+        <v>382</v>
+      </c>
+      <c r="E148" t="n">
         <v>377</v>
       </c>
-      <c r="C148" t="n">
-        <v>377</v>
-      </c>
-      <c r="D148" t="n">
-        <v>377</v>
-      </c>
-      <c r="E148" t="n">
-        <v>375</v>
-      </c>
       <c r="F148" t="n">
-        <v>14326.6553</v>
+        <v>4356.0911</v>
       </c>
       <c r="G148" t="n">
-        <v>378.6666666666667</v>
+        <v>-43261.71373987001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5733,19 +6027,19 @@
         <v>377</v>
       </c>
       <c r="C149" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D149" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E149" t="n">
         <v>377</v>
       </c>
       <c r="F149" t="n">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="G149" t="n">
-        <v>377.6666666666667</v>
+        <v>-43487.71373987001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +6060,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C150" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D150" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E150" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F150" t="n">
-        <v>2283.6</v>
+        <v>50</v>
       </c>
       <c r="G150" t="n">
-        <v>379</v>
+        <v>-43487.71373987001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +6096,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C151" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D151" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E151" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F151" t="n">
-        <v>1344.9934</v>
+        <v>50</v>
       </c>
       <c r="G151" t="n">
-        <v>380.3333333333333</v>
+        <v>-43487.71373987001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,22 +6132,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C152" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D152" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E152" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F152" t="n">
-        <v>1611.0418</v>
+        <v>311</v>
       </c>
       <c r="G152" t="n">
-        <v>381.3333333333333</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5874,22 +6168,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C153" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D153" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E153" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F153" t="n">
-        <v>1208.0288</v>
+        <v>330</v>
       </c>
       <c r="G153" t="n">
-        <v>380</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5910,22 +6204,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C154" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D154" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E154" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F154" t="n">
-        <v>279</v>
+        <v>97</v>
       </c>
       <c r="G154" t="n">
-        <v>378.6666666666667</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5946,22 +6240,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C155" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D155" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E155" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F155" t="n">
-        <v>1012.9712</v>
+        <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>377</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5982,22 +6276,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C156" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D156" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E156" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F156" t="n">
-        <v>4111.3228</v>
+        <v>2005</v>
       </c>
       <c r="G156" t="n">
-        <v>376</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,22 +6312,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C157" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D157" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E157" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F157" t="n">
-        <v>385.6123</v>
+        <v>400</v>
       </c>
       <c r="G157" t="n">
-        <v>374.6666666666667</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6054,22 +6348,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C158" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D158" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E158" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F158" t="n">
-        <v>251</v>
+        <v>4731.7092</v>
       </c>
       <c r="G158" t="n">
-        <v>373.6666666666667</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6384,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C159" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D159" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E159" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F159" t="n">
-        <v>50</v>
+        <v>3325</v>
       </c>
       <c r="G159" t="n">
-        <v>376</v>
+        <v>-43176.71373987001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,22 +6420,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C160" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D160" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E160" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F160" t="n">
-        <v>26.2467</v>
+        <v>3533.6521</v>
       </c>
       <c r="G160" t="n">
-        <v>377.3333333333333</v>
+        <v>-39643.06163987001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,22 +6456,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C161" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D161" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E161" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F161" t="n">
-        <v>790.4751</v>
+        <v>2926.2968</v>
       </c>
       <c r="G161" t="n">
-        <v>378.3333333333333</v>
+        <v>-39643.06163987001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6198,22 +6492,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C162" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D162" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E162" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F162" t="n">
-        <v>17175.6139</v>
+        <v>924.8514</v>
       </c>
       <c r="G162" t="n">
-        <v>375.3333333333333</v>
+        <v>-40567.91303987001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6234,35 +6528,31 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C163" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D163" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E163" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F163" t="n">
-        <v>2541.1399</v>
+        <v>98.3267</v>
       </c>
       <c r="G163" t="n">
-        <v>373.6666666666667</v>
+        <v>-40469.58633987001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>372</v>
-      </c>
-      <c r="K163" t="n">
-        <v>372</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
@@ -6274,40 +6564,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C164" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D164" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E164" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F164" t="n">
-        <v>1100</v>
+        <v>402.7581</v>
       </c>
       <c r="G164" t="n">
-        <v>372</v>
+        <v>-40066.82823987001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>372</v>
-      </c>
-      <c r="K164" t="n">
-        <v>372</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6318,40 +6600,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C165" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D165" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E165" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F165" t="n">
-        <v>600</v>
+        <v>4125.0152</v>
       </c>
       <c r="G165" t="n">
-        <v>372</v>
+        <v>-40066.82823987001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>372</v>
-      </c>
-      <c r="K165" t="n">
-        <v>372</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6362,35 +6636,31 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C166" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D166" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E166" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F166" t="n">
-        <v>1383.6738</v>
+        <v>245.0244</v>
       </c>
       <c r="G166" t="n">
-        <v>372</v>
+        <v>-39821.80383987001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>372</v>
-      </c>
-      <c r="K166" t="n">
-        <v>372</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
@@ -6402,40 +6672,32 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C167" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D167" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E167" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F167" t="n">
-        <v>578</v>
+        <v>874.8713</v>
       </c>
       <c r="G167" t="n">
-        <v>372</v>
+        <v>-39821.80383987001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>372</v>
-      </c>
-      <c r="K167" t="n">
-        <v>372</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6446,40 +6708,32 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C168" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D168" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E168" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F168" t="n">
-        <v>830</v>
+        <v>1474.8622</v>
       </c>
       <c r="G168" t="n">
-        <v>372</v>
+        <v>-39821.80383987001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>372</v>
-      </c>
-      <c r="K168" t="n">
-        <v>372</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6490,22 +6744,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C169" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D169" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E169" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F169" t="n">
-        <v>506.33</v>
+        <v>3048.0685</v>
       </c>
       <c r="G169" t="n">
-        <v>371.6666666666667</v>
+        <v>-39821.80383987001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6526,35 +6780,31 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C170" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D170" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E170" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F170" t="n">
-        <v>1768.3548</v>
+        <v>5042.8853</v>
       </c>
       <c r="G170" t="n">
-        <v>371.6666666666667</v>
+        <v>-39821.80383987001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>371</v>
-      </c>
-      <c r="K170" t="n">
-        <v>371</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
@@ -6566,392 +6816,2968 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C171" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="D171" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="E171" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F171" t="n">
-        <v>915.9815</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>371.6666666666667</v>
+        <v>-39820.80383987001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>372</v>
-      </c>
-      <c r="K171" t="n">
-        <v>371</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>386</v>
+      </c>
+      <c r="C172" t="n">
+        <v>386</v>
+      </c>
+      <c r="D172" t="n">
+        <v>386</v>
+      </c>
+      <c r="E172" t="n">
+        <v>386</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-39830.80383987001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>386</v>
+      </c>
+      <c r="C173" t="n">
+        <v>385</v>
+      </c>
+      <c r="D173" t="n">
+        <v>386</v>
+      </c>
+      <c r="E173" t="n">
+        <v>385</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8029.3274</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-47860.13123987001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>385</v>
+      </c>
+      <c r="C174" t="n">
+        <v>385</v>
+      </c>
+      <c r="D174" t="n">
+        <v>385</v>
+      </c>
+      <c r="E174" t="n">
+        <v>385</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1012.6599</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-47860.13123987001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>384</v>
+      </c>
+      <c r="C175" t="n">
+        <v>384</v>
+      </c>
+      <c r="D175" t="n">
+        <v>384</v>
+      </c>
+      <c r="E175" t="n">
+        <v>384</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2333.0981</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-50193.22933987001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>384</v>
+      </c>
+      <c r="C176" t="n">
+        <v>384</v>
+      </c>
+      <c r="D176" t="n">
+        <v>384</v>
+      </c>
+      <c r="E176" t="n">
+        <v>384</v>
+      </c>
+      <c r="F176" t="n">
+        <v>139.9506</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-50193.22933987001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>384</v>
+      </c>
+      <c r="C177" t="n">
+        <v>384</v>
+      </c>
+      <c r="D177" t="n">
+        <v>384</v>
+      </c>
+      <c r="E177" t="n">
+        <v>384</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1789.5597</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-50193.22933987001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>384</v>
+      </c>
+      <c r="C178" t="n">
+        <v>387</v>
+      </c>
+      <c r="D178" t="n">
+        <v>387</v>
+      </c>
+      <c r="E178" t="n">
+        <v>384</v>
+      </c>
+      <c r="F178" t="n">
+        <v>48.4963</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-50144.73303987001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>387</v>
+      </c>
+      <c r="C179" t="n">
+        <v>387</v>
+      </c>
+      <c r="D179" t="n">
+        <v>387</v>
+      </c>
+      <c r="E179" t="n">
+        <v>387</v>
+      </c>
+      <c r="F179" t="n">
+        <v>832.9969</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-50144.73303987001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>387</v>
+      </c>
+      <c r="C180" t="n">
+        <v>387</v>
+      </c>
+      <c r="D180" t="n">
+        <v>387</v>
+      </c>
+      <c r="E180" t="n">
+        <v>387</v>
+      </c>
+      <c r="F180" t="n">
+        <v>150</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-50144.73303987001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>384</v>
+      </c>
+      <c r="C181" t="n">
+        <v>384</v>
+      </c>
+      <c r="D181" t="n">
+        <v>384</v>
+      </c>
+      <c r="E181" t="n">
+        <v>384</v>
+      </c>
+      <c r="F181" t="n">
+        <v>159.9805</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-50304.71353987001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>383</v>
+      </c>
+      <c r="C182" t="n">
+        <v>383</v>
+      </c>
+      <c r="D182" t="n">
+        <v>383</v>
+      </c>
+      <c r="E182" t="n">
+        <v>383</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8875.7096</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-59180.42313987001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>382</v>
+      </c>
+      <c r="C183" t="n">
+        <v>381</v>
+      </c>
+      <c r="D183" t="n">
+        <v>382</v>
+      </c>
+      <c r="E183" t="n">
+        <v>381</v>
+      </c>
+      <c r="F183" t="n">
+        <v>192.2183</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-59372.64143987001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>382</v>
+      </c>
+      <c r="C184" t="n">
+        <v>382</v>
+      </c>
+      <c r="D184" t="n">
+        <v>382</v>
+      </c>
+      <c r="E184" t="n">
+        <v>382</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1392.2361</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-57980.40533987001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>382</v>
+      </c>
+      <c r="C185" t="n">
+        <v>386</v>
+      </c>
+      <c r="D185" t="n">
+        <v>386</v>
+      </c>
+      <c r="E185" t="n">
+        <v>382</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1045</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-56935.40533987001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>383</v>
+      </c>
+      <c r="C186" t="n">
+        <v>383</v>
+      </c>
+      <c r="D186" t="n">
+        <v>383</v>
+      </c>
+      <c r="E186" t="n">
+        <v>383</v>
+      </c>
+      <c r="F186" t="n">
+        <v>88.6109</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-57024.01623987001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>383</v>
+      </c>
+      <c r="C187" t="n">
+        <v>385</v>
+      </c>
+      <c r="D187" t="n">
+        <v>385</v>
+      </c>
+      <c r="E187" t="n">
+        <v>383</v>
+      </c>
+      <c r="F187" t="n">
+        <v>26.1096</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-56997.90663987001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>381</v>
+      </c>
+      <c r="C188" t="n">
+        <v>381</v>
+      </c>
+      <c r="D188" t="n">
+        <v>381</v>
+      </c>
+      <c r="E188" t="n">
+        <v>381</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1445.3787</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-58443.28533987001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>380</v>
+      </c>
+      <c r="C189" t="n">
+        <v>381</v>
+      </c>
+      <c r="D189" t="n">
+        <v>381</v>
+      </c>
+      <c r="E189" t="n">
+        <v>375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>17650.5877</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-58443.28533987001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>380</v>
+      </c>
+      <c r="C190" t="n">
+        <v>381</v>
+      </c>
+      <c r="D190" t="n">
+        <v>381</v>
+      </c>
+      <c r="E190" t="n">
+        <v>380</v>
+      </c>
+      <c r="F190" t="n">
+        <v>249.891</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-58443.28533987001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>377</v>
+      </c>
+      <c r="C191" t="n">
+        <v>377</v>
+      </c>
+      <c r="D191" t="n">
+        <v>377</v>
+      </c>
+      <c r="E191" t="n">
+        <v>377</v>
+      </c>
+      <c r="F191" t="n">
+        <v>994.0432</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-59437.32853987001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>377</v>
+      </c>
+      <c r="C192" t="n">
+        <v>383</v>
+      </c>
+      <c r="D192" t="n">
+        <v>383</v>
+      </c>
+      <c r="E192" t="n">
+        <v>377</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1886.9873</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-57550.34123987001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>382</v>
+      </c>
+      <c r="C193" t="n">
+        <v>382</v>
+      </c>
+      <c r="D193" t="n">
+        <v>382</v>
+      </c>
+      <c r="E193" t="n">
+        <v>382</v>
+      </c>
+      <c r="F193" t="n">
+        <v>50</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-57600.34123987001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>382</v>
+      </c>
+      <c r="C194" t="n">
+        <v>383</v>
+      </c>
+      <c r="D194" t="n">
+        <v>383</v>
+      </c>
+      <c r="E194" t="n">
+        <v>382</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1241.4879</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-56358.85333987001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>383</v>
+      </c>
+      <c r="C195" t="n">
+        <v>386</v>
+      </c>
+      <c r="D195" t="n">
+        <v>386</v>
+      </c>
+      <c r="E195" t="n">
+        <v>383</v>
+      </c>
+      <c r="F195" t="n">
+        <v>820</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>386</v>
+      </c>
+      <c r="C196" t="n">
+        <v>386</v>
+      </c>
+      <c r="D196" t="n">
+        <v>386</v>
+      </c>
+      <c r="E196" t="n">
+        <v>386</v>
+      </c>
+      <c r="F196" t="n">
+        <v>926</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>386</v>
+      </c>
+      <c r="C197" t="n">
+        <v>386</v>
+      </c>
+      <c r="D197" t="n">
+        <v>386</v>
+      </c>
+      <c r="E197" t="n">
+        <v>386</v>
+      </c>
+      <c r="F197" t="n">
+        <v>154</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>386</v>
+      </c>
+      <c r="C198" t="n">
+        <v>386</v>
+      </c>
+      <c r="D198" t="n">
+        <v>386</v>
+      </c>
+      <c r="E198" t="n">
+        <v>386</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1528</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>386</v>
+      </c>
+      <c r="C199" t="n">
+        <v>386</v>
+      </c>
+      <c r="D199" t="n">
+        <v>386</v>
+      </c>
+      <c r="E199" t="n">
+        <v>386</v>
+      </c>
+      <c r="F199" t="n">
+        <v>200</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>386</v>
+      </c>
+      <c r="C200" t="n">
+        <v>386</v>
+      </c>
+      <c r="D200" t="n">
+        <v>386</v>
+      </c>
+      <c r="E200" t="n">
+        <v>386</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25.9067</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>386</v>
+      </c>
+      <c r="C201" t="n">
+        <v>386</v>
+      </c>
+      <c r="D201" t="n">
+        <v>386</v>
+      </c>
+      <c r="E201" t="n">
+        <v>386</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1601</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>386</v>
+      </c>
+      <c r="C202" t="n">
+        <v>386</v>
+      </c>
+      <c r="D202" t="n">
+        <v>386</v>
+      </c>
+      <c r="E202" t="n">
+        <v>386</v>
+      </c>
+      <c r="F202" t="n">
+        <v>187</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>386</v>
+      </c>
+      <c r="C203" t="n">
+        <v>386</v>
+      </c>
+      <c r="D203" t="n">
+        <v>386</v>
+      </c>
+      <c r="E203" t="n">
+        <v>386</v>
+      </c>
+      <c r="F203" t="n">
+        <v>345</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>386</v>
+      </c>
+      <c r="C204" t="n">
+        <v>386</v>
+      </c>
+      <c r="D204" t="n">
+        <v>386</v>
+      </c>
+      <c r="E204" t="n">
+        <v>386</v>
+      </c>
+      <c r="F204" t="n">
+        <v>630</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>386</v>
+      </c>
+      <c r="C205" t="n">
+        <v>386</v>
+      </c>
+      <c r="D205" t="n">
+        <v>386</v>
+      </c>
+      <c r="E205" t="n">
+        <v>386</v>
+      </c>
+      <c r="F205" t="n">
+        <v>522</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-55538.85333987001</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>387</v>
+      </c>
+      <c r="C206" t="n">
+        <v>387</v>
+      </c>
+      <c r="D206" t="n">
+        <v>387</v>
+      </c>
+      <c r="E206" t="n">
+        <v>387</v>
+      </c>
+      <c r="F206" t="n">
+        <v>86</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-55452.85333987001</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>387</v>
+      </c>
+      <c r="C207" t="n">
+        <v>387</v>
+      </c>
+      <c r="D207" t="n">
+        <v>387</v>
+      </c>
+      <c r="E207" t="n">
+        <v>387</v>
+      </c>
+      <c r="F207" t="n">
+        <v>91.053</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-55452.85333987001</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>387</v>
+      </c>
+      <c r="C208" t="n">
+        <v>387</v>
+      </c>
+      <c r="D208" t="n">
+        <v>387</v>
+      </c>
+      <c r="E208" t="n">
+        <v>387</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3264.1353</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-55452.85333987001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>387</v>
+      </c>
+      <c r="C209" t="n">
+        <v>387</v>
+      </c>
+      <c r="D209" t="n">
+        <v>387</v>
+      </c>
+      <c r="E209" t="n">
+        <v>387</v>
+      </c>
+      <c r="F209" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-55452.85333987001</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>387</v>
+      </c>
+      <c r="C210" t="n">
+        <v>387</v>
+      </c>
+      <c r="D210" t="n">
+        <v>387</v>
+      </c>
+      <c r="E210" t="n">
+        <v>387</v>
+      </c>
+      <c r="F210" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-55452.85333987001</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>387</v>
+      </c>
+      <c r="C211" t="n">
+        <v>387</v>
+      </c>
+      <c r="D211" t="n">
+        <v>387</v>
+      </c>
+      <c r="E211" t="n">
+        <v>387</v>
+      </c>
+      <c r="F211" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-55452.85333987001</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>387</v>
+      </c>
+      <c r="C212" t="n">
+        <v>387</v>
+      </c>
+      <c r="D212" t="n">
+        <v>387</v>
+      </c>
+      <c r="E212" t="n">
+        <v>387</v>
+      </c>
+      <c r="F212" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-55452.85333987001</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>387</v>
+      </c>
+      <c r="C213" t="n">
+        <v>383</v>
+      </c>
+      <c r="D213" t="n">
+        <v>387</v>
+      </c>
+      <c r="E213" t="n">
+        <v>383</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3908.2327</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-59361.08603987001</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>381</v>
+      </c>
+      <c r="C214" t="n">
+        <v>381</v>
+      </c>
+      <c r="D214" t="n">
+        <v>384</v>
+      </c>
+      <c r="E214" t="n">
+        <v>381</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5483.7728</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-64844.85883987001</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>383</v>
+      </c>
+      <c r="C215" t="n">
+        <v>382</v>
+      </c>
+      <c r="D215" t="n">
+        <v>383</v>
+      </c>
+      <c r="E215" t="n">
+        <v>382</v>
+      </c>
+      <c r="F215" t="n">
+        <v>609.3244999999999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-64235.53433987001</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>382</v>
+      </c>
+      <c r="C216" t="n">
+        <v>382</v>
+      </c>
+      <c r="D216" t="n">
+        <v>382</v>
+      </c>
+      <c r="E216" t="n">
+        <v>382</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6315.6376</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-64235.53433987001</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>382</v>
+      </c>
+      <c r="C217" t="n">
+        <v>382</v>
+      </c>
+      <c r="D217" t="n">
+        <v>382</v>
+      </c>
+      <c r="E217" t="n">
+        <v>382</v>
+      </c>
+      <c r="F217" t="n">
+        <v>103.4097</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-64235.53433987001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>381</v>
+      </c>
+      <c r="C218" t="n">
+        <v>377</v>
+      </c>
+      <c r="D218" t="n">
+        <v>381</v>
+      </c>
+      <c r="E218" t="n">
+        <v>377</v>
+      </c>
+      <c r="F218" t="n">
+        <v>4712.8552</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-68948.38953987001</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>377</v>
+      </c>
+      <c r="C219" t="n">
+        <v>377</v>
+      </c>
+      <c r="D219" t="n">
+        <v>377</v>
+      </c>
+      <c r="E219" t="n">
+        <v>375</v>
+      </c>
+      <c r="F219" t="n">
+        <v>14326.6553</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-68948.38953987001</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>377</v>
+      </c>
+      <c r="C220" t="n">
+        <v>379</v>
+      </c>
+      <c r="D220" t="n">
+        <v>379</v>
+      </c>
+      <c r="E220" t="n">
+        <v>377</v>
+      </c>
+      <c r="F220" t="n">
+        <v>31</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-68917.38953987001</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>381</v>
+      </c>
+      <c r="C221" t="n">
+        <v>381</v>
+      </c>
+      <c r="D221" t="n">
+        <v>381</v>
+      </c>
+      <c r="E221" t="n">
+        <v>381</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2283.6</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-66633.78953987001</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>381</v>
+      </c>
+      <c r="C222" t="n">
+        <v>381</v>
+      </c>
+      <c r="D222" t="n">
+        <v>381</v>
+      </c>
+      <c r="E222" t="n">
+        <v>381</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1344.9934</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-66633.78953987001</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>382</v>
+      </c>
+      <c r="C223" t="n">
+        <v>382</v>
+      </c>
+      <c r="D223" t="n">
+        <v>382</v>
+      </c>
+      <c r="E223" t="n">
+        <v>382</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1611.0418</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-65022.74773987001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>377</v>
+      </c>
+      <c r="C224" t="n">
+        <v>377</v>
+      </c>
+      <c r="D224" t="n">
+        <v>377</v>
+      </c>
+      <c r="E224" t="n">
+        <v>377</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1208.0288</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-66230.77653987001</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>377</v>
+      </c>
+      <c r="C225" t="n">
+        <v>377</v>
+      </c>
+      <c r="D225" t="n">
+        <v>377</v>
+      </c>
+      <c r="E225" t="n">
+        <v>377</v>
+      </c>
+      <c r="F225" t="n">
+        <v>279</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-66230.77653987001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>377</v>
+      </c>
+      <c r="C226" t="n">
+        <v>377</v>
+      </c>
+      <c r="D226" t="n">
+        <v>377</v>
+      </c>
+      <c r="E226" t="n">
+        <v>377</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1012.9712</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-66230.77653987001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>374</v>
+      </c>
+      <c r="C227" t="n">
+        <v>374</v>
+      </c>
+      <c r="D227" t="n">
+        <v>374</v>
+      </c>
+      <c r="E227" t="n">
+        <v>374</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4111.3228</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-70342.09933987001</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>373</v>
+      </c>
+      <c r="C228" t="n">
+        <v>373</v>
+      </c>
+      <c r="D228" t="n">
+        <v>373</v>
+      </c>
+      <c r="E228" t="n">
+        <v>373</v>
+      </c>
+      <c r="F228" t="n">
+        <v>385.6123</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-70727.71163987</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>373</v>
+      </c>
+      <c r="C229" t="n">
+        <v>374</v>
+      </c>
+      <c r="D229" t="n">
+        <v>374</v>
+      </c>
+      <c r="E229" t="n">
+        <v>373</v>
+      </c>
+      <c r="F229" t="n">
+        <v>251</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-70476.71163987</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>381</v>
+      </c>
+      <c r="C230" t="n">
+        <v>381</v>
+      </c>
+      <c r="D230" t="n">
+        <v>381</v>
+      </c>
+      <c r="E230" t="n">
+        <v>381</v>
+      </c>
+      <c r="F230" t="n">
+        <v>50</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-70426.71163987</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>377</v>
+      </c>
+      <c r="C231" t="n">
+        <v>377</v>
+      </c>
+      <c r="D231" t="n">
+        <v>377</v>
+      </c>
+      <c r="E231" t="n">
+        <v>377</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26.2467</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-70452.95833987001</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>377</v>
+      </c>
+      <c r="C232" t="n">
+        <v>377</v>
+      </c>
+      <c r="D232" t="n">
+        <v>377</v>
+      </c>
+      <c r="E232" t="n">
+        <v>377</v>
+      </c>
+      <c r="F232" t="n">
+        <v>790.4751</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-70452.95833987001</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>372</v>
+      </c>
+      <c r="C233" t="n">
+        <v>372</v>
+      </c>
+      <c r="D233" t="n">
+        <v>372</v>
+      </c>
+      <c r="E233" t="n">
+        <v>372</v>
+      </c>
+      <c r="F233" t="n">
+        <v>17175.6139</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-87628.57223987</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>372</v>
+      </c>
+      <c r="C234" t="n">
+        <v>372</v>
+      </c>
+      <c r="D234" t="n">
+        <v>372</v>
+      </c>
+      <c r="E234" t="n">
+        <v>372</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2541.1399</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-87628.57223987</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>372</v>
+      </c>
+      <c r="C235" t="n">
+        <v>372</v>
+      </c>
+      <c r="D235" t="n">
+        <v>372</v>
+      </c>
+      <c r="E235" t="n">
+        <v>372</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-87628.57223987</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>372</v>
+      </c>
+      <c r="C236" t="n">
+        <v>372</v>
+      </c>
+      <c r="D236" t="n">
+        <v>372</v>
+      </c>
+      <c r="E236" t="n">
+        <v>372</v>
+      </c>
+      <c r="F236" t="n">
+        <v>600</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-87628.57223987</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>372</v>
+      </c>
+      <c r="C237" t="n">
+        <v>372</v>
+      </c>
+      <c r="D237" t="n">
+        <v>372</v>
+      </c>
+      <c r="E237" t="n">
+        <v>372</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1383.6738</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-87628.57223987</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>372</v>
+      </c>
+      <c r="K237" t="n">
+        <v>372</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>372</v>
+      </c>
+      <c r="C238" t="n">
+        <v>372</v>
+      </c>
+      <c r="D238" t="n">
+        <v>372</v>
+      </c>
+      <c r="E238" t="n">
+        <v>372</v>
+      </c>
+      <c r="F238" t="n">
+        <v>578</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-87628.57223987</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>372</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>372</v>
-      </c>
-      <c r="C172" t="n">
-        <v>372</v>
-      </c>
-      <c r="D172" t="n">
-        <v>372</v>
-      </c>
-      <c r="E172" t="n">
-        <v>372</v>
-      </c>
-      <c r="F172" t="n">
-        <v>141.293</v>
-      </c>
-      <c r="G172" t="n">
-        <v>372</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>372</v>
-      </c>
-      <c r="K172" t="n">
-        <v>371</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>372</v>
+      </c>
+      <c r="C239" t="n">
+        <v>372</v>
+      </c>
+      <c r="D239" t="n">
+        <v>372</v>
+      </c>
+      <c r="E239" t="n">
+        <v>372</v>
+      </c>
+      <c r="F239" t="n">
+        <v>830</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-87628.57223987</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>372</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>372</v>
-      </c>
-      <c r="C173" t="n">
-        <v>372</v>
-      </c>
-      <c r="D173" t="n">
-        <v>372</v>
-      </c>
-      <c r="E173" t="n">
-        <v>372</v>
-      </c>
-      <c r="F173" t="n">
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>371</v>
+      </c>
+      <c r="C240" t="n">
+        <v>371</v>
+      </c>
+      <c r="D240" t="n">
+        <v>371</v>
+      </c>
+      <c r="E240" t="n">
+        <v>371</v>
+      </c>
+      <c r="F240" t="n">
+        <v>506.33</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-88134.90223987</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>372</v>
+      </c>
+      <c r="C241" t="n">
+        <v>372</v>
+      </c>
+      <c r="D241" t="n">
+        <v>372</v>
+      </c>
+      <c r="E241" t="n">
+        <v>372</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1768.3548</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-86366.54743987</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>371</v>
+      </c>
+      <c r="K241" t="n">
+        <v>371</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>372</v>
+      </c>
+      <c r="C242" t="n">
+        <v>372</v>
+      </c>
+      <c r="D242" t="n">
+        <v>372</v>
+      </c>
+      <c r="E242" t="n">
+        <v>372</v>
+      </c>
+      <c r="F242" t="n">
+        <v>915.9815</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-86366.54743987</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>372</v>
+      </c>
+      <c r="K242" t="n">
+        <v>371</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>372</v>
+      </c>
+      <c r="C243" t="n">
+        <v>372</v>
+      </c>
+      <c r="D243" t="n">
+        <v>372</v>
+      </c>
+      <c r="E243" t="n">
+        <v>372</v>
+      </c>
+      <c r="F243" t="n">
         <v>141.293</v>
       </c>
-      <c r="G173" t="n">
-        <v>372</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>372</v>
-      </c>
-      <c r="K173" t="n">
-        <v>372</v>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>372</v>
-      </c>
-      <c r="C174" t="n">
+      <c r="G243" t="n">
+        <v>-86366.54743987</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>372</v>
+      </c>
+      <c r="K243" t="n">
         <v>371</v>
       </c>
-      <c r="D174" t="n">
-        <v>372</v>
-      </c>
-      <c r="E174" t="n">
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>372</v>
+      </c>
+      <c r="C244" t="n">
+        <v>372</v>
+      </c>
+      <c r="D244" t="n">
+        <v>372</v>
+      </c>
+      <c r="E244" t="n">
+        <v>372</v>
+      </c>
+      <c r="F244" t="n">
+        <v>141.293</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-86366.54743987</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>372</v>
+      </c>
+      <c r="K244" t="n">
+        <v>372</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>372</v>
+      </c>
+      <c r="C245" t="n">
         <v>371</v>
       </c>
-      <c r="F174" t="n">
+      <c r="D245" t="n">
+        <v>372</v>
+      </c>
+      <c r="E245" t="n">
+        <v>371</v>
+      </c>
+      <c r="F245" t="n">
         <v>1185.9371</v>
       </c>
-      <c r="G174" t="n">
-        <v>371.6666666666667</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>372</v>
-      </c>
-      <c r="K174" t="n">
-        <v>372</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G245" t="n">
+        <v>-87552.48453987</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>372</v>
+      </c>
+      <c r="K245" t="n">
+        <v>372</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>372</v>
-      </c>
-      <c r="C175" t="n">
-        <v>372</v>
-      </c>
-      <c r="D175" t="n">
-        <v>372</v>
-      </c>
-      <c r="E175" t="n">
-        <v>372</v>
-      </c>
-      <c r="F175" t="n">
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>372</v>
+      </c>
+      <c r="C246" t="n">
+        <v>372</v>
+      </c>
+      <c r="D246" t="n">
+        <v>372</v>
+      </c>
+      <c r="E246" t="n">
+        <v>372</v>
+      </c>
+      <c r="F246" t="n">
         <v>2946.0271</v>
       </c>
-      <c r="G175" t="n">
-        <v>371.6666666666667</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
+      <c r="G246" t="n">
+        <v>-84606.45743986999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
         <v>371</v>
       </c>
-      <c r="K175" t="n">
-        <v>372</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="K246" t="n">
+        <v>372</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>372</v>
-      </c>
-      <c r="C176" t="n">
-        <v>372</v>
-      </c>
-      <c r="D176" t="n">
-        <v>372</v>
-      </c>
-      <c r="E176" t="n">
-        <v>372</v>
-      </c>
-      <c r="F176" t="n">
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>372</v>
+      </c>
+      <c r="C247" t="n">
+        <v>372</v>
+      </c>
+      <c r="D247" t="n">
+        <v>372</v>
+      </c>
+      <c r="E247" t="n">
+        <v>372</v>
+      </c>
+      <c r="F247" t="n">
         <v>2152.5099</v>
       </c>
-      <c r="G176" t="n">
-        <v>371.6666666666667</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>372</v>
-      </c>
-      <c r="K176" t="n">
-        <v>372</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G247" t="n">
+        <v>-84606.45743986999</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>372</v>
+      </c>
+      <c r="K247" t="n">
+        <v>372</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>372</v>
-      </c>
-      <c r="C177" t="n">
-        <v>372</v>
-      </c>
-      <c r="D177" t="n">
-        <v>372</v>
-      </c>
-      <c r="E177" t="n">
-        <v>372</v>
-      </c>
-      <c r="F177" t="n">
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>372</v>
+      </c>
+      <c r="C248" t="n">
+        <v>372</v>
+      </c>
+      <c r="D248" t="n">
+        <v>372</v>
+      </c>
+      <c r="E248" t="n">
+        <v>372</v>
+      </c>
+      <c r="F248" t="n">
         <v>93.56999999999999</v>
       </c>
-      <c r="G177" t="n">
-        <v>372</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>372</v>
-      </c>
-      <c r="K177" t="n">
-        <v>372</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="G248" t="n">
+        <v>-84606.45743986999</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>372</v>
+      </c>
+      <c r="K248" t="n">
+        <v>372</v>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>372</v>
-      </c>
-      <c r="C178" t="n">
-        <v>372</v>
-      </c>
-      <c r="D178" t="n">
-        <v>372</v>
-      </c>
-      <c r="E178" t="n">
-        <v>372</v>
-      </c>
-      <c r="F178" t="n">
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>372</v>
+      </c>
+      <c r="C249" t="n">
+        <v>372</v>
+      </c>
+      <c r="D249" t="n">
+        <v>372</v>
+      </c>
+      <c r="E249" t="n">
+        <v>372</v>
+      </c>
+      <c r="F249" t="n">
         <v>303</v>
       </c>
-      <c r="G178" t="n">
-        <v>372</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>372</v>
-      </c>
-      <c r="K178" t="n">
-        <v>372</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="G249" t="n">
+        <v>-84606.45743986999</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>372</v>
+      </c>
+      <c r="K249" t="n">
+        <v>372</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>372</v>
-      </c>
-      <c r="C179" t="n">
-        <v>372</v>
-      </c>
-      <c r="D179" t="n">
-        <v>372</v>
-      </c>
-      <c r="E179" t="n">
-        <v>372</v>
-      </c>
-      <c r="F179" t="n">
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>372</v>
+      </c>
+      <c r="C250" t="n">
+        <v>372</v>
+      </c>
+      <c r="D250" t="n">
+        <v>372</v>
+      </c>
+      <c r="E250" t="n">
+        <v>372</v>
+      </c>
+      <c r="F250" t="n">
         <v>871.4166</v>
       </c>
-      <c r="G179" t="n">
-        <v>372</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>372</v>
-      </c>
-      <c r="K179" t="n">
-        <v>372</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="G250" t="n">
+        <v>-84606.45743986999</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>372</v>
+      </c>
+      <c r="K250" t="n">
+        <v>372</v>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N250"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-17789.29344383999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-17789.29344383999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="J3" t="n">
         <v>363</v>
       </c>
-      <c r="K3" t="n">
-        <v>363</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-12701.92634383999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="J4" t="n">
         <v>363</v>
       </c>
-      <c r="K4" t="n">
-        <v>363</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-12701.92634383999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J5" t="n">
-        <v>365</v>
-      </c>
-      <c r="K5" t="n">
         <v>363</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-11096.92634383999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J6" t="n">
-        <v>365</v>
-      </c>
-      <c r="K6" t="n">
         <v>363</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-6471.007043839994</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="J7" t="n">
-        <v>366</v>
-      </c>
-      <c r="K7" t="n">
         <v>363</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,24 +685,23 @@
         <v>-5964.697443839995</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+        <v>370</v>
+      </c>
+      <c r="J8" t="n">
         <v>363</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,22 +728,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>363</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,22 +767,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>363</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,22 +806,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>363</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,22 +845,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>363</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,22 +884,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>363</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +923,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>363</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +962,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>363</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,22 +1001,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>363</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,22 +1040,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>363</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,22 +1079,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>363</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,22 +1118,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>363</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1214,22 +1157,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>363</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1256,22 +1196,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>363</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,22 +1235,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>363</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,22 +1274,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>363</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1382,22 +1313,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>363</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1424,22 +1352,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>363</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,22 +1391,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>363</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1508,22 +1430,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>363</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1550,22 +1469,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>363</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1592,22 +1508,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>363</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1634,22 +1547,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>363</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1676,22 +1586,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>363</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1718,22 +1625,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>363</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1760,22 +1664,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>363</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1802,22 +1703,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>363</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1844,22 +1742,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>363</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1886,22 +1781,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>363</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1928,22 +1820,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>363</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1970,22 +1859,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>363</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2012,22 +1898,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>363</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2054,22 +1937,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>363</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2096,22 +1976,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>363</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2138,22 +2015,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>363</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2180,22 +2054,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>363</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2222,22 +2093,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>363</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2264,22 +2132,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>363</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2306,22 +2171,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>363</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2348,22 +2210,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>363</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2390,22 +2249,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>363</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2432,22 +2288,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>363</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2472,132 +2325,138 @@
         <v>4649.184960130005</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>363</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>376</v>
+      </c>
+      <c r="C51" t="n">
+        <v>376</v>
+      </c>
+      <c r="D51" t="n">
+        <v>376</v>
+      </c>
+      <c r="E51" t="n">
+        <v>376</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4201.9173</v>
+      </c>
+      <c r="G51" t="n">
+        <v>447.2676601300054</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>363</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>376</v>
+      </c>
+      <c r="C52" t="n">
+        <v>376</v>
+      </c>
+      <c r="D52" t="n">
+        <v>376</v>
+      </c>
+      <c r="E52" t="n">
+        <v>376</v>
+      </c>
+      <c r="F52" t="n">
+        <v>121</v>
+      </c>
+      <c r="G52" t="n">
+        <v>447.2676601300054</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>363</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>377</v>
+      </c>
+      <c r="C53" t="n">
+        <v>380</v>
+      </c>
+      <c r="D53" t="n">
+        <v>380</v>
+      </c>
+      <c r="E53" t="n">
+        <v>377</v>
+      </c>
+      <c r="F53" t="n">
+        <v>135.3665</v>
+      </c>
+      <c r="G53" t="n">
+        <v>582.6341601300054</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>363</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1.047341597796143</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>376</v>
-      </c>
-      <c r="C51" t="n">
-        <v>376</v>
-      </c>
-      <c r="D51" t="n">
-        <v>376</v>
-      </c>
-      <c r="E51" t="n">
-        <v>376</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4201.9173</v>
-      </c>
-      <c r="G51" t="n">
-        <v>447.2676601300054</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>376</v>
-      </c>
-      <c r="C52" t="n">
-        <v>376</v>
-      </c>
-      <c r="D52" t="n">
-        <v>376</v>
-      </c>
-      <c r="E52" t="n">
-        <v>376</v>
-      </c>
-      <c r="F52" t="n">
-        <v>121</v>
-      </c>
-      <c r="G52" t="n">
-        <v>447.2676601300054</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>377</v>
-      </c>
-      <c r="C53" t="n">
-        <v>380</v>
-      </c>
-      <c r="D53" t="n">
-        <v>380</v>
-      </c>
-      <c r="E53" t="n">
-        <v>377</v>
-      </c>
-      <c r="F53" t="n">
-        <v>135.3665</v>
-      </c>
-      <c r="G53" t="n">
-        <v>582.6341601300054</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1.041831955922865</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2622,18 +2481,15 @@
         <v>582.6341601300054</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2660,16 +2516,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2696,16 +2549,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2732,16 +2582,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2766,18 +2613,15 @@
         <v>552.9404601300054</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2802,18 +2646,15 @@
         <v>5760.949160130006</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2840,16 +2681,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2876,16 +2714,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2910,18 +2745,15 @@
         <v>2539.997160130006</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2948,16 +2780,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2984,16 +2813,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3020,16 +2846,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3056,16 +2879,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3092,16 +2912,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3128,16 +2945,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3164,16 +2978,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3200,16 +3011,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3236,16 +3044,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3272,16 +3077,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3308,16 +3110,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3344,16 +3143,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3380,16 +3176,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3416,16 +3209,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3452,16 +3242,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3488,16 +3275,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3524,16 +3308,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3560,16 +3341,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3596,16 +3374,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3632,16 +3407,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3668,16 +3440,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3704,16 +3473,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3740,16 +3506,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3776,16 +3539,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3812,16 +3572,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3848,16 +3605,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3884,16 +3638,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3920,16 +3671,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3956,16 +3704,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3992,16 +3737,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4028,16 +3770,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4064,16 +3803,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4100,16 +3836,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4136,16 +3869,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4172,16 +3902,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4208,16 +3935,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4244,16 +3968,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4280,16 +4001,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4316,16 +4034,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4352,16 +4067,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4388,16 +4100,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4424,16 +4133,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4460,16 +4166,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4496,16 +4199,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4532,16 +4232,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4568,16 +4265,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4604,16 +4298,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4640,16 +4331,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4676,16 +4364,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4710,18 +4395,15 @@
         <v>-17325.96813987</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4748,16 +4430,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4782,18 +4461,15 @@
         <v>-16597.35863987</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4818,18 +4494,15 @@
         <v>-17924.40813987</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4854,18 +4527,15 @@
         <v>-39517.03383987</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4890,18 +4560,15 @@
         <v>-38844.03383987</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4926,18 +4593,15 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4962,18 +4626,15 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4998,18 +4659,15 @@
         <v>-25542.09353986999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5034,18 +4692,15 @@
         <v>-40405.57983987</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5070,18 +4725,15 @@
         <v>-40062.51023987</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5106,18 +4758,15 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5142,18 +4791,15 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5178,18 +4824,15 @@
         <v>-38812.71103987</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5214,18 +4857,15 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5250,18 +4890,15 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5286,18 +4923,15 @@
         <v>-37828.97683987</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5324,16 +4958,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5360,16 +4991,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5396,16 +5024,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5432,16 +5057,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5468,16 +5090,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5504,16 +5123,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5540,16 +5156,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5576,16 +5189,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5612,16 +5222,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5648,16 +5255,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5684,16 +5288,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5720,16 +5321,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5756,16 +5354,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5792,16 +5387,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5828,16 +5420,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5864,16 +5453,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5900,16 +5486,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5936,16 +5519,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5972,16 +5552,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6008,16 +5585,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6044,16 +5618,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6080,16 +5651,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6116,16 +5684,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6152,16 +5717,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6188,16 +5750,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6224,16 +5783,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6260,16 +5816,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6296,16 +5849,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6332,16 +5882,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6368,16 +5915,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6404,16 +5948,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6440,16 +5981,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6476,16 +6014,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6512,16 +6047,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6548,16 +6080,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6584,16 +6113,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6620,16 +6146,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6656,16 +6179,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6692,16 +6212,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6728,16 +6245,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6764,16 +6278,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6800,16 +6311,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6836,16 +6344,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6872,16 +6377,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6908,16 +6410,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6944,16 +6443,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6980,16 +6476,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7016,16 +6509,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7052,16 +6542,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7088,16 +6575,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7124,16 +6608,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7160,16 +6641,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7196,16 +6674,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7232,16 +6707,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7268,16 +6740,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7304,16 +6773,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7340,16 +6806,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7376,16 +6839,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7412,16 +6872,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7448,16 +6905,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7484,16 +6938,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7520,16 +6971,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7556,16 +7004,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7592,16 +7037,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7628,16 +7070,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7664,16 +7103,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7700,16 +7136,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7736,16 +7169,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7772,16 +7202,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7808,16 +7235,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7844,16 +7268,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7880,16 +7301,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7916,16 +7334,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7952,16 +7367,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7988,16 +7400,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8024,16 +7433,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8060,16 +7466,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8096,16 +7499,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8132,16 +7532,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8168,16 +7565,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8204,16 +7598,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8240,16 +7631,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8276,16 +7664,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8312,16 +7697,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8348,16 +7730,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8384,16 +7763,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8420,16 +7796,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8456,16 +7829,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8492,16 +7862,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8528,16 +7895,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8564,16 +7928,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8600,16 +7961,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8636,16 +7994,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8672,16 +8027,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8708,16 +8060,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8744,16 +8093,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8780,16 +8126,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8816,16 +8159,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8852,16 +8192,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8888,16 +8225,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8924,16 +8258,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8958,18 +8289,15 @@
         <v>-70426.71163987</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8994,18 +8322,15 @@
         <v>-70452.95833987001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9032,16 +8357,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9068,16 +8390,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9104,16 +8423,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9140,16 +8456,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9176,16 +8489,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9210,22 +8520,15 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>372</v>
-      </c>
-      <c r="K237" t="n">
-        <v>372</v>
-      </c>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9252,22 +8555,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>372</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9294,22 +8588,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>372</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9336,16 +8621,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9370,22 +8652,15 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>371</v>
-      </c>
-      <c r="K241" t="n">
-        <v>371</v>
-      </c>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9410,26 +8685,15 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>372</v>
-      </c>
-      <c r="K242" t="n">
-        <v>371</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9454,26 +8718,15 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>372</v>
-      </c>
-      <c r="K243" t="n">
-        <v>371</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9498,22 +8751,15 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>372</v>
-      </c>
-      <c r="K244" t="n">
-        <v>372</v>
-      </c>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9538,26 +8784,15 @@
         <v>-87552.48453987</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>372</v>
-      </c>
-      <c r="K245" t="n">
-        <v>372</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9582,26 +8817,15 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
-        <v>371</v>
-      </c>
-      <c r="K246" t="n">
-        <v>372</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9626,26 +8850,15 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
-        <v>372</v>
-      </c>
-      <c r="K247" t="n">
-        <v>372</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9670,26 +8883,15 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
-        <v>372</v>
-      </c>
-      <c r="K248" t="n">
-        <v>372</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9714,26 +8916,15 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
-        <v>372</v>
-      </c>
-      <c r="K249" t="n">
-        <v>372</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9758,28 +8949,17 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
-        <v>372</v>
-      </c>
-      <c r="K250" t="n">
-        <v>372</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17789.29344383999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-17789.29344383999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>363</v>
-      </c>
-      <c r="J3" t="n">
-        <v>363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-12701.92634383999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>363</v>
-      </c>
-      <c r="J4" t="n">
-        <v>363</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-12701.92634383999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>365</v>
-      </c>
-      <c r="J5" t="n">
-        <v>363</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-11096.92634383999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>363</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-6471.007043839994</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>366</v>
-      </c>
-      <c r="J7" t="n">
-        <v>363</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-5964.697443839995</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>370</v>
-      </c>
-      <c r="J8" t="n">
-        <v>363</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -729,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>363</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>363</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>363</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>363</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>363</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>363</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -963,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>363</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>363</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>363</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1080,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>363</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>363</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1158,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>363</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>363</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1236,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>363</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1275,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>363</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1314,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>363</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1353,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>363</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>363</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1431,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>363</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>363</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1509,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>363</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>363</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>363</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>363</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>363</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>363</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>363</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>363</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>363</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>363</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1899,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>363</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1935,17 +1705,11 @@
         <v>-5259.508639869995</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>363</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1977,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>363</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>363</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>363</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>363</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>363</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>363</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>363</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>363</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>363</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2325,17 +2035,11 @@
         <v>4649.184960130005</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>363</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2364,17 +2068,11 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>363</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2403,17 +2101,11 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>363</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2442,19 +2134,13 @@
         <v>582.6341601300054</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>363</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>1.041831955922865</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
     </row>
@@ -2481,7 +2167,7 @@
         <v>582.6341601300054</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2547,7 +2233,7 @@
         <v>627.9404601300054</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2580,7 +2266,7 @@
         <v>602.9404601300054</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2613,7 +2299,7 @@
         <v>552.9404601300054</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2646,7 +2332,7 @@
         <v>5760.949160130006</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2679,7 +2365,7 @@
         <v>3640.091260130006</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2712,7 +2398,7 @@
         <v>2539.997160130006</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2745,7 +2431,7 @@
         <v>2539.997160130006</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2811,7 +2497,7 @@
         <v>2539.997160130006</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2844,7 +2530,7 @@
         <v>2621.637960130006</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2877,7 +2563,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2910,7 +2596,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2943,7 +2629,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2976,7 +2662,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3009,7 +2695,7 @@
         <v>1636.695960130006</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3042,7 +2728,7 @@
         <v>1944.525460130006</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3075,7 +2761,7 @@
         <v>1946.525460130006</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3108,7 +2794,7 @@
         <v>-1759.474139869994</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3141,7 +2827,7 @@
         <v>-1759.474139869994</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3174,7 +2860,7 @@
         <v>-1758.474139869994</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3207,7 +2893,7 @@
         <v>-5419.049239869994</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3240,7 +2926,7 @@
         <v>-6599.633239869994</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3273,7 +2959,7 @@
         <v>-6790.633239869994</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3306,7 +2992,7 @@
         <v>-6790.633239869994</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3339,7 +3025,7 @@
         <v>-6789.118739869994</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3372,7 +3058,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3405,7 +3091,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3438,7 +3124,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3504,7 +3190,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3570,7 +3256,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3603,7 +3289,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3636,7 +3322,7 @@
         <v>-6337.358539869994</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3669,7 +3355,7 @@
         <v>-5426.280939869995</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3702,7 +3388,7 @@
         <v>-5626.982039869995</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3735,7 +3421,7 @@
         <v>-2907.982039869995</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3768,7 +3454,7 @@
         <v>-3040.886139869995</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3801,7 +3487,7 @@
         <v>-1712.370339869995</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3834,7 +3520,7 @@
         <v>-1712.370339869995</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3867,7 +3553,7 @@
         <v>-12389.59383986999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3900,7 +3586,7 @@
         <v>-12155.81913986999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3933,7 +3619,7 @@
         <v>-13195.81913986999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3966,7 +3652,7 @@
         <v>-13134.81913986999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3999,7 +3685,7 @@
         <v>-13634.81913986999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4032,7 +3718,7 @@
         <v>-13634.81913986999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4065,7 +3751,7 @@
         <v>-13633.81913986999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4098,7 +3784,7 @@
         <v>-5657.753639869995</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4131,7 +3817,7 @@
         <v>-8624.623239869994</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4362,7 +4048,7 @@
         <v>-18032.56063987</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4395,7 +4081,7 @@
         <v>-17325.96813987</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4428,7 +4114,7 @@
         <v>-17708.35863987</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4461,7 +4147,7 @@
         <v>-16597.35863987</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4494,7 +4180,7 @@
         <v>-17924.40813987</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4527,7 +4213,7 @@
         <v>-39517.03383987</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4560,7 +4246,7 @@
         <v>-38844.03383987</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4593,7 +4279,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4626,7 +4312,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4659,7 +4345,7 @@
         <v>-25542.09353986999</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4692,7 +4378,7 @@
         <v>-40405.57983987</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4725,7 +4411,7 @@
         <v>-40062.51023987</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4758,7 +4444,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4791,7 +4477,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4824,7 +4510,7 @@
         <v>-38812.71103987</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4857,7 +4543,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4890,7 +4576,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4923,7 +4609,7 @@
         <v>-37828.97683987</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4956,7 +4642,7 @@
         <v>-41374.46443987</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4989,7 +4675,7 @@
         <v>-51460.58943987</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5022,7 +4708,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5055,7 +4741,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5088,7 +4774,7 @@
         <v>-50169.58013987</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5121,7 +4807,7 @@
         <v>-49210.22383987</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5154,7 +4840,7 @@
         <v>-49360.22383987</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5187,7 +4873,7 @@
         <v>-22449.47453987</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5220,7 +4906,7 @@
         <v>-21405.47453987</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5253,7 +4939,7 @@
         <v>-25742.09463987</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5286,7 +4972,7 @@
         <v>-29701.22323987</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5319,7 +5005,7 @@
         <v>-29295.46183987</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5385,7 +5071,7 @@
         <v>-24246.99513987</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5451,7 +5137,7 @@
         <v>-41446.08463987</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5484,7 +5170,7 @@
         <v>-41445.08463987</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5583,7 +5269,7 @@
         <v>-43261.71373987001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5616,7 +5302,7 @@
         <v>-43487.71373987001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5649,7 +5335,7 @@
         <v>-43487.71373987001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5682,7 +5368,7 @@
         <v>-43487.71373987001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5715,7 +5401,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5748,7 +5434,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5781,7 +5467,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5814,7 +5500,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5847,7 +5533,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5913,7 +5599,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5979,7 +5665,7 @@
         <v>-39643.06163987001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6012,7 +5698,7 @@
         <v>-39643.06163987001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6045,7 +5731,7 @@
         <v>-40567.91303987001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6111,7 +5797,7 @@
         <v>-40066.82823987001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6144,7 +5830,7 @@
         <v>-40066.82823987001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6210,7 +5896,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6309,7 +5995,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6342,7 +6028,7 @@
         <v>-39820.80383987001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6375,7 +6061,7 @@
         <v>-39830.80383987001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6408,7 +6094,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6441,7 +6127,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6474,7 +6160,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6507,7 +6193,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6540,7 +6226,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6573,7 +6259,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6606,7 +6292,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6639,7 +6325,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6672,7 +6358,7 @@
         <v>-50304.71353987001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6738,7 +6424,7 @@
         <v>-59372.64143987001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6804,7 +6490,7 @@
         <v>-56935.40533987001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6969,7 +6655,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -8289,7 +7975,7 @@
         <v>-70426.71163987</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8322,7 +8008,7 @@
         <v>-70452.95833987001</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8718,10 +8404,14 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>372</v>
+      </c>
+      <c r="J243" t="n">
+        <v>372</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
@@ -8751,11 +8441,19 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>372</v>
+      </c>
+      <c r="J244" t="n">
+        <v>372</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8784,11 +8482,19 @@
         <v>-87552.48453987</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>372</v>
+      </c>
+      <c r="J245" t="n">
+        <v>372</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8817,11 +8523,19 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>371</v>
+      </c>
+      <c r="J246" t="n">
+        <v>372</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8850,11 +8564,19 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>372</v>
+      </c>
+      <c r="J247" t="n">
+        <v>372</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8883,11 +8605,19 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>372</v>
+      </c>
+      <c r="J248" t="n">
+        <v>372</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8916,11 +8646,19 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>372</v>
+      </c>
+      <c r="J249" t="n">
+        <v>372</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8949,17 +8687,25 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>372</v>
+      </c>
+      <c r="J250" t="n">
+        <v>372</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-3673.313743839995</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4107.513743839995</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4570.399543839995</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4664.615939869996</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5797.669439869996</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5375.154939869995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5815.792839869995</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6642.813739869995</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5260.508639869995</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5481.219039869995</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5480.219039869995</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-7238.056339869995</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-7056.261639869995</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5890.759139869994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>4649.184960130005</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>582.6341601300054</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>549.6341601300054</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>602.9404601300054</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>552.9404601300054</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5760.949160130006</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3640.091260130006</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2539.997160130006</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2539.997160130006</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2539.997160130006</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2621.637960130006</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2620.637960130006</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1636.695960130006</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1944.525460130006</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1946.525460130006</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1759.474139869994</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1759.474139869994</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1758.474139869994</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-5419.049239869994</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6599.633239869994</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6790.633239869994</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6790.633239869994</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6789.118739869994</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-6337.358539869994</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-5426.280939869995</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-5626.982039869995</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2907.982039869995</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3040.886139869995</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1712.370339869995</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1712.370339869995</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-12389.59383986999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-12155.81913986999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-13195.81913986999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-13134.81913986999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-13634.81913986999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-13634.81913986999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-13633.81913986999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-5657.753639869995</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-8624.623239869994</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-18032.56063987</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-17325.96813987</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-17708.35863987</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-16597.35863987</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-17924.40813987</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-39517.03383987</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-38844.03383987</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-25542.09353986999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-40405.57983987</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-40062.51023987</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-38812.71103987</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-37828.97683987</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-41374.46443987</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-51460.58943987</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-50169.58013987</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-49210.22383987</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-29295.46183987</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-24246.99513987</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-41446.08463987</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-41445.08463987</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-43261.71373987001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-43487.71373987001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-43487.71373987001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-43487.71373987001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-43176.71373987001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-39643.06163987001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-39643.06163987001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-40567.91303987001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-40066.82823987001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-40066.82823987001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-39820.80383987001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-39830.80383987001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-50304.71353987001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-59372.64143987001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-56935.40533987001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -8404,14 +8404,10 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>372</v>
-      </c>
-      <c r="J243" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
@@ -8441,142 +8437,120 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>372</v>
-      </c>
-      <c r="J244" t="n">
-        <v>372</v>
-      </c>
-      <c r="K244" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>372</v>
+      </c>
+      <c r="C245" t="n">
+        <v>371</v>
+      </c>
+      <c r="D245" t="n">
+        <v>372</v>
+      </c>
+      <c r="E245" t="n">
+        <v>371</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1185.9371</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-87552.48453987</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>372</v>
+      </c>
+      <c r="C246" t="n">
+        <v>372</v>
+      </c>
+      <c r="D246" t="n">
+        <v>372</v>
+      </c>
+      <c r="E246" t="n">
+        <v>372</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2946.0271</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-84606.45743986999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>371</v>
+      </c>
+      <c r="J246" t="n">
+        <v>371</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>372</v>
+      </c>
+      <c r="C247" t="n">
+        <v>372</v>
+      </c>
+      <c r="D247" t="n">
+        <v>372</v>
+      </c>
+      <c r="E247" t="n">
+        <v>372</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2152.5099</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-84606.45743986999</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>371</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>372</v>
-      </c>
-      <c r="C245" t="n">
-        <v>371</v>
-      </c>
-      <c r="D245" t="n">
-        <v>372</v>
-      </c>
-      <c r="E245" t="n">
-        <v>371</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1185.9371</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-87552.48453987</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>372</v>
-      </c>
-      <c r="J245" t="n">
-        <v>372</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>372</v>
-      </c>
-      <c r="C246" t="n">
-        <v>372</v>
-      </c>
-      <c r="D246" t="n">
-        <v>372</v>
-      </c>
-      <c r="E246" t="n">
-        <v>372</v>
-      </c>
-      <c r="F246" t="n">
-        <v>2946.0271</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>371</v>
-      </c>
-      <c r="J246" t="n">
-        <v>372</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>372</v>
-      </c>
-      <c r="C247" t="n">
-        <v>372</v>
-      </c>
-      <c r="D247" t="n">
-        <v>372</v>
-      </c>
-      <c r="E247" t="n">
-        <v>372</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2152.5099</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>372</v>
-      </c>
-      <c r="J247" t="n">
-        <v>372</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8605,17 +8579,15 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -8654,11 +8626,7 @@
       <c r="J249" t="n">
         <v>372</v>
       </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8697,7 +8665,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8706,6 +8674,6 @@
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -748,7 +748,7 @@
         <v>-3673.313743839995</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4107.513743839995</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4570.399543839995</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4664.615939869996</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5797.669439869996</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5375.154939869995</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5815.792839869995</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6642.813739869995</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5260.508639869995</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5259.508639869995</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5481.219039869995</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5480.219039869995</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-7238.056339869995</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-7056.261639869995</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5890.759139869994</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>4649.184960130005</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>582.6341601300054</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>627.9404601300054</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>552.9404601300054</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5760.949160130006</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3640.091260130006</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1759.474139869994</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-5419.049239869994</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6599.633239869994</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-8624.623239869994</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-8390.623239869994</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-16597.35863987</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-17924.40813987</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-38844.03383987</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-37828.97683987</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-41374.46443987</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-51460.58943987</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-50169.58013987</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-49210.22383987</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-22449.47453987</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-40066.82823987001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-39820.80383987001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-39830.80383987001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-50304.71353987001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-59180.42313987001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-59372.64143987001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-56935.40533987001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-57024.01623987001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-56997.90663987001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-59437.32853987001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-56358.85333987001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-59361.08603987001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-64844.85883987001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-64235.53433987001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,10 +7513,14 @@
         <v>-64235.53433987001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>382</v>
+      </c>
+      <c r="J216" t="n">
+        <v>382</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
@@ -7549,8 +7553,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>382</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7592,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>382</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +7631,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>382</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7670,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>382</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7709,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>382</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7748,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>382</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +7787,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>382</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +7826,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>382</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +7865,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>382</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +7904,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>382</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +7943,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>382</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +7982,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>382</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8018,19 @@
         <v>-70476.71163987</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>373</v>
+      </c>
+      <c r="J229" t="n">
+        <v>382</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8059,19 @@
         <v>-70426.71163987</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>374</v>
+      </c>
+      <c r="J230" t="n">
+        <v>382</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8103,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>382</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8142,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>382</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8181,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>382</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8220,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>382</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8259,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>382</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8295,19 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>372</v>
+      </c>
+      <c r="J236" t="n">
+        <v>382</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8336,19 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>372</v>
+      </c>
+      <c r="J237" t="n">
+        <v>382</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8377,19 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>372</v>
+      </c>
+      <c r="J238" t="n">
+        <v>382</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8418,19 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>372</v>
+      </c>
+      <c r="J239" t="n">
+        <v>382</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8459,19 @@
         <v>-88134.90223987</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>372</v>
+      </c>
+      <c r="J240" t="n">
+        <v>382</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8500,19 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>371</v>
+      </c>
+      <c r="J241" t="n">
+        <v>382</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8541,19 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>372</v>
+      </c>
+      <c r="J242" t="n">
+        <v>382</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8582,19 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>372</v>
+      </c>
+      <c r="J243" t="n">
+        <v>382</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8623,19 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>372</v>
+      </c>
+      <c r="J244" t="n">
+        <v>382</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8664,19 @@
         <v>-87552.48453987</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>372</v>
+      </c>
+      <c r="J245" t="n">
+        <v>382</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8509,9 +8711,13 @@
         <v>371</v>
       </c>
       <c r="J246" t="n">
-        <v>371</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+        <v>382</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,15 +8746,17 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>372</v>
+      </c>
       <c r="J247" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
@@ -8579,15 +8787,17 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>372</v>
+      </c>
       <c r="J248" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -8624,9 +8834,13 @@
         <v>372</v>
       </c>
       <c r="J249" t="n">
-        <v>372</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+        <v>382</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8661,11 +8875,11 @@
         <v>372</v>
       </c>
       <c r="J250" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">

--- a/BackTest/2019-10-28 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-28 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>58.4579</v>
       </c>
       <c r="G2" t="n">
-        <v>-17789.29344383999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>200.4822</v>
       </c>
       <c r="G3" t="n">
-        <v>-17789.29344383999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5087.3671</v>
       </c>
       <c r="G4" t="n">
-        <v>-12701.92634383999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4913.1564</v>
       </c>
       <c r="G5" t="n">
-        <v>-12701.92634383999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1605</v>
       </c>
       <c r="G6" t="n">
-        <v>-11096.92634383999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4625.9193</v>
       </c>
       <c r="G7" t="n">
-        <v>-6471.007043839994</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>506.3096</v>
       </c>
       <c r="G8" t="n">
-        <v>-5964.697443839995</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2292.9055</v>
       </c>
       <c r="G9" t="n">
-        <v>-3671.791943839995</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3.3458</v>
       </c>
       <c r="G10" t="n">
-        <v>-3671.791943839995</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1.5218</v>
       </c>
       <c r="G11" t="n">
-        <v>-3673.313743839995</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>434.2</v>
       </c>
       <c r="G12" t="n">
-        <v>-4107.513743839995</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>462.8858</v>
       </c>
       <c r="G13" t="n">
-        <v>-4570.399543839995</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>561.0949000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-5131.494443839995</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>254</v>
       </c>
       <c r="G15" t="n">
-        <v>-5131.494443839995</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2171</v>
       </c>
       <c r="G16" t="n">
-        <v>-5131.494443839995</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>260.6452</v>
       </c>
       <c r="G17" t="n">
-        <v>-5131.494443839995</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>550.23050397</v>
       </c>
       <c r="G18" t="n">
-        <v>-4581.263939869996</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>83.352</v>
       </c>
       <c r="G19" t="n">
-        <v>-4664.615939869996</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>591.601</v>
       </c>
       <c r="G20" t="n">
-        <v>-5256.216939869995</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1518.9015</v>
       </c>
       <c r="G21" t="n">
-        <v>-5256.216939869995</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>385.246</v>
       </c>
       <c r="G22" t="n">
-        <v>-5641.462939869995</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>525.9998000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-6167.462739869996</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2305</v>
       </c>
       <c r="G24" t="n">
-        <v>-6167.462739869996</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>317.3796</v>
       </c>
       <c r="G25" t="n">
-        <v>-6167.462739869996</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-6166.462739869996</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>18.0018</v>
       </c>
       <c r="G27" t="n">
-        <v>-6148.460939869996</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>454.9861</v>
       </c>
       <c r="G28" t="n">
-        <v>-6148.460939869996</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>259.7915</v>
       </c>
       <c r="G29" t="n">
-        <v>-5888.669439869996</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>91</v>
       </c>
       <c r="G30" t="n">
-        <v>-5797.669439869996</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>241.7542</v>
       </c>
       <c r="G31" t="n">
-        <v>-5797.669439869996</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>422.5145</v>
       </c>
       <c r="G32" t="n">
-        <v>-5375.154939869995</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>440.6379</v>
       </c>
       <c r="G33" t="n">
-        <v>-5815.792839869995</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>827.0209</v>
       </c>
       <c r="G34" t="n">
-        <v>-6642.813739869995</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>592.9634</v>
       </c>
       <c r="G35" t="n">
-        <v>-6049.850339869995</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1939</v>
       </c>
       <c r="G36" t="n">
-        <v>-6049.850339869995</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>367.541</v>
       </c>
       <c r="G37" t="n">
-        <v>-6049.850339869995</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1091.4956</v>
       </c>
       <c r="G38" t="n">
-        <v>-6049.850339869995</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>789.3416999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>-5260.508639869995</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>-5259.508639869995</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>221.7104</v>
       </c>
       <c r="G41" t="n">
-        <v>-5481.219039869995</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-5480.219039869995</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1757.8373</v>
       </c>
       <c r="G43" t="n">
-        <v>-7238.056339869995</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>181.7947</v>
       </c>
       <c r="G44" t="n">
-        <v>-7056.261639869995</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>86.1343</v>
       </c>
       <c r="G45" t="n">
-        <v>-7142.395939869994</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>385</v>
       </c>
       <c r="G46" t="n">
-        <v>-6757.395939869994</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>-6657.395939869994</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>766.6368</v>
       </c>
       <c r="G48" t="n">
-        <v>-5890.759139869994</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>3540.9441</v>
       </c>
       <c r="G49" t="n">
-        <v>-2349.815039869994</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>6999</v>
       </c>
       <c r="G50" t="n">
-        <v>4649.184960130005</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>4201.9173</v>
       </c>
       <c r="G51" t="n">
-        <v>447.2676601300054</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>121</v>
       </c>
       <c r="G52" t="n">
-        <v>447.2676601300054</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>135.3665</v>
       </c>
       <c r="G53" t="n">
-        <v>582.6341601300054</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>582.6341601300054</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>33</v>
       </c>
       <c r="G55" t="n">
-        <v>549.6341601300054</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>78.30629999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>627.9404601300054</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>25</v>
       </c>
       <c r="G57" t="n">
-        <v>602.9404601300054</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>50</v>
       </c>
       <c r="G58" t="n">
-        <v>552.9404601300054</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>5208.0087</v>
       </c>
       <c r="G59" t="n">
-        <v>5760.949160130006</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2120.8579</v>
       </c>
       <c r="G60" t="n">
-        <v>3640.091260130006</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1100.0941</v>
       </c>
       <c r="G61" t="n">
-        <v>2539.997160130006</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>727.9417</v>
       </c>
       <c r="G62" t="n">
-        <v>2539.997160130006</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2640</v>
       </c>
       <c r="G63" t="n">
-        <v>2539.997160130006</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3452.4293</v>
       </c>
       <c r="G64" t="n">
-        <v>2539.997160130006</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>81.6408</v>
       </c>
       <c r="G65" t="n">
-        <v>2621.637960130006</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>2620.637960130006</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>578.1593</v>
       </c>
       <c r="G67" t="n">
-        <v>2620.637960130006</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>582</v>
       </c>
       <c r="G68" t="n">
-        <v>2620.637960130006</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>280</v>
       </c>
       <c r="G69" t="n">
-        <v>2620.637960130006</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>983.942</v>
       </c>
       <c r="G70" t="n">
-        <v>1636.695960130006</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>307.8295</v>
       </c>
       <c r="G71" t="n">
-        <v>1944.525460130006</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>1946.525460130006</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3705.9996</v>
       </c>
       <c r="G73" t="n">
-        <v>-1759.474139869994</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>4798.865</v>
       </c>
       <c r="G74" t="n">
-        <v>-1759.474139869994</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,19 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-1758.474139869994</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I75" t="n">
+        <v>372</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2667,21 @@
         <v>3660.5751</v>
       </c>
       <c r="G76" t="n">
-        <v>-5419.049239869994</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>372</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2703,21 @@
         <v>1180.584</v>
       </c>
       <c r="G77" t="n">
-        <v>-6599.633239869994</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>372</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2739,15 @@
         <v>191</v>
       </c>
       <c r="G78" t="n">
-        <v>-6790.633239869994</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2769,15 @@
         <v>118.6051</v>
       </c>
       <c r="G79" t="n">
-        <v>-6790.633239869994</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2799,15 @@
         <v>1.5145</v>
       </c>
       <c r="G80" t="n">
-        <v>-6789.118739869994</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2829,15 @@
         <v>298.3972</v>
       </c>
       <c r="G81" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2859,15 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2889,15 @@
         <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2919,15 @@
         <v>284</v>
       </c>
       <c r="G84" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2949,15 @@
         <v>171</v>
       </c>
       <c r="G85" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>920</v>
       </c>
       <c r="G86" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>314.0925</v>
       </c>
       <c r="G87" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>1052.9998</v>
       </c>
       <c r="G88" t="n">
-        <v>-7087.515939869994</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>750.1574000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-6337.358539869994</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,15 @@
         <v>911.0776</v>
       </c>
       <c r="G90" t="n">
-        <v>-5426.280939869995</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3129,15 @@
         <v>200.7011</v>
       </c>
       <c r="G91" t="n">
-        <v>-5626.982039869995</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>2719</v>
       </c>
       <c r="G92" t="n">
-        <v>-2907.982039869995</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>132.9041</v>
       </c>
       <c r="G93" t="n">
-        <v>-3040.886139869995</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>1328.5158</v>
       </c>
       <c r="G94" t="n">
-        <v>-1712.370339869995</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>172.182</v>
       </c>
       <c r="G95" t="n">
-        <v>-1712.370339869995</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,15 @@
         <v>10677.2235</v>
       </c>
       <c r="G96" t="n">
-        <v>-12389.59383986999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,15 @@
         <v>233.7747</v>
       </c>
       <c r="G97" t="n">
-        <v>-12155.81913986999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3339,15 @@
         <v>1040</v>
       </c>
       <c r="G98" t="n">
-        <v>-13195.81913986999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3369,15 @@
         <v>61</v>
       </c>
       <c r="G99" t="n">
-        <v>-13134.81913986999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3399,15 @@
         <v>500</v>
       </c>
       <c r="G100" t="n">
-        <v>-13634.81913986999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3429,15 @@
         <v>1016.8467</v>
       </c>
       <c r="G101" t="n">
-        <v>-13634.81913986999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3459,15 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>-13633.81913986999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3489,15 @@
         <v>7976.0655</v>
       </c>
       <c r="G103" t="n">
-        <v>-5657.753639869995</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3519,15 @@
         <v>2966.8696</v>
       </c>
       <c r="G104" t="n">
-        <v>-8624.623239869994</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3549,15 @@
         <v>234</v>
       </c>
       <c r="G105" t="n">
-        <v>-8390.623239869994</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3579,15 @@
         <v>790.754</v>
       </c>
       <c r="G106" t="n">
-        <v>-9181.377239869995</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3609,15 @@
         <v>15972.9191</v>
       </c>
       <c r="G107" t="n">
-        <v>-25154.29633986999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3639,15 @@
         <v>797.908</v>
       </c>
       <c r="G108" t="n">
-        <v>-25154.29633986999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3669,15 @@
         <v>11355.9618</v>
       </c>
       <c r="G109" t="n">
-        <v>-13798.33453986999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3699,15 @@
         <v>4234.2261</v>
       </c>
       <c r="G110" t="n">
-        <v>-18032.56063987</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3729,15 @@
         <v>9160.8969</v>
       </c>
       <c r="G111" t="n">
-        <v>-18032.56063987</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3759,15 @@
         <v>706.5925</v>
       </c>
       <c r="G112" t="n">
-        <v>-17325.96813987</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3789,15 @@
         <v>382.3905</v>
       </c>
       <c r="G113" t="n">
-        <v>-17708.35863987</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3819,15 @@
         <v>1111</v>
       </c>
       <c r="G114" t="n">
-        <v>-16597.35863987</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3849,15 @@
         <v>1327.0495</v>
       </c>
       <c r="G115" t="n">
-        <v>-17924.40813987</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3879,15 @@
         <v>21592.6257</v>
       </c>
       <c r="G116" t="n">
-        <v>-39517.03383987</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3909,15 @@
         <v>673</v>
       </c>
       <c r="G117" t="n">
-        <v>-38844.03383987</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3939,15 @@
         <v>4659.6794</v>
       </c>
       <c r="G118" t="n">
-        <v>-34184.35443987</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3969,15 @@
         <v>5353.4963</v>
       </c>
       <c r="G119" t="n">
-        <v>-34184.35443987</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3999,15 @@
         <v>8642.260899999999</v>
       </c>
       <c r="G120" t="n">
-        <v>-25542.09353986999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4029,15 @@
         <v>14863.4863</v>
       </c>
       <c r="G121" t="n">
-        <v>-40405.57983987</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4059,15 @@
         <v>343.0696</v>
       </c>
       <c r="G122" t="n">
-        <v>-40062.51023987</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4089,15 @@
         <v>9570.3791</v>
       </c>
       <c r="G123" t="n">
-        <v>-49632.88933986999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4119,15 @@
         <v>142.1689</v>
       </c>
       <c r="G124" t="n">
-        <v>-49632.88933986999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4149,15 @@
         <v>10820.1783</v>
       </c>
       <c r="G125" t="n">
-        <v>-38812.71103987</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4179,15 @@
         <v>4918.8154</v>
       </c>
       <c r="G126" t="n">
-        <v>-33893.89563987</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4209,15 @@
         <v>15212.7135</v>
       </c>
       <c r="G127" t="n">
-        <v>-33893.89563987</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4239,15 @@
         <v>3935.0812</v>
       </c>
       <c r="G128" t="n">
-        <v>-37828.97683987</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4269,15 @@
         <v>3545.4876</v>
       </c>
       <c r="G129" t="n">
-        <v>-41374.46443987</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4299,15 @@
         <v>10086.125</v>
       </c>
       <c r="G130" t="n">
-        <v>-51460.58943987</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4329,15 @@
         <v>1272.4073</v>
       </c>
       <c r="G131" t="n">
-        <v>-50188.18213987</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4359,15 @@
         <v>2031.3441</v>
       </c>
       <c r="G132" t="n">
-        <v>-50188.18213987</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4389,15 @@
         <v>18.602</v>
       </c>
       <c r="G133" t="n">
-        <v>-50169.58013987</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4419,15 @@
         <v>959.3563</v>
       </c>
       <c r="G134" t="n">
-        <v>-49210.22383987</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4449,15 @@
         <v>150</v>
       </c>
       <c r="G135" t="n">
-        <v>-49360.22383987</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4479,15 @@
         <v>26910.7493</v>
       </c>
       <c r="G136" t="n">
-        <v>-22449.47453987</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4509,15 @@
         <v>1044</v>
       </c>
       <c r="G137" t="n">
-        <v>-21405.47453987</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4539,15 @@
         <v>4336.6201</v>
       </c>
       <c r="G138" t="n">
-        <v>-25742.09463987</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4569,15 @@
         <v>3959.1286</v>
       </c>
       <c r="G139" t="n">
-        <v>-29701.22323987</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4599,15 @@
         <v>405.7614</v>
       </c>
       <c r="G140" t="n">
-        <v>-29295.46183987</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4629,15 @@
         <v>2127.6605</v>
       </c>
       <c r="G141" t="n">
-        <v>-29295.46183987</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4659,15 @@
         <v>5048.4667</v>
       </c>
       <c r="G142" t="n">
-        <v>-24246.99513987</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4689,15 @@
         <v>9199.0895</v>
       </c>
       <c r="G143" t="n">
-        <v>-33446.08463987</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4719,15 @@
         <v>8000</v>
       </c>
       <c r="G144" t="n">
-        <v>-41446.08463987</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4749,15 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>-41445.08463987</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4779,15 @@
         <v>1972.7251</v>
       </c>
       <c r="G146" t="n">
-        <v>-43417.80973987</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4809,15 @@
         <v>156.096</v>
       </c>
       <c r="G147" t="n">
-        <v>-43261.71373987001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4839,15 @@
         <v>4356.0911</v>
       </c>
       <c r="G148" t="n">
-        <v>-43261.71373987001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4869,15 @@
         <v>226</v>
       </c>
       <c r="G149" t="n">
-        <v>-43487.71373987001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4899,15 @@
         <v>50</v>
       </c>
       <c r="G150" t="n">
-        <v>-43487.71373987001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4929,15 @@
         <v>50</v>
       </c>
       <c r="G151" t="n">
-        <v>-43487.71373987001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4959,15 @@
         <v>311</v>
       </c>
       <c r="G152" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4989,15 @@
         <v>330</v>
       </c>
       <c r="G153" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5019,15 @@
         <v>97</v>
       </c>
       <c r="G154" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5049,15 @@
         <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5079,15 @@
         <v>2005</v>
       </c>
       <c r="G156" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5109,15 @@
         <v>400</v>
       </c>
       <c r="G157" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5139,15 @@
         <v>4731.7092</v>
       </c>
       <c r="G158" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5169,15 @@
         <v>3325</v>
       </c>
       <c r="G159" t="n">
-        <v>-43176.71373987001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5199,15 @@
         <v>3533.6521</v>
       </c>
       <c r="G160" t="n">
-        <v>-39643.06163987001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5229,15 @@
         <v>2926.2968</v>
       </c>
       <c r="G161" t="n">
-        <v>-39643.06163987001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5259,15 @@
         <v>924.8514</v>
       </c>
       <c r="G162" t="n">
-        <v>-40567.91303987001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5289,15 @@
         <v>98.3267</v>
       </c>
       <c r="G163" t="n">
-        <v>-40469.58633987001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5319,15 @@
         <v>402.7581</v>
       </c>
       <c r="G164" t="n">
-        <v>-40066.82823987001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5349,15 @@
         <v>4125.0152</v>
       </c>
       <c r="G165" t="n">
-        <v>-40066.82823987001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5379,15 @@
         <v>245.0244</v>
       </c>
       <c r="G166" t="n">
-        <v>-39821.80383987001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5409,15 @@
         <v>874.8713</v>
       </c>
       <c r="G167" t="n">
-        <v>-39821.80383987001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5439,15 @@
         <v>1474.8622</v>
       </c>
       <c r="G168" t="n">
-        <v>-39821.80383987001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5469,15 @@
         <v>3048.0685</v>
       </c>
       <c r="G169" t="n">
-        <v>-39821.80383987001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5499,15 @@
         <v>5042.8853</v>
       </c>
       <c r="G170" t="n">
-        <v>-39821.80383987001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5529,15 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>-39820.80383987001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5559,15 @@
         <v>10</v>
       </c>
       <c r="G172" t="n">
-        <v>-39830.80383987001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5589,15 @@
         <v>8029.3274</v>
       </c>
       <c r="G173" t="n">
-        <v>-47860.13123987001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5619,15 @@
         <v>1012.6599</v>
       </c>
       <c r="G174" t="n">
-        <v>-47860.13123987001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5649,15 @@
         <v>2333.0981</v>
       </c>
       <c r="G175" t="n">
-        <v>-50193.22933987001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5679,15 @@
         <v>139.9506</v>
       </c>
       <c r="G176" t="n">
-        <v>-50193.22933987001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5709,15 @@
         <v>1789.5597</v>
       </c>
       <c r="G177" t="n">
-        <v>-50193.22933987001</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5739,15 @@
         <v>48.4963</v>
       </c>
       <c r="G178" t="n">
-        <v>-50144.73303987001</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5769,15 @@
         <v>832.9969</v>
       </c>
       <c r="G179" t="n">
-        <v>-50144.73303987001</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5799,15 @@
         <v>150</v>
       </c>
       <c r="G180" t="n">
-        <v>-50144.73303987001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5829,15 @@
         <v>159.9805</v>
       </c>
       <c r="G181" t="n">
-        <v>-50304.71353987001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5859,15 @@
         <v>8875.7096</v>
       </c>
       <c r="G182" t="n">
-        <v>-59180.42313987001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5889,15 @@
         <v>192.2183</v>
       </c>
       <c r="G183" t="n">
-        <v>-59372.64143987001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5919,15 @@
         <v>1392.2361</v>
       </c>
       <c r="G184" t="n">
-        <v>-57980.40533987001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5949,15 @@
         <v>1045</v>
       </c>
       <c r="G185" t="n">
-        <v>-56935.40533987001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5979,15 @@
         <v>88.6109</v>
       </c>
       <c r="G186" t="n">
-        <v>-57024.01623987001</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6009,15 @@
         <v>26.1096</v>
       </c>
       <c r="G187" t="n">
-        <v>-56997.90663987001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6039,15 @@
         <v>1445.3787</v>
       </c>
       <c r="G188" t="n">
-        <v>-58443.28533987001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6069,15 @@
         <v>17650.5877</v>
       </c>
       <c r="G189" t="n">
-        <v>-58443.28533987001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6099,15 @@
         <v>249.891</v>
       </c>
       <c r="G190" t="n">
-        <v>-58443.28533987001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6129,15 @@
         <v>994.0432</v>
       </c>
       <c r="G191" t="n">
-        <v>-59437.32853987001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6159,15 @@
         <v>1886.9873</v>
       </c>
       <c r="G192" t="n">
-        <v>-57550.34123987001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6189,15 @@
         <v>50</v>
       </c>
       <c r="G193" t="n">
-        <v>-57600.34123987001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6219,15 @@
         <v>1241.4879</v>
       </c>
       <c r="G194" t="n">
-        <v>-56358.85333987001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6249,15 @@
         <v>820</v>
       </c>
       <c r="G195" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6279,15 @@
         <v>926</v>
       </c>
       <c r="G196" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6309,15 @@
         <v>154</v>
       </c>
       <c r="G197" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6339,15 @@
         <v>1528</v>
       </c>
       <c r="G198" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6369,15 @@
         <v>200</v>
       </c>
       <c r="G199" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6399,15 @@
         <v>25.9067</v>
       </c>
       <c r="G200" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H200" t="n">
         <v>2</v>
       </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6429,15 @@
         <v>1601</v>
       </c>
       <c r="G201" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6459,15 @@
         <v>187</v>
       </c>
       <c r="G202" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6489,15 @@
         <v>345</v>
       </c>
       <c r="G203" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6519,15 @@
         <v>630</v>
       </c>
       <c r="G204" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6549,15 @@
         <v>522</v>
       </c>
       <c r="G205" t="n">
-        <v>-55538.85333987001</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6579,15 @@
         <v>86</v>
       </c>
       <c r="G206" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6609,15 @@
         <v>91.053</v>
       </c>
       <c r="G207" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6639,15 @@
         <v>3264.1353</v>
       </c>
       <c r="G208" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H208" t="n">
         <v>2</v>
       </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6669,15 @@
         <v>12.1</v>
       </c>
       <c r="G209" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6699,15 @@
         <v>182.1</v>
       </c>
       <c r="G210" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6729,15 @@
         <v>38.9</v>
       </c>
       <c r="G211" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H211" t="n">
         <v>2</v>
       </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6759,15 @@
         <v>47.9</v>
       </c>
       <c r="G212" t="n">
-        <v>-55452.85333987001</v>
-      </c>
-      <c r="H212" t="n">
         <v>2</v>
       </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6789,15 @@
         <v>3908.2327</v>
       </c>
       <c r="G213" t="n">
-        <v>-59361.08603987001</v>
-      </c>
-      <c r="H213" t="n">
         <v>2</v>
       </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6819,15 @@
         <v>5483.7728</v>
       </c>
       <c r="G214" t="n">
-        <v>-64844.85883987001</v>
-      </c>
-      <c r="H214" t="n">
         <v>2</v>
       </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6849,15 @@
         <v>609.3244999999999</v>
       </c>
       <c r="G215" t="n">
-        <v>-64235.53433987001</v>
-      </c>
-      <c r="H215" t="n">
         <v>2</v>
       </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,22 +6879,15 @@
         <v>6315.6376</v>
       </c>
       <c r="G216" t="n">
-        <v>-64235.53433987001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>382</v>
-      </c>
-      <c r="J216" t="n">
-        <v>382</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7547,24 +6909,15 @@
         <v>103.4097</v>
       </c>
       <c r="G217" t="n">
-        <v>-64235.53433987001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>382</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7586,1306 +6939,1147 @@
         <v>4712.8552</v>
       </c>
       <c r="G218" t="n">
-        <v>-68948.38953987001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>377</v>
+      </c>
+      <c r="C219" t="n">
+        <v>377</v>
+      </c>
+      <c r="D219" t="n">
+        <v>377</v>
+      </c>
+      <c r="E219" t="n">
+        <v>375</v>
+      </c>
+      <c r="F219" t="n">
+        <v>14326.6553</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>377</v>
+      </c>
+      <c r="C220" t="n">
+        <v>379</v>
+      </c>
+      <c r="D220" t="n">
+        <v>379</v>
+      </c>
+      <c r="E220" t="n">
+        <v>377</v>
+      </c>
+      <c r="F220" t="n">
+        <v>31</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>381</v>
+      </c>
+      <c r="C221" t="n">
+        <v>381</v>
+      </c>
+      <c r="D221" t="n">
+        <v>381</v>
+      </c>
+      <c r="E221" t="n">
+        <v>381</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2283.6</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>381</v>
+      </c>
+      <c r="C222" t="n">
+        <v>381</v>
+      </c>
+      <c r="D222" t="n">
+        <v>381</v>
+      </c>
+      <c r="E222" t="n">
+        <v>381</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1344.9934</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
         <v>382</v>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="C223" t="n">
+        <v>382</v>
+      </c>
+      <c r="D223" t="n">
+        <v>382</v>
+      </c>
+      <c r="E223" t="n">
+        <v>382</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1611.0418</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>377</v>
+      </c>
+      <c r="C224" t="n">
+        <v>377</v>
+      </c>
+      <c r="D224" t="n">
+        <v>377</v>
+      </c>
+      <c r="E224" t="n">
+        <v>377</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1208.0288</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>377</v>
+      </c>
+      <c r="C225" t="n">
+        <v>377</v>
+      </c>
+      <c r="D225" t="n">
+        <v>377</v>
+      </c>
+      <c r="E225" t="n">
+        <v>377</v>
+      </c>
+      <c r="F225" t="n">
+        <v>279</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>377</v>
+      </c>
+      <c r="C226" t="n">
+        <v>377</v>
+      </c>
+      <c r="D226" t="n">
+        <v>377</v>
+      </c>
+      <c r="E226" t="n">
+        <v>377</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1012.9712</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>374</v>
+      </c>
+      <c r="C227" t="n">
+        <v>374</v>
+      </c>
+      <c r="D227" t="n">
+        <v>374</v>
+      </c>
+      <c r="E227" t="n">
+        <v>374</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4111.3228</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>373</v>
+      </c>
+      <c r="C228" t="n">
+        <v>373</v>
+      </c>
+      <c r="D228" t="n">
+        <v>373</v>
+      </c>
+      <c r="E228" t="n">
+        <v>373</v>
+      </c>
+      <c r="F228" t="n">
+        <v>385.6123</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>374</v>
+      </c>
+      <c r="I228" t="n">
+        <v>374</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>373</v>
+      </c>
+      <c r="C229" t="n">
+        <v>374</v>
+      </c>
+      <c r="D229" t="n">
+        <v>374</v>
+      </c>
+      <c r="E229" t="n">
+        <v>373</v>
+      </c>
+      <c r="F229" t="n">
+        <v>251</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>373</v>
+      </c>
+      <c r="I229" t="n">
+        <v>374</v>
+      </c>
+      <c r="J229" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>377</v>
-      </c>
-      <c r="C219" t="n">
-        <v>377</v>
-      </c>
-      <c r="D219" t="n">
-        <v>377</v>
-      </c>
-      <c r="E219" t="n">
-        <v>375</v>
-      </c>
-      <c r="F219" t="n">
-        <v>14326.6553</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-68948.38953987001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>382</v>
-      </c>
-      <c r="K219" t="inlineStr">
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>381</v>
+      </c>
+      <c r="C230" t="n">
+        <v>381</v>
+      </c>
+      <c r="D230" t="n">
+        <v>381</v>
+      </c>
+      <c r="E230" t="n">
+        <v>381</v>
+      </c>
+      <c r="F230" t="n">
+        <v>50</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>374</v>
+      </c>
+      <c r="I230" t="n">
+        <v>374</v>
+      </c>
+      <c r="J230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
         <v>377</v>
       </c>
-      <c r="C220" t="n">
-        <v>379</v>
-      </c>
-      <c r="D220" t="n">
-        <v>379</v>
-      </c>
-      <c r="E220" t="n">
+      <c r="C231" t="n">
         <v>377</v>
       </c>
-      <c r="F220" t="n">
-        <v>31</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-68917.38953987001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>382</v>
-      </c>
-      <c r="K220" t="inlineStr">
+      <c r="D231" t="n">
+        <v>377</v>
+      </c>
+      <c r="E231" t="n">
+        <v>377</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26.2467</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>374</v>
+      </c>
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>381</v>
-      </c>
-      <c r="C221" t="n">
-        <v>381</v>
-      </c>
-      <c r="D221" t="n">
-        <v>381</v>
-      </c>
-      <c r="E221" t="n">
-        <v>381</v>
-      </c>
-      <c r="F221" t="n">
-        <v>2283.6</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-66633.78953987001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>382</v>
-      </c>
-      <c r="K221" t="inlineStr">
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>377</v>
+      </c>
+      <c r="C232" t="n">
+        <v>377</v>
+      </c>
+      <c r="D232" t="n">
+        <v>377</v>
+      </c>
+      <c r="E232" t="n">
+        <v>377</v>
+      </c>
+      <c r="F232" t="n">
+        <v>790.4751</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>374</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>381</v>
-      </c>
-      <c r="C222" t="n">
-        <v>381</v>
-      </c>
-      <c r="D222" t="n">
-        <v>381</v>
-      </c>
-      <c r="E222" t="n">
-        <v>381</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1344.9934</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-66633.78953987001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>382</v>
-      </c>
-      <c r="K222" t="inlineStr">
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>372</v>
+      </c>
+      <c r="C233" t="n">
+        <v>372</v>
+      </c>
+      <c r="D233" t="n">
+        <v>372</v>
+      </c>
+      <c r="E233" t="n">
+        <v>372</v>
+      </c>
+      <c r="F233" t="n">
+        <v>17175.6139</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>374</v>
+      </c>
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>382</v>
-      </c>
-      <c r="C223" t="n">
-        <v>382</v>
-      </c>
-      <c r="D223" t="n">
-        <v>382</v>
-      </c>
-      <c r="E223" t="n">
-        <v>382</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1611.0418</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-65022.74773987001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>382</v>
-      </c>
-      <c r="K223" t="inlineStr">
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>372</v>
+      </c>
+      <c r="C234" t="n">
+        <v>372</v>
+      </c>
+      <c r="D234" t="n">
+        <v>372</v>
+      </c>
+      <c r="E234" t="n">
+        <v>372</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2541.1399</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>374</v>
+      </c>
+      <c r="J234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>377</v>
-      </c>
-      <c r="C224" t="n">
-        <v>377</v>
-      </c>
-      <c r="D224" t="n">
-        <v>377</v>
-      </c>
-      <c r="E224" t="n">
-        <v>377</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1208.0288</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-66230.77653987001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>382</v>
-      </c>
-      <c r="K224" t="inlineStr">
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>372</v>
+      </c>
+      <c r="C235" t="n">
+        <v>372</v>
+      </c>
+      <c r="D235" t="n">
+        <v>372</v>
+      </c>
+      <c r="E235" t="n">
+        <v>372</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>372</v>
+      </c>
+      <c r="I235" t="n">
+        <v>374</v>
+      </c>
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>377</v>
-      </c>
-      <c r="C225" t="n">
-        <v>377</v>
-      </c>
-      <c r="D225" t="n">
-        <v>377</v>
-      </c>
-      <c r="E225" t="n">
-        <v>377</v>
-      </c>
-      <c r="F225" t="n">
-        <v>279</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-66230.77653987001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>382</v>
-      </c>
-      <c r="K225" t="inlineStr">
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>372</v>
+      </c>
+      <c r="C236" t="n">
+        <v>372</v>
+      </c>
+      <c r="D236" t="n">
+        <v>372</v>
+      </c>
+      <c r="E236" t="n">
+        <v>372</v>
+      </c>
+      <c r="F236" t="n">
+        <v>600</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>372</v>
+      </c>
+      <c r="I236" t="n">
+        <v>374</v>
+      </c>
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>377</v>
-      </c>
-      <c r="C226" t="n">
-        <v>377</v>
-      </c>
-      <c r="D226" t="n">
-        <v>377</v>
-      </c>
-      <c r="E226" t="n">
-        <v>377</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1012.9712</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-66230.77653987001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>382</v>
-      </c>
-      <c r="K226" t="inlineStr">
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>372</v>
+      </c>
+      <c r="C237" t="n">
+        <v>372</v>
+      </c>
+      <c r="D237" t="n">
+        <v>372</v>
+      </c>
+      <c r="E237" t="n">
+        <v>372</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1383.6738</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>372</v>
+      </c>
+      <c r="I237" t="n">
+        <v>374</v>
+      </c>
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>372</v>
+      </c>
+      <c r="C238" t="n">
+        <v>372</v>
+      </c>
+      <c r="D238" t="n">
+        <v>372</v>
+      </c>
+      <c r="E238" t="n">
+        <v>372</v>
+      </c>
+      <c r="F238" t="n">
+        <v>578</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>372</v>
+      </c>
+      <c r="I238" t="n">
         <v>374</v>
       </c>
-      <c r="C227" t="n">
-        <v>374</v>
-      </c>
-      <c r="D227" t="n">
-        <v>374</v>
-      </c>
-      <c r="E227" t="n">
-        <v>374</v>
-      </c>
-      <c r="F227" t="n">
-        <v>4111.3228</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-70342.09933987001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>382</v>
-      </c>
-      <c r="K227" t="inlineStr">
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>373</v>
-      </c>
-      <c r="C228" t="n">
-        <v>373</v>
-      </c>
-      <c r="D228" t="n">
-        <v>373</v>
-      </c>
-      <c r="E228" t="n">
-        <v>373</v>
-      </c>
-      <c r="F228" t="n">
-        <v>385.6123</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-70727.71163987</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>382</v>
-      </c>
-      <c r="K228" t="inlineStr">
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>372</v>
+      </c>
+      <c r="C239" t="n">
+        <v>372</v>
+      </c>
+      <c r="D239" t="n">
+        <v>372</v>
+      </c>
+      <c r="E239" t="n">
+        <v>372</v>
+      </c>
+      <c r="F239" t="n">
+        <v>830</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>372</v>
+      </c>
+      <c r="I239" t="n">
+        <v>374</v>
+      </c>
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>373</v>
-      </c>
-      <c r="C229" t="n">
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>371</v>
+      </c>
+      <c r="C240" t="n">
+        <v>371</v>
+      </c>
+      <c r="D240" t="n">
+        <v>371</v>
+      </c>
+      <c r="E240" t="n">
+        <v>371</v>
+      </c>
+      <c r="F240" t="n">
+        <v>506.33</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="n">
+        <v>372</v>
+      </c>
+      <c r="I240" t="n">
         <v>374</v>
       </c>
-      <c r="D229" t="n">
-        <v>374</v>
-      </c>
-      <c r="E229" t="n">
-        <v>373</v>
-      </c>
-      <c r="F229" t="n">
-        <v>251</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-70476.71163987</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>373</v>
-      </c>
-      <c r="J229" t="n">
-        <v>382</v>
-      </c>
-      <c r="K229" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>381</v>
-      </c>
-      <c r="C230" t="n">
-        <v>381</v>
-      </c>
-      <c r="D230" t="n">
-        <v>381</v>
-      </c>
-      <c r="E230" t="n">
-        <v>381</v>
-      </c>
-      <c r="F230" t="n">
-        <v>50</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-70426.71163987</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>372</v>
+      </c>
+      <c r="C241" t="n">
+        <v>372</v>
+      </c>
+      <c r="D241" t="n">
+        <v>372</v>
+      </c>
+      <c r="E241" t="n">
+        <v>372</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1768.3548</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="n">
+        <v>371</v>
+      </c>
+      <c r="I241" t="n">
         <v>374</v>
       </c>
-      <c r="J230" t="n">
-        <v>382</v>
-      </c>
-      <c r="K230" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>377</v>
-      </c>
-      <c r="C231" t="n">
-        <v>377</v>
-      </c>
-      <c r="D231" t="n">
-        <v>377</v>
-      </c>
-      <c r="E231" t="n">
-        <v>377</v>
-      </c>
-      <c r="F231" t="n">
-        <v>26.2467</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-70452.95833987001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>382</v>
-      </c>
-      <c r="K231" t="inlineStr">
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>372</v>
+      </c>
+      <c r="C242" t="n">
+        <v>372</v>
+      </c>
+      <c r="D242" t="n">
+        <v>372</v>
+      </c>
+      <c r="E242" t="n">
+        <v>372</v>
+      </c>
+      <c r="F242" t="n">
+        <v>915.9815</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+      <c r="H242" t="n">
+        <v>372</v>
+      </c>
+      <c r="I242" t="n">
+        <v>374</v>
+      </c>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>377</v>
-      </c>
-      <c r="C232" t="n">
-        <v>377</v>
-      </c>
-      <c r="D232" t="n">
-        <v>377</v>
-      </c>
-      <c r="E232" t="n">
-        <v>377</v>
-      </c>
-      <c r="F232" t="n">
-        <v>790.4751</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-70452.95833987001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>382</v>
-      </c>
-      <c r="K232" t="inlineStr">
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>372</v>
+      </c>
+      <c r="C243" t="n">
+        <v>372</v>
+      </c>
+      <c r="D243" t="n">
+        <v>372</v>
+      </c>
+      <c r="E243" t="n">
+        <v>372</v>
+      </c>
+      <c r="F243" t="n">
+        <v>141.293</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>372</v>
+      </c>
+      <c r="I243" t="n">
+        <v>374</v>
+      </c>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>372</v>
-      </c>
-      <c r="C233" t="n">
-        <v>372</v>
-      </c>
-      <c r="D233" t="n">
-        <v>372</v>
-      </c>
-      <c r="E233" t="n">
-        <v>372</v>
-      </c>
-      <c r="F233" t="n">
-        <v>17175.6139</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>382</v>
-      </c>
-      <c r="K233" t="inlineStr">
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>372</v>
+      </c>
+      <c r="C244" t="n">
+        <v>372</v>
+      </c>
+      <c r="D244" t="n">
+        <v>372</v>
+      </c>
+      <c r="E244" t="n">
+        <v>372</v>
+      </c>
+      <c r="F244" t="n">
+        <v>141.293</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>372</v>
+      </c>
+      <c r="I244" t="n">
+        <v>374</v>
+      </c>
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>372</v>
-      </c>
-      <c r="C234" t="n">
-        <v>372</v>
-      </c>
-      <c r="D234" t="n">
-        <v>372</v>
-      </c>
-      <c r="E234" t="n">
-        <v>372</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2541.1399</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>382</v>
-      </c>
-      <c r="K234" t="inlineStr">
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>372</v>
+      </c>
+      <c r="C245" t="n">
+        <v>371</v>
+      </c>
+      <c r="D245" t="n">
+        <v>372</v>
+      </c>
+      <c r="E245" t="n">
+        <v>371</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1185.9371</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>372</v>
+      </c>
+      <c r="I245" t="n">
+        <v>374</v>
+      </c>
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>372</v>
-      </c>
-      <c r="C235" t="n">
-        <v>372</v>
-      </c>
-      <c r="D235" t="n">
-        <v>372</v>
-      </c>
-      <c r="E235" t="n">
-        <v>372</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>382</v>
-      </c>
-      <c r="K235" t="inlineStr">
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>372</v>
+      </c>
+      <c r="C246" t="n">
+        <v>372</v>
+      </c>
+      <c r="D246" t="n">
+        <v>372</v>
+      </c>
+      <c r="E246" t="n">
+        <v>372</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2946.0271</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>371</v>
+      </c>
+      <c r="I246" t="n">
+        <v>374</v>
+      </c>
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>372</v>
-      </c>
-      <c r="C236" t="n">
-        <v>372</v>
-      </c>
-      <c r="D236" t="n">
-        <v>372</v>
-      </c>
-      <c r="E236" t="n">
-        <v>372</v>
-      </c>
-      <c r="F236" t="n">
-        <v>600</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>372</v>
-      </c>
-      <c r="J236" t="n">
-        <v>382</v>
-      </c>
-      <c r="K236" t="inlineStr">
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>372</v>
+      </c>
+      <c r="C247" t="n">
+        <v>372</v>
+      </c>
+      <c r="D247" t="n">
+        <v>372</v>
+      </c>
+      <c r="E247" t="n">
+        <v>372</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2152.5099</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" t="n">
+        <v>372</v>
+      </c>
+      <c r="I247" t="n">
+        <v>374</v>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>372</v>
-      </c>
-      <c r="C237" t="n">
-        <v>372</v>
-      </c>
-      <c r="D237" t="n">
-        <v>372</v>
-      </c>
-      <c r="E237" t="n">
-        <v>372</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1383.6738</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>372</v>
-      </c>
-      <c r="J237" t="n">
-        <v>382</v>
-      </c>
-      <c r="K237" t="inlineStr">
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>372</v>
+      </c>
+      <c r="C248" t="n">
+        <v>372</v>
+      </c>
+      <c r="D248" t="n">
+        <v>372</v>
+      </c>
+      <c r="E248" t="n">
+        <v>372</v>
+      </c>
+      <c r="F248" t="n">
+        <v>93.56999999999999</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="n">
+        <v>372</v>
+      </c>
+      <c r="I248" t="n">
+        <v>374</v>
+      </c>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>372</v>
-      </c>
-      <c r="C238" t="n">
-        <v>372</v>
-      </c>
-      <c r="D238" t="n">
-        <v>372</v>
-      </c>
-      <c r="E238" t="n">
-        <v>372</v>
-      </c>
-      <c r="F238" t="n">
-        <v>578</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>372</v>
-      </c>
-      <c r="J238" t="n">
-        <v>382</v>
-      </c>
-      <c r="K238" t="inlineStr">
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>372</v>
+      </c>
+      <c r="C249" t="n">
+        <v>372</v>
+      </c>
+      <c r="D249" t="n">
+        <v>372</v>
+      </c>
+      <c r="E249" t="n">
+        <v>372</v>
+      </c>
+      <c r="F249" t="n">
+        <v>303</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>372</v>
+      </c>
+      <c r="I249" t="n">
+        <v>374</v>
+      </c>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>372</v>
-      </c>
-      <c r="C239" t="n">
-        <v>372</v>
-      </c>
-      <c r="D239" t="n">
-        <v>372</v>
-      </c>
-      <c r="E239" t="n">
-        <v>372</v>
-      </c>
-      <c r="F239" t="n">
-        <v>830</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-87628.57223987</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>372</v>
-      </c>
-      <c r="J239" t="n">
-        <v>382</v>
-      </c>
-      <c r="K239" t="inlineStr">
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>372</v>
+      </c>
+      <c r="C250" t="n">
+        <v>372</v>
+      </c>
+      <c r="D250" t="n">
+        <v>372</v>
+      </c>
+      <c r="E250" t="n">
+        <v>372</v>
+      </c>
+      <c r="F250" t="n">
+        <v>871.4166</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>372</v>
+      </c>
+      <c r="I250" t="n">
+        <v>374</v>
+      </c>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>371</v>
-      </c>
-      <c r="C240" t="n">
-        <v>371</v>
-      </c>
-      <c r="D240" t="n">
-        <v>371</v>
-      </c>
-      <c r="E240" t="n">
-        <v>371</v>
-      </c>
-      <c r="F240" t="n">
-        <v>506.33</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-88134.90223987</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>372</v>
-      </c>
-      <c r="J240" t="n">
-        <v>382</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>372</v>
-      </c>
-      <c r="C241" t="n">
-        <v>372</v>
-      </c>
-      <c r="D241" t="n">
-        <v>372</v>
-      </c>
-      <c r="E241" t="n">
-        <v>372</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1768.3548</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>371</v>
-      </c>
-      <c r="J241" t="n">
-        <v>382</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>372</v>
-      </c>
-      <c r="C242" t="n">
-        <v>372</v>
-      </c>
-      <c r="D242" t="n">
-        <v>372</v>
-      </c>
-      <c r="E242" t="n">
-        <v>372</v>
-      </c>
-      <c r="F242" t="n">
-        <v>915.9815</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>372</v>
-      </c>
-      <c r="J242" t="n">
-        <v>382</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>372</v>
-      </c>
-      <c r="C243" t="n">
-        <v>372</v>
-      </c>
-      <c r="D243" t="n">
-        <v>372</v>
-      </c>
-      <c r="E243" t="n">
-        <v>372</v>
-      </c>
-      <c r="F243" t="n">
-        <v>141.293</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>372</v>
-      </c>
-      <c r="J243" t="n">
-        <v>382</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>372</v>
-      </c>
-      <c r="C244" t="n">
-        <v>372</v>
-      </c>
-      <c r="D244" t="n">
-        <v>372</v>
-      </c>
-      <c r="E244" t="n">
-        <v>372</v>
-      </c>
-      <c r="F244" t="n">
-        <v>141.293</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-86366.54743987</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>372</v>
-      </c>
-      <c r="J244" t="n">
-        <v>382</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>372</v>
-      </c>
-      <c r="C245" t="n">
-        <v>371</v>
-      </c>
-      <c r="D245" t="n">
-        <v>372</v>
-      </c>
-      <c r="E245" t="n">
-        <v>371</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1185.9371</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-87552.48453987</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>372</v>
-      </c>
-      <c r="J245" t="n">
-        <v>382</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>372</v>
-      </c>
-      <c r="C246" t="n">
-        <v>372</v>
-      </c>
-      <c r="D246" t="n">
-        <v>372</v>
-      </c>
-      <c r="E246" t="n">
-        <v>372</v>
-      </c>
-      <c r="F246" t="n">
-        <v>2946.0271</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>371</v>
-      </c>
-      <c r="J246" t="n">
-        <v>382</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>372</v>
-      </c>
-      <c r="C247" t="n">
-        <v>372</v>
-      </c>
-      <c r="D247" t="n">
-        <v>372</v>
-      </c>
-      <c r="E247" t="n">
-        <v>372</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2152.5099</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>372</v>
-      </c>
-      <c r="J247" t="n">
-        <v>382</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>372</v>
-      </c>
-      <c r="C248" t="n">
-        <v>372</v>
-      </c>
-      <c r="D248" t="n">
-        <v>372</v>
-      </c>
-      <c r="E248" t="n">
-        <v>372</v>
-      </c>
-      <c r="F248" t="n">
-        <v>93.56999999999999</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>372</v>
-      </c>
-      <c r="J248" t="n">
-        <v>382</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>372</v>
-      </c>
-      <c r="C249" t="n">
-        <v>372</v>
-      </c>
-      <c r="D249" t="n">
-        <v>372</v>
-      </c>
-      <c r="E249" t="n">
-        <v>372</v>
-      </c>
-      <c r="F249" t="n">
-        <v>303</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>372</v>
-      </c>
-      <c r="J249" t="n">
-        <v>382</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>372</v>
-      </c>
-      <c r="C250" t="n">
-        <v>372</v>
-      </c>
-      <c r="D250" t="n">
-        <v>372</v>
-      </c>
-      <c r="E250" t="n">
-        <v>372</v>
-      </c>
-      <c r="F250" t="n">
-        <v>871.4166</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-84606.45743986999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>372</v>
-      </c>
-      <c r="J250" t="n">
-        <v>382</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
